--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\zlaata\src\test\resources\testdata\zltUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\repository\ZlaataProduction\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D1B537-ACC1-4AED-97B8-5BA63B47E338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9998249F-6F60-4A79-BB66-4F67AFC08533}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5477" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5510" uniqueCount="638">
   <si>
     <t>S.No</t>
   </si>
@@ -1903,9 +1903,6 @@
     <t>Home Page Test</t>
   </si>
   <si>
-    <t>sun flower</t>
-  </si>
-  <si>
     <t>Test demo</t>
   </si>
   <si>
@@ -1931,6 +1928,18 @@
   </si>
   <si>
     <t>sadsdasad</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADM_07</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/special-timer-event</t>
+  </si>
+  <si>
+    <t>Verify all uploaded Special Timer products appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_07</t>
   </si>
 </sst>
 </file>
@@ -2377,7 +2386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2588,7 +2597,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2611,21 +2638,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3429,10 +3441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z174"/>
+  <dimension ref="A1:Z175"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="109" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4185,18 +4197,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="88"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="94"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -4583,18 +4595,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="89" t="s">
+      <c r="A37" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="91"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="97"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -5013,18 +5025,18 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="89" t="s">
+      <c r="A51" s="95" t="s">
         <v>245</v>
       </c>
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="91"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="97"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="25">
@@ -5347,18 +5359,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="89" t="s">
+      <c r="A62" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="B62" s="90"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="91"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="97"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="25">
@@ -5713,18 +5725,18 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="89" t="s">
+      <c r="A74" s="95" t="s">
         <v>346</v>
       </c>
-      <c r="B74" s="90"/>
-      <c r="C74" s="90"/>
-      <c r="D74" s="90"/>
-      <c r="E74" s="90"/>
-      <c r="F74" s="90"/>
-      <c r="G74" s="90"/>
-      <c r="H74" s="90"/>
-      <c r="I74" s="90"/>
-      <c r="J74" s="91"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="96"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="96"/>
+      <c r="J74" s="97"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="25">
@@ -6591,18 +6603,18 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="85" t="s">
+      <c r="A102" s="91" t="s">
         <v>376</v>
       </c>
-      <c r="B102" s="85"/>
-      <c r="C102" s="85"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="85"/>
-      <c r="F102" s="85"/>
-      <c r="G102" s="85"/>
-      <c r="H102" s="85"/>
-      <c r="I102" s="85"/>
-      <c r="J102" s="85"/>
+      <c r="B102" s="91"/>
+      <c r="C102" s="91"/>
+      <c r="D102" s="91"/>
+      <c r="E102" s="91"/>
+      <c r="F102" s="91"/>
+      <c r="G102" s="91"/>
+      <c r="H102" s="91"/>
+      <c r="I102" s="91"/>
+      <c r="J102" s="91"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="25">
@@ -6925,18 +6937,18 @@
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A113" s="84" t="s">
+      <c r="A113" s="86" t="s">
         <v>378</v>
       </c>
-      <c r="B113" s="84"/>
-      <c r="C113" s="84"/>
-      <c r="D113" s="84"/>
-      <c r="E113" s="84"/>
-      <c r="F113" s="84"/>
-      <c r="G113" s="84"/>
-      <c r="H113" s="84"/>
-      <c r="I113" s="84"/>
-      <c r="J113" s="84"/>
+      <c r="B113" s="86"/>
+      <c r="C113" s="86"/>
+      <c r="D113" s="86"/>
+      <c r="E113" s="86"/>
+      <c r="F113" s="86"/>
+      <c r="G113" s="86"/>
+      <c r="H113" s="86"/>
+      <c r="I113" s="86"/>
+      <c r="J113" s="86"/>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" s="25">
@@ -6971,18 +6983,18 @@
       </c>
     </row>
     <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="84" t="s">
+      <c r="A115" s="86" t="s">
         <v>383</v>
       </c>
-      <c r="B115" s="84"/>
-      <c r="C115" s="84"/>
-      <c r="D115" s="84"/>
-      <c r="E115" s="84"/>
-      <c r="F115" s="84"/>
-      <c r="G115" s="84"/>
-      <c r="H115" s="84"/>
-      <c r="I115" s="84"/>
-      <c r="J115" s="84"/>
+      <c r="B115" s="86"/>
+      <c r="C115" s="86"/>
+      <c r="D115" s="86"/>
+      <c r="E115" s="86"/>
+      <c r="F115" s="86"/>
+      <c r="G115" s="86"/>
+      <c r="H115" s="86"/>
+      <c r="I115" s="86"/>
+      <c r="J115" s="86"/>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116" s="25">
@@ -7017,18 +7029,18 @@
       </c>
     </row>
     <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="84" t="s">
+      <c r="A117" s="86" t="s">
         <v>396</v>
       </c>
-      <c r="B117" s="84"/>
-      <c r="C117" s="84"/>
-      <c r="D117" s="84"/>
-      <c r="E117" s="84"/>
-      <c r="F117" s="84"/>
-      <c r="G117" s="84"/>
-      <c r="H117" s="84"/>
-      <c r="I117" s="84"/>
-      <c r="J117" s="84"/>
+      <c r="B117" s="86"/>
+      <c r="C117" s="86"/>
+      <c r="D117" s="86"/>
+      <c r="E117" s="86"/>
+      <c r="F117" s="86"/>
+      <c r="G117" s="86"/>
+      <c r="H117" s="86"/>
+      <c r="I117" s="86"/>
+      <c r="J117" s="86"/>
     </row>
     <row r="118" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="25">
@@ -7353,18 +7365,18 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="84" t="s">
+      <c r="A125" s="86" t="s">
         <v>413</v>
       </c>
-      <c r="B125" s="84"/>
-      <c r="C125" s="84"/>
-      <c r="D125" s="92"/>
-      <c r="E125" s="92"/>
-      <c r="F125" s="92"/>
-      <c r="G125" s="92"/>
-      <c r="H125" s="92"/>
-      <c r="I125" s="92"/>
-      <c r="J125" s="92"/>
+      <c r="B125" s="86"/>
+      <c r="C125" s="86"/>
+      <c r="D125" s="87"/>
+      <c r="E125" s="87"/>
+      <c r="F125" s="87"/>
+      <c r="G125" s="87"/>
+      <c r="H125" s="87"/>
+      <c r="I125" s="87"/>
+      <c r="J125" s="87"/>
     </row>
     <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="59">
@@ -7827,18 +7839,18 @@
       <c r="X135" s="58"/>
     </row>
     <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="93" t="s">
+      <c r="A136" s="88" t="s">
         <v>442</v>
       </c>
-      <c r="B136" s="94"/>
-      <c r="C136" s="94"/>
-      <c r="D136" s="94"/>
-      <c r="E136" s="94"/>
-      <c r="F136" s="94"/>
-      <c r="G136" s="94"/>
-      <c r="H136" s="94"/>
-      <c r="I136" s="94"/>
-      <c r="J136" s="95"/>
+      <c r="B136" s="89"/>
+      <c r="C136" s="89"/>
+      <c r="D136" s="89"/>
+      <c r="E136" s="89"/>
+      <c r="F136" s="89"/>
+      <c r="G136" s="89"/>
+      <c r="H136" s="89"/>
+      <c r="I136" s="89"/>
+      <c r="J136" s="90"/>
     </row>
     <row r="137" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="25">
@@ -8287,18 +8299,18 @@
       <c r="X146" s="58"/>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A147" s="84" t="s">
+      <c r="A147" s="86" t="s">
         <v>514</v>
       </c>
-      <c r="B147" s="84"/>
-      <c r="C147" s="84"/>
-      <c r="D147" s="84"/>
-      <c r="E147" s="84"/>
-      <c r="F147" s="84"/>
-      <c r="G147" s="84"/>
-      <c r="H147" s="84"/>
-      <c r="I147" s="84"/>
-      <c r="J147" s="84"/>
+      <c r="B147" s="86"/>
+      <c r="C147" s="86"/>
+      <c r="D147" s="86"/>
+      <c r="E147" s="86"/>
+      <c r="F147" s="86"/>
+      <c r="G147" s="86"/>
+      <c r="H147" s="86"/>
+      <c r="I147" s="86"/>
+      <c r="J147" s="86"/>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148" s="25">
@@ -8333,18 +8345,18 @@
       </c>
     </row>
     <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="84" t="s">
+      <c r="A149" s="86" t="s">
         <v>540</v>
       </c>
-      <c r="B149" s="84"/>
-      <c r="C149" s="84"/>
-      <c r="D149" s="84"/>
-      <c r="E149" s="84"/>
-      <c r="F149" s="84"/>
-      <c r="G149" s="84"/>
-      <c r="H149" s="84"/>
-      <c r="I149" s="84"/>
-      <c r="J149" s="84"/>
+      <c r="B149" s="86"/>
+      <c r="C149" s="86"/>
+      <c r="D149" s="86"/>
+      <c r="E149" s="86"/>
+      <c r="F149" s="86"/>
+      <c r="G149" s="86"/>
+      <c r="H149" s="86"/>
+      <c r="I149" s="86"/>
+      <c r="J149" s="86"/>
     </row>
     <row r="150" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="65">
@@ -9211,18 +9223,18 @@
       <c r="Z167" s="58"/>
     </row>
     <row r="168" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="84" t="s">
+      <c r="A168" s="86" t="s">
         <v>619</v>
       </c>
-      <c r="B168" s="84"/>
-      <c r="C168" s="84"/>
-      <c r="D168" s="84"/>
-      <c r="E168" s="84"/>
-      <c r="F168" s="84"/>
-      <c r="G168" s="84"/>
-      <c r="H168" s="84"/>
-      <c r="I168" s="84"/>
-      <c r="J168" s="84"/>
+      <c r="B168" s="86"/>
+      <c r="C168" s="86"/>
+      <c r="D168" s="86"/>
+      <c r="E168" s="86"/>
+      <c r="F168" s="86"/>
+      <c r="G168" s="86"/>
+      <c r="H168" s="86"/>
+      <c r="I168" s="86"/>
+      <c r="J168" s="86"/>
     </row>
     <row r="169" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="73">
@@ -9360,16 +9372,16 @@
         <v>10</v>
       </c>
       <c r="C173" s="79" t="s">
+        <v>627</v>
+      </c>
+      <c r="D173" s="83" t="s">
         <v>628</v>
-      </c>
-      <c r="D173" s="83" t="s">
-        <v>629</v>
       </c>
       <c r="E173" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F173" s="75" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G173" s="74" t="s">
         <v>11</v>
@@ -9386,22 +9398,22 @@
     </row>
     <row r="174" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="73">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B174" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C174" s="75" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D174" s="77" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E174" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F174" s="75" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G174" s="74" t="s">
         <v>11</v>
@@ -9416,13 +9428,40 @@
         <v>13</v>
       </c>
     </row>
+    <row r="175" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="73">
+        <v>7</v>
+      </c>
+      <c r="B175" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" s="75" t="s">
+        <v>637</v>
+      </c>
+      <c r="D175" s="83" t="s">
+        <v>636</v>
+      </c>
+      <c r="E175" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" s="75" t="s">
+        <v>634</v>
+      </c>
+      <c r="G175" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H175" s="74" t="s">
+        <v>544</v>
+      </c>
+      <c r="I175" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J175" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A168:J168"/>
-    <mergeCell ref="A149:J149"/>
-    <mergeCell ref="A147:J147"/>
-    <mergeCell ref="A125:J125"/>
-    <mergeCell ref="A136:J136"/>
     <mergeCell ref="A117:J117"/>
     <mergeCell ref="A115:J115"/>
     <mergeCell ref="A113:J113"/>
@@ -9432,6 +9471,11 @@
     <mergeCell ref="A51:J51"/>
     <mergeCell ref="A62:J62"/>
     <mergeCell ref="A74:J74"/>
+    <mergeCell ref="A168:J168"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="A147:J147"/>
+    <mergeCell ref="A125:J125"/>
+    <mergeCell ref="A136:J136"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -9529,10 +9573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:X173"/>
+  <dimension ref="A1:X174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T164" workbookViewId="0">
-      <selection activeCell="X170" sqref="X170"/>
+    <sheetView topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="W174" sqref="W174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21800,7 +21844,7 @@
         <v>22</v>
       </c>
       <c r="X169" s="78" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="170" spans="1:24" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -21873,8 +21917,8 @@
       <c r="W170" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="X170" s="96" t="s">
-        <v>634</v>
+      <c r="X170" s="84" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="171" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21942,7 +21986,7 @@
         <v>22</v>
       </c>
       <c r="V171" s="48" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="W171" s="36" t="s">
         <v>22</v>
@@ -21953,7 +21997,7 @@
     </row>
     <row r="172" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="75" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B172" s="48" t="s">
         <v>22</v>
@@ -22027,7 +22071,7 @@
     </row>
     <row r="173" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="75" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B173" s="48" t="s">
         <v>22</v>
@@ -22095,8 +22139,82 @@
       <c r="W173" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="X173" s="78" t="s">
-        <v>625</v>
+      <c r="X173" s="85" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="75" t="s">
+        <v>634</v>
+      </c>
+      <c r="B174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S174" s="49" t="s">
+        <v>635</v>
+      </c>
+      <c r="T174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W174" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X174" s="48" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -22227,8 +22345,8 @@
     <hyperlink ref="S170" r:id="rId19" xr:uid="{23F160B7-D3CD-415D-B0D6-1EECB7AFE96F}"/>
     <hyperlink ref="S171" r:id="rId20" xr:uid="{7206C778-989C-4587-83FA-C09C20DA42BD}"/>
     <hyperlink ref="S172" r:id="rId21" xr:uid="{3B0D666D-626C-490D-A9B6-B9643B9EDF8A}"/>
-    <hyperlink ref="X173" r:id="rId22" tooltip="sun flower" display="https://qa.zlta.testingserver8.com/product-detail/pink-sun-flower" xr:uid="{8DF4456C-34CD-4BEB-9600-CDFCBBC5E3F1}"/>
-    <hyperlink ref="X169" r:id="rId23" tooltip="pink real heaven" display="https://qa.zlta.testingserver8.com/product-detail/pink-real-heaven" xr:uid="{7AB2CC85-055B-4B62-B758-A407CA7BD409}"/>
+    <hyperlink ref="X169" r:id="rId22" tooltip="pink real heaven" display="https://qa.zlta.testingserver8.com/product-detail/pink-real-heaven" xr:uid="{7AB2CC85-055B-4B62-B758-A407CA7BD409}"/>
+    <hyperlink ref="X173" r:id="rId23" display="https://qa.zlta.testingserver8.com/product-detail/pink-real-heaven" xr:uid="{E6426F17-2EE7-4F4A-80B0-E58B87C35EDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId24"/>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\repository\ZlaataProduction\src\test\resources\testdata\zltUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9998249F-6F60-4A79-BB66-4F67AFC08533}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD462BC7-30E3-4AFB-AE1E-6472DF9E12EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5510" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5576" uniqueCount="646">
   <si>
     <t>S.No</t>
   </si>
@@ -1940,6 +1940,30 @@
   </si>
   <si>
     <t>TC_UI_Zlaata_ADM_07</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_09</t>
+  </si>
+  <si>
+    <t>Verify bulk uploaded Collection appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADM_09</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/product-collection</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_08</t>
+  </si>
+  <si>
+    <t>Verify uploaded categories appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADM_08</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/categories</t>
   </si>
 </sst>
 </file>
@@ -2113,7 +2137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2362,19 +2386,6 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -2386,7 +2397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2590,20 +2601,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2639,6 +2652,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3441,10 +3455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z175"/>
+  <dimension ref="A1:Z177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="109" workbookViewId="0">
-      <selection activeCell="C175" sqref="C175"/>
+    <sheetView topLeftCell="A164" zoomScale="109" workbookViewId="0">
+      <selection activeCell="F176" sqref="F176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6937,18 +6951,18 @@
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A113" s="86" t="s">
+      <c r="A113" s="85" t="s">
         <v>378</v>
       </c>
-      <c r="B113" s="86"/>
-      <c r="C113" s="86"/>
-      <c r="D113" s="86"/>
-      <c r="E113" s="86"/>
-      <c r="F113" s="86"/>
-      <c r="G113" s="86"/>
-      <c r="H113" s="86"/>
-      <c r="I113" s="86"/>
-      <c r="J113" s="86"/>
+      <c r="B113" s="85"/>
+      <c r="C113" s="85"/>
+      <c r="D113" s="85"/>
+      <c r="E113" s="85"/>
+      <c r="F113" s="85"/>
+      <c r="G113" s="85"/>
+      <c r="H113" s="85"/>
+      <c r="I113" s="85"/>
+      <c r="J113" s="85"/>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" s="25">
@@ -6983,18 +6997,18 @@
       </c>
     </row>
     <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="86" t="s">
+      <c r="A115" s="85" t="s">
         <v>383</v>
       </c>
-      <c r="B115" s="86"/>
-      <c r="C115" s="86"/>
-      <c r="D115" s="86"/>
-      <c r="E115" s="86"/>
-      <c r="F115" s="86"/>
-      <c r="G115" s="86"/>
-      <c r="H115" s="86"/>
-      <c r="I115" s="86"/>
-      <c r="J115" s="86"/>
+      <c r="B115" s="85"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85"/>
+      <c r="I115" s="85"/>
+      <c r="J115" s="85"/>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116" s="25">
@@ -7029,18 +7043,18 @@
       </c>
     </row>
     <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="86" t="s">
+      <c r="A117" s="85" t="s">
         <v>396</v>
       </c>
-      <c r="B117" s="86"/>
-      <c r="C117" s="86"/>
-      <c r="D117" s="86"/>
-      <c r="E117" s="86"/>
-      <c r="F117" s="86"/>
-      <c r="G117" s="86"/>
-      <c r="H117" s="86"/>
-      <c r="I117" s="86"/>
-      <c r="J117" s="86"/>
+      <c r="B117" s="85"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="85"/>
+      <c r="E117" s="85"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="85"/>
+      <c r="I117" s="85"/>
+      <c r="J117" s="85"/>
     </row>
     <row r="118" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="25">
@@ -7365,11 +7379,11 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="86" t="s">
+      <c r="A125" s="85" t="s">
         <v>413</v>
       </c>
-      <c r="B125" s="86"/>
-      <c r="C125" s="86"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
       <c r="D125" s="87"/>
       <c r="E125" s="87"/>
       <c r="F125" s="87"/>
@@ -8299,18 +8313,18 @@
       <c r="X146" s="58"/>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A147" s="86" t="s">
+      <c r="A147" s="85" t="s">
         <v>514</v>
       </c>
-      <c r="B147" s="86"/>
-      <c r="C147" s="86"/>
-      <c r="D147" s="86"/>
-      <c r="E147" s="86"/>
-      <c r="F147" s="86"/>
-      <c r="G147" s="86"/>
-      <c r="H147" s="86"/>
-      <c r="I147" s="86"/>
-      <c r="J147" s="86"/>
+      <c r="B147" s="85"/>
+      <c r="C147" s="85"/>
+      <c r="D147" s="85"/>
+      <c r="E147" s="85"/>
+      <c r="F147" s="85"/>
+      <c r="G147" s="85"/>
+      <c r="H147" s="85"/>
+      <c r="I147" s="85"/>
+      <c r="J147" s="85"/>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148" s="25">
@@ -8345,18 +8359,18 @@
       </c>
     </row>
     <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="86" t="s">
+      <c r="A149" s="85" t="s">
         <v>540</v>
       </c>
-      <c r="B149" s="86"/>
-      <c r="C149" s="86"/>
-      <c r="D149" s="86"/>
-      <c r="E149" s="86"/>
-      <c r="F149" s="86"/>
-      <c r="G149" s="86"/>
-      <c r="H149" s="86"/>
-      <c r="I149" s="86"/>
-      <c r="J149" s="86"/>
+      <c r="B149" s="85"/>
+      <c r="C149" s="85"/>
+      <c r="D149" s="85"/>
+      <c r="E149" s="85"/>
+      <c r="F149" s="85"/>
+      <c r="G149" s="85"/>
+      <c r="H149" s="85"/>
+      <c r="I149" s="85"/>
+      <c r="J149" s="85"/>
     </row>
     <row r="150" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="65">
@@ -9223,18 +9237,18 @@
       <c r="Z167" s="58"/>
     </row>
     <row r="168" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="86" t="s">
+      <c r="A168" s="85" t="s">
         <v>619</v>
       </c>
-      <c r="B168" s="86"/>
-      <c r="C168" s="86"/>
+      <c r="B168" s="85"/>
+      <c r="C168" s="85"/>
       <c r="D168" s="86"/>
-      <c r="E168" s="86"/>
-      <c r="F168" s="86"/>
-      <c r="G168" s="86"/>
-      <c r="H168" s="86"/>
-      <c r="I168" s="86"/>
-      <c r="J168" s="86"/>
+      <c r="E168" s="85"/>
+      <c r="F168" s="85"/>
+      <c r="G168" s="85"/>
+      <c r="H168" s="85"/>
+      <c r="I168" s="85"/>
+      <c r="J168" s="85"/>
     </row>
     <row r="169" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="73">
@@ -9243,13 +9257,13 @@
       <c r="B169" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C169" s="75" t="s">
+      <c r="C169" s="79" t="s">
         <v>605</v>
       </c>
-      <c r="D169" s="77" t="s">
+      <c r="D169" s="84" t="s">
         <v>607</v>
       </c>
-      <c r="E169" s="74" t="s">
+      <c r="E169" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F169" s="75" t="s">
@@ -9275,13 +9289,13 @@
       <c r="B170" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C170" s="75" t="s">
+      <c r="C170" s="79" t="s">
         <v>613</v>
       </c>
-      <c r="D170" s="77" t="s">
+      <c r="D170" s="84" t="s">
         <v>614</v>
       </c>
-      <c r="E170" s="74" t="s">
+      <c r="E170" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F170" s="75" t="s">
@@ -9307,13 +9321,13 @@
       <c r="B171" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C171" s="75" t="s">
+      <c r="C171" s="79" t="s">
         <v>617</v>
       </c>
-      <c r="D171" s="81" t="s">
+      <c r="D171" s="84" t="s">
         <v>618</v>
       </c>
-      <c r="E171" s="74" t="s">
+      <c r="E171" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F171" s="75" t="s">
@@ -9374,7 +9388,7 @@
       <c r="C173" s="79" t="s">
         <v>627</v>
       </c>
-      <c r="D173" s="83" t="s">
+      <c r="D173" s="64" t="s">
         <v>628</v>
       </c>
       <c r="E173" s="80" t="s">
@@ -9403,13 +9417,13 @@
       <c r="B174" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C174" s="75" t="s">
+      <c r="C174" s="79" t="s">
         <v>629</v>
       </c>
-      <c r="D174" s="77" t="s">
+      <c r="D174" s="84" t="s">
         <v>631</v>
       </c>
-      <c r="E174" s="74" t="s">
+      <c r="E174" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F174" s="75" t="s">
@@ -9435,13 +9449,13 @@
       <c r="B175" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C175" s="75" t="s">
+      <c r="C175" s="79" t="s">
         <v>637</v>
       </c>
-      <c r="D175" s="83" t="s">
+      <c r="D175" s="64" t="s">
         <v>636</v>
       </c>
-      <c r="E175" s="74" t="s">
+      <c r="E175" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F175" s="75" t="s">
@@ -9457,6 +9471,70 @@
         <v>12</v>
       </c>
       <c r="J175" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="73">
+        <v>8</v>
+      </c>
+      <c r="B176" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" s="79" t="s">
+        <v>642</v>
+      </c>
+      <c r="D176" s="98" t="s">
+        <v>643</v>
+      </c>
+      <c r="E176" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" s="75" t="s">
+        <v>644</v>
+      </c>
+      <c r="G176" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H176" s="74" t="s">
+        <v>544</v>
+      </c>
+      <c r="I176" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J176" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="73">
+        <v>9</v>
+      </c>
+      <c r="B177" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" s="79" t="s">
+        <v>638</v>
+      </c>
+      <c r="D177" s="64" t="s">
+        <v>639</v>
+      </c>
+      <c r="E177" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" s="75" t="s">
+        <v>640</v>
+      </c>
+      <c r="G177" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H177" s="74" t="s">
+        <v>544</v>
+      </c>
+      <c r="I177" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J177" s="74" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9573,10 +9651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:X174"/>
+  <dimension ref="A1:X176"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="W174" sqref="W174"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="S175" sqref="S175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21674,7 +21752,7 @@
       </c>
     </row>
     <row r="167" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="82"/>
+      <c r="A167" s="81"/>
       <c r="B167" s="48"/>
       <c r="C167" s="36"/>
       <c r="D167" s="48"/>
@@ -21917,7 +21995,7 @@
       <c r="W170" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="X170" s="84" t="s">
+      <c r="X170" s="82" t="s">
         <v>633</v>
       </c>
     </row>
@@ -22139,7 +22217,7 @@
       <c r="W173" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="X173" s="85" t="s">
+      <c r="X173" s="83" t="s">
         <v>632</v>
       </c>
     </row>
@@ -22214,6 +22292,154 @@
         <v>22</v>
       </c>
       <c r="X174" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="75" t="s">
+        <v>644</v>
+      </c>
+      <c r="B175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S175" s="49" t="s">
+        <v>645</v>
+      </c>
+      <c r="T175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W175" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X175" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="75" t="s">
+        <v>640</v>
+      </c>
+      <c r="B176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S176" s="49" t="s">
+        <v>641</v>
+      </c>
+      <c r="T176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W176" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X176" s="48" t="s">
         <v>22</v>
       </c>
     </row>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD462BC7-30E3-4AFB-AE1E-6472DF9E12EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DBD83E-D112-4295-A78B-484615591382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5576" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5957" uniqueCount="672">
   <si>
     <t>S.No</t>
   </si>
@@ -1927,9 +1927,6 @@
     <t>pink real heaven</t>
   </si>
   <si>
-    <t>sadsdasad</t>
-  </si>
-  <si>
     <t>TD_UI_Zlaata_ADM_07</t>
   </si>
   <si>
@@ -1964,13 +1961,94 @@
   </si>
   <si>
     <t>https://qa.adm.testingserver8.com/admin/categories</t>
+  </si>
+  <si>
+    <t>black test fomo dress</t>
+  </si>
+  <si>
+    <t>Blur kurta kurti</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_10</t>
+  </si>
+  <si>
+    <t>Verify New Product added match between two exports.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADM_10</t>
+  </si>
+  <si>
+    <t>Admin Page Product Sorting</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_01</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ASP_01</t>
+  </si>
+  <si>
+    <t>Verify category product sorting between Admin Panel and User Application.</t>
+  </si>
+  <si>
+    <t>Shop Name</t>
+  </si>
+  <si>
+    <t>Dresses</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ASP_02</t>
+  </si>
+  <si>
+    <t>Black Lehenga</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_02</t>
+  </si>
+  <si>
+    <t>Verify Collection product sorting between Admin Panel and User Application.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_03</t>
+  </si>
+  <si>
+    <t>Verify Styles product sorting between Admin Panel and User Application.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ASP_03</t>
+  </si>
+  <si>
+    <t>Cotton Fabric</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ASP_04</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_04</t>
+  </si>
+  <si>
+    <t>Verify Micro Page product sorting between Admin Panel and User Application.</t>
+  </si>
+  <si>
+    <t>Autotmationtest</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_05</t>
+  </si>
+  <si>
+    <t>Verify All product sorting between Admin Panel and User Application.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ASP_05</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2065,12 +2143,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2397,7 +2469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2604,36 +2676,13 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2652,7 +2701,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3455,10 +3524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z177"/>
+  <dimension ref="A1:Z184"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" zoomScale="109" workbookViewId="0">
-      <selection activeCell="F176" sqref="F176"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4211,18 +4280,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="87"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -4609,18 +4678,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="95" t="s">
+      <c r="A37" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="96"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="97"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="90"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -5039,18 +5108,18 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="95" t="s">
+      <c r="A51" s="88" t="s">
         <v>245</v>
       </c>
-      <c r="B51" s="96"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="97"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="90"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="25">
@@ -5373,18 +5442,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="95" t="s">
+      <c r="A62" s="88" t="s">
         <v>247</v>
       </c>
-      <c r="B62" s="96"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="96"/>
-      <c r="H62" s="96"/>
-      <c r="I62" s="96"/>
-      <c r="J62" s="97"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="89"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="89"/>
+      <c r="J62" s="90"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="25">
@@ -5739,18 +5808,18 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="95" t="s">
+      <c r="A74" s="88" t="s">
         <v>346</v>
       </c>
-      <c r="B74" s="96"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="96"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="96"/>
-      <c r="J74" s="97"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="89"/>
+      <c r="G74" s="89"/>
+      <c r="H74" s="89"/>
+      <c r="I74" s="89"/>
+      <c r="J74" s="90"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="25">
@@ -6617,18 +6686,18 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="91" t="s">
+      <c r="A102" s="93" t="s">
         <v>376</v>
       </c>
-      <c r="B102" s="91"/>
-      <c r="C102" s="91"/>
-      <c r="D102" s="91"/>
-      <c r="E102" s="91"/>
-      <c r="F102" s="91"/>
-      <c r="G102" s="91"/>
-      <c r="H102" s="91"/>
-      <c r="I102" s="91"/>
-      <c r="J102" s="91"/>
+      <c r="B102" s="93"/>
+      <c r="C102" s="93"/>
+      <c r="D102" s="93"/>
+      <c r="E102" s="93"/>
+      <c r="F102" s="93"/>
+      <c r="G102" s="93"/>
+      <c r="H102" s="93"/>
+      <c r="I102" s="93"/>
+      <c r="J102" s="93"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="25">
@@ -6951,18 +7020,18 @@
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A113" s="85" t="s">
+      <c r="A113" s="91" t="s">
         <v>378</v>
       </c>
-      <c r="B113" s="85"/>
-      <c r="C113" s="85"/>
-      <c r="D113" s="85"/>
-      <c r="E113" s="85"/>
-      <c r="F113" s="85"/>
-      <c r="G113" s="85"/>
-      <c r="H113" s="85"/>
-      <c r="I113" s="85"/>
-      <c r="J113" s="85"/>
+      <c r="B113" s="91"/>
+      <c r="C113" s="91"/>
+      <c r="D113" s="91"/>
+      <c r="E113" s="91"/>
+      <c r="F113" s="91"/>
+      <c r="G113" s="91"/>
+      <c r="H113" s="91"/>
+      <c r="I113" s="91"/>
+      <c r="J113" s="91"/>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" s="25">
@@ -6997,18 +7066,18 @@
       </c>
     </row>
     <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="85" t="s">
+      <c r="A115" s="91" t="s">
         <v>383</v>
       </c>
-      <c r="B115" s="85"/>
-      <c r="C115" s="85"/>
-      <c r="D115" s="85"/>
-      <c r="E115" s="85"/>
-      <c r="F115" s="85"/>
-      <c r="G115" s="85"/>
-      <c r="H115" s="85"/>
-      <c r="I115" s="85"/>
-      <c r="J115" s="85"/>
+      <c r="B115" s="91"/>
+      <c r="C115" s="91"/>
+      <c r="D115" s="91"/>
+      <c r="E115" s="91"/>
+      <c r="F115" s="91"/>
+      <c r="G115" s="91"/>
+      <c r="H115" s="91"/>
+      <c r="I115" s="91"/>
+      <c r="J115" s="91"/>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116" s="25">
@@ -7043,18 +7112,18 @@
       </c>
     </row>
     <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="85" t="s">
+      <c r="A117" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="B117" s="85"/>
-      <c r="C117" s="85"/>
-      <c r="D117" s="85"/>
-      <c r="E117" s="85"/>
-      <c r="F117" s="85"/>
-      <c r="G117" s="85"/>
-      <c r="H117" s="85"/>
-      <c r="I117" s="85"/>
-      <c r="J117" s="85"/>
+      <c r="B117" s="91"/>
+      <c r="C117" s="91"/>
+      <c r="D117" s="91"/>
+      <c r="E117" s="91"/>
+      <c r="F117" s="91"/>
+      <c r="G117" s="91"/>
+      <c r="H117" s="91"/>
+      <c r="I117" s="91"/>
+      <c r="J117" s="91"/>
     </row>
     <row r="118" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="25">
@@ -7379,18 +7448,18 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="85" t="s">
+      <c r="A125" s="91" t="s">
         <v>413</v>
       </c>
-      <c r="B125" s="85"/>
-      <c r="C125" s="85"/>
-      <c r="D125" s="87"/>
-      <c r="E125" s="87"/>
-      <c r="F125" s="87"/>
-      <c r="G125" s="87"/>
-      <c r="H125" s="87"/>
-      <c r="I125" s="87"/>
-      <c r="J125" s="87"/>
+      <c r="B125" s="91"/>
+      <c r="C125" s="91"/>
+      <c r="D125" s="94"/>
+      <c r="E125" s="94"/>
+      <c r="F125" s="94"/>
+      <c r="G125" s="94"/>
+      <c r="H125" s="94"/>
+      <c r="I125" s="94"/>
+      <c r="J125" s="94"/>
     </row>
     <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="59">
@@ -7853,18 +7922,18 @@
       <c r="X135" s="58"/>
     </row>
     <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="88" t="s">
+      <c r="A136" s="95" t="s">
         <v>442</v>
       </c>
-      <c r="B136" s="89"/>
-      <c r="C136" s="89"/>
-      <c r="D136" s="89"/>
-      <c r="E136" s="89"/>
-      <c r="F136" s="89"/>
-      <c r="G136" s="89"/>
-      <c r="H136" s="89"/>
-      <c r="I136" s="89"/>
-      <c r="J136" s="90"/>
+      <c r="B136" s="96"/>
+      <c r="C136" s="96"/>
+      <c r="D136" s="96"/>
+      <c r="E136" s="96"/>
+      <c r="F136" s="96"/>
+      <c r="G136" s="96"/>
+      <c r="H136" s="96"/>
+      <c r="I136" s="96"/>
+      <c r="J136" s="97"/>
     </row>
     <row r="137" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="25">
@@ -8313,18 +8382,18 @@
       <c r="X146" s="58"/>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A147" s="85" t="s">
+      <c r="A147" s="91" t="s">
         <v>514</v>
       </c>
-      <c r="B147" s="85"/>
-      <c r="C147" s="85"/>
-      <c r="D147" s="85"/>
-      <c r="E147" s="85"/>
-      <c r="F147" s="85"/>
-      <c r="G147" s="85"/>
-      <c r="H147" s="85"/>
-      <c r="I147" s="85"/>
-      <c r="J147" s="85"/>
+      <c r="B147" s="91"/>
+      <c r="C147" s="91"/>
+      <c r="D147" s="91"/>
+      <c r="E147" s="91"/>
+      <c r="F147" s="91"/>
+      <c r="G147" s="91"/>
+      <c r="H147" s="91"/>
+      <c r="I147" s="91"/>
+      <c r="J147" s="91"/>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148" s="25">
@@ -8359,18 +8428,18 @@
       </c>
     </row>
     <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="85" t="s">
+      <c r="A149" s="91" t="s">
         <v>540</v>
       </c>
-      <c r="B149" s="85"/>
-      <c r="C149" s="85"/>
-      <c r="D149" s="85"/>
-      <c r="E149" s="85"/>
-      <c r="F149" s="85"/>
-      <c r="G149" s="85"/>
-      <c r="H149" s="85"/>
-      <c r="I149" s="85"/>
-      <c r="J149" s="85"/>
+      <c r="B149" s="91"/>
+      <c r="C149" s="91"/>
+      <c r="D149" s="91"/>
+      <c r="E149" s="91"/>
+      <c r="F149" s="91"/>
+      <c r="G149" s="91"/>
+      <c r="H149" s="91"/>
+      <c r="I149" s="91"/>
+      <c r="J149" s="91"/>
     </row>
     <row r="150" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="65">
@@ -9237,18 +9306,18 @@
       <c r="Z167" s="58"/>
     </row>
     <row r="168" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="85" t="s">
+      <c r="A168" s="91" t="s">
         <v>619</v>
       </c>
-      <c r="B168" s="85"/>
-      <c r="C168" s="85"/>
-      <c r="D168" s="86"/>
-      <c r="E168" s="85"/>
-      <c r="F168" s="85"/>
-      <c r="G168" s="85"/>
-      <c r="H168" s="85"/>
-      <c r="I168" s="85"/>
-      <c r="J168" s="85"/>
+      <c r="B168" s="91"/>
+      <c r="C168" s="91"/>
+      <c r="D168" s="92"/>
+      <c r="E168" s="91"/>
+      <c r="F168" s="91"/>
+      <c r="G168" s="91"/>
+      <c r="H168" s="91"/>
+      <c r="I168" s="91"/>
+      <c r="J168" s="91"/>
     </row>
     <row r="169" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="73">
@@ -9260,7 +9329,7 @@
       <c r="C169" s="79" t="s">
         <v>605</v>
       </c>
-      <c r="D169" s="84" t="s">
+      <c r="D169" s="83" t="s">
         <v>607</v>
       </c>
       <c r="E169" s="80" t="s">
@@ -9292,7 +9361,7 @@
       <c r="C170" s="79" t="s">
         <v>613</v>
       </c>
-      <c r="D170" s="84" t="s">
+      <c r="D170" s="83" t="s">
         <v>614</v>
       </c>
       <c r="E170" s="80" t="s">
@@ -9324,7 +9393,7 @@
       <c r="C171" s="79" t="s">
         <v>617</v>
       </c>
-      <c r="D171" s="84" t="s">
+      <c r="D171" s="83" t="s">
         <v>618</v>
       </c>
       <c r="E171" s="80" t="s">
@@ -9420,7 +9489,7 @@
       <c r="C174" s="79" t="s">
         <v>629</v>
       </c>
-      <c r="D174" s="84" t="s">
+      <c r="D174" s="83" t="s">
         <v>631</v>
       </c>
       <c r="E174" s="80" t="s">
@@ -9450,16 +9519,16 @@
         <v>10</v>
       </c>
       <c r="C175" s="79" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D175" s="64" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E175" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F175" s="75" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G175" s="74" t="s">
         <v>11</v>
@@ -9482,16 +9551,16 @@
         <v>10</v>
       </c>
       <c r="C176" s="79" t="s">
+        <v>641</v>
+      </c>
+      <c r="D176" s="84" t="s">
         <v>642</v>
-      </c>
-      <c r="D176" s="98" t="s">
-        <v>643</v>
       </c>
       <c r="E176" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F176" s="75" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G176" s="74" t="s">
         <v>11</v>
@@ -9514,16 +9583,16 @@
         <v>10</v>
       </c>
       <c r="C177" s="79" t="s">
+        <v>637</v>
+      </c>
+      <c r="D177" s="64" t="s">
         <v>638</v>
-      </c>
-      <c r="D177" s="64" t="s">
-        <v>639</v>
       </c>
       <c r="E177" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F177" s="75" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G177" s="74" t="s">
         <v>11</v>
@@ -9538,22 +9607,229 @@
         <v>13</v>
       </c>
     </row>
+    <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="73">
+        <v>10</v>
+      </c>
+      <c r="B178" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" s="79" t="s">
+        <v>647</v>
+      </c>
+      <c r="D178" s="84" t="s">
+        <v>648</v>
+      </c>
+      <c r="E178" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" s="75" t="s">
+        <v>649</v>
+      </c>
+      <c r="G178" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H178" s="74" t="s">
+        <v>544</v>
+      </c>
+      <c r="I178" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J178" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="91" t="s">
+        <v>650</v>
+      </c>
+      <c r="B179" s="91"/>
+      <c r="C179" s="91"/>
+      <c r="D179" s="92"/>
+      <c r="E179" s="91"/>
+      <c r="F179" s="91"/>
+      <c r="G179" s="91"/>
+      <c r="H179" s="91"/>
+      <c r="I179" s="91"/>
+      <c r="J179" s="91"/>
+    </row>
+    <row r="180" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="73">
+        <v>1</v>
+      </c>
+      <c r="B180" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" s="79" t="s">
+        <v>651</v>
+      </c>
+      <c r="D180" s="83" t="s">
+        <v>653</v>
+      </c>
+      <c r="E180" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F180" s="75" t="s">
+        <v>652</v>
+      </c>
+      <c r="G180" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H180" s="74" t="s">
+        <v>544</v>
+      </c>
+      <c r="I180" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J180" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="73">
+        <v>2</v>
+      </c>
+      <c r="B181" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="79" t="s">
+        <v>658</v>
+      </c>
+      <c r="D181" s="83" t="s">
+        <v>659</v>
+      </c>
+      <c r="E181" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" s="75" t="s">
+        <v>656</v>
+      </c>
+      <c r="G181" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H181" s="74" t="s">
+        <v>544</v>
+      </c>
+      <c r="I181" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J181" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="73">
+        <v>3</v>
+      </c>
+      <c r="B182" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" s="79" t="s">
+        <v>660</v>
+      </c>
+      <c r="D182" s="84" t="s">
+        <v>661</v>
+      </c>
+      <c r="E182" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182" s="75" t="s">
+        <v>662</v>
+      </c>
+      <c r="G182" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H182" s="74" t="s">
+        <v>544</v>
+      </c>
+      <c r="I182" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J182" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="73">
+        <v>4</v>
+      </c>
+      <c r="B183" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" s="79" t="s">
+        <v>665</v>
+      </c>
+      <c r="D183" s="84" t="s">
+        <v>666</v>
+      </c>
+      <c r="E183" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F183" s="75" t="s">
+        <v>664</v>
+      </c>
+      <c r="G183" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H183" s="74" t="s">
+        <v>544</v>
+      </c>
+      <c r="I183" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J183" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="73">
+        <v>5</v>
+      </c>
+      <c r="B184" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D184" s="84" t="s">
+        <v>669</v>
+      </c>
+      <c r="E184" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" s="75" t="s">
+        <v>670</v>
+      </c>
+      <c r="G184" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" s="74" t="s">
+        <v>544</v>
+      </c>
+      <c r="I184" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J184" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A179:J179"/>
     <mergeCell ref="A117:J117"/>
     <mergeCell ref="A115:J115"/>
     <mergeCell ref="A113:J113"/>
     <mergeCell ref="A102:J102"/>
+    <mergeCell ref="A168:J168"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="A147:J147"/>
+    <mergeCell ref="A125:J125"/>
+    <mergeCell ref="A136:J136"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A37:J37"/>
     <mergeCell ref="A51:J51"/>
     <mergeCell ref="A62:J62"/>
     <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A168:J168"/>
-    <mergeCell ref="A149:J149"/>
-    <mergeCell ref="A147:J147"/>
-    <mergeCell ref="A125:J125"/>
-    <mergeCell ref="A136:J136"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -9651,10 +9927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:X176"/>
+  <dimension ref="A1:Y182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="S175" sqref="S175"/>
+    <sheetView topLeftCell="G168" workbookViewId="0">
+      <selection activeCell="Y182" sqref="Y182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9676,10 +9952,10 @@
     <col min="20" max="20" width="13.109375" customWidth="1"/>
     <col min="21" max="21" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="24" max="24" width="29" customWidth="1"/>
+    <col min="24" max="25" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
@@ -9752,8 +10028,11 @@
       <c r="X1" s="31" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y1" s="31" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>23</v>
       </c>
@@ -9822,8 +10101,11 @@
       <c r="X2" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>25</v>
       </c>
@@ -9892,8 +10174,11 @@
       <c r="X3" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>28</v>
       </c>
@@ -9962,8 +10247,11 @@
       <c r="X4" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y4" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>58</v>
       </c>
@@ -10032,8 +10320,11 @@
       <c r="X5" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y5" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>69</v>
       </c>
@@ -10102,8 +10393,11 @@
       <c r="X6" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y6" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>73</v>
       </c>
@@ -10172,8 +10466,11 @@
       <c r="X7" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y7" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>77</v>
       </c>
@@ -10242,8 +10539,11 @@
       <c r="X8" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y8" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>79</v>
       </c>
@@ -10312,8 +10612,11 @@
       <c r="X9" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y9" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>80</v>
       </c>
@@ -10382,8 +10685,11 @@
       <c r="X10" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y10" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>81</v>
       </c>
@@ -10452,8 +10758,11 @@
       <c r="X11" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y11" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
         <v>83</v>
       </c>
@@ -10522,8 +10831,11 @@
       <c r="X12" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y12" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>84</v>
       </c>
@@ -10592,8 +10904,11 @@
       <c r="X13" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y13" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>85</v>
       </c>
@@ -10662,8 +10977,11 @@
       <c r="X14" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y14" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>86</v>
       </c>
@@ -10732,8 +11050,11 @@
       <c r="X15" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y15" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>87</v>
       </c>
@@ -10802,8 +11123,11 @@
       <c r="X16" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y16" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
         <v>88</v>
       </c>
@@ -10872,8 +11196,11 @@
       <c r="X17" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y17" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>89</v>
       </c>
@@ -10942,8 +11269,11 @@
       <c r="X18" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y18" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
         <v>91</v>
       </c>
@@ -11012,8 +11342,11 @@
       <c r="X19" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y19" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>93</v>
       </c>
@@ -11082,8 +11415,11 @@
       <c r="X20" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y20" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
         <v>94</v>
       </c>
@@ -11152,8 +11488,11 @@
       <c r="X21" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y21" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
         <v>135</v>
       </c>
@@ -11222,8 +11561,11 @@
       <c r="X22" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y22" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
         <v>140</v>
       </c>
@@ -11292,8 +11634,11 @@
       <c r="X23" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y23" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="53" t="s">
         <v>63</v>
       </c>
@@ -11362,8 +11707,11 @@
       <c r="X24" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y24" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="46" t="s">
         <v>144</v>
       </c>
@@ -11432,8 +11780,11 @@
       <c r="X25" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y25" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="46" t="s">
         <v>145</v>
       </c>
@@ -11502,8 +11853,11 @@
       <c r="X26" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y26" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="46" t="s">
         <v>146</v>
       </c>
@@ -11572,8 +11926,11 @@
       <c r="X27" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y27" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="46" t="s">
         <v>147</v>
       </c>
@@ -11642,8 +11999,11 @@
       <c r="X28" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y28" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="s">
         <v>148</v>
       </c>
@@ -11712,8 +12072,11 @@
       <c r="X29" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y29" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="46" t="s">
         <v>150</v>
       </c>
@@ -11782,8 +12145,11 @@
       <c r="X30" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y30" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
         <v>151</v>
       </c>
@@ -11852,8 +12218,11 @@
       <c r="X31" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y31" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>152</v>
       </c>
@@ -11922,8 +12291,11 @@
       <c r="X32" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y32" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
         <v>153</v>
       </c>
@@ -11992,8 +12364,11 @@
       <c r="X33" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y33" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
         <v>154</v>
       </c>
@@ -12062,8 +12437,11 @@
       <c r="X34" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y34" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="s">
         <v>155</v>
       </c>
@@ -12132,8 +12510,11 @@
       <c r="X35" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y35" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
         <v>64</v>
       </c>
@@ -12202,8 +12583,11 @@
       <c r="X36" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y36" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="54" t="s">
         <v>175</v>
       </c>
@@ -12274,8 +12658,11 @@
       <c r="X37" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y37" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>179</v>
       </c>
@@ -12346,8 +12733,11 @@
       <c r="X38" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y38" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>182</v>
       </c>
@@ -12418,8 +12808,11 @@
       <c r="X39" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y39" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>185</v>
       </c>
@@ -12490,8 +12883,11 @@
       <c r="X40" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y40" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>188</v>
       </c>
@@ -12562,8 +12958,11 @@
       <c r="X41" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y41" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>190</v>
       </c>
@@ -12634,8 +13033,11 @@
       <c r="X42" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y42" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>193</v>
       </c>
@@ -12706,8 +13108,11 @@
       <c r="X43" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y43" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>196</v>
       </c>
@@ -12778,8 +13183,11 @@
       <c r="X44" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y44" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>199</v>
       </c>
@@ -12850,8 +13258,11 @@
       <c r="X45" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y45" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
         <v>201</v>
       </c>
@@ -12922,8 +13333,11 @@
       <c r="X46" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y46" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>203</v>
       </c>
@@ -12994,8 +13408,11 @@
       <c r="X47" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y47" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="47" t="s">
         <v>205</v>
       </c>
@@ -13066,8 +13483,11 @@
       <c r="X48" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y48" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>207</v>
       </c>
@@ -13138,8 +13558,11 @@
       <c r="X49" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y49" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>209</v>
       </c>
@@ -13210,8 +13633,11 @@
       <c r="X50" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y50" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>211</v>
       </c>
@@ -13282,8 +13708,11 @@
       <c r="X51" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y51" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
         <v>213</v>
       </c>
@@ -13354,8 +13783,11 @@
       <c r="X52" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y52" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="55" t="s">
         <v>214</v>
       </c>
@@ -13426,8 +13858,11 @@
       <c r="X53" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y53" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="48" t="s">
         <v>215</v>
       </c>
@@ -13498,8 +13933,11 @@
       <c r="X54" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y54" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="48" t="s">
         <v>216</v>
       </c>
@@ -13570,8 +14008,11 @@
       <c r="X55" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y55" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>217</v>
       </c>
@@ -13642,8 +14083,11 @@
       <c r="X56" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y56" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="48" t="s">
         <v>218</v>
       </c>
@@ -13714,8 +14158,11 @@
       <c r="X57" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y57" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
         <v>219</v>
       </c>
@@ -13786,8 +14233,11 @@
       <c r="X58" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y58" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="48" t="s">
         <v>220</v>
       </c>
@@ -13858,8 +14308,11 @@
       <c r="X59" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y59" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="48" t="s">
         <v>221</v>
       </c>
@@ -13930,8 +14383,11 @@
       <c r="X60" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y60" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="48" t="s">
         <v>222</v>
       </c>
@@ -14002,8 +14458,11 @@
       <c r="X61" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y61" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="51" t="s">
         <v>223</v>
       </c>
@@ -14074,8 +14533,11 @@
       <c r="X62" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y62" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="56" t="s">
         <v>250</v>
       </c>
@@ -14146,8 +14608,11 @@
       <c r="X63" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y63" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="48" t="s">
         <v>254</v>
       </c>
@@ -14218,8 +14683,11 @@
       <c r="X64" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y64" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="48" t="s">
         <v>257</v>
       </c>
@@ -14290,8 +14758,11 @@
       <c r="X65" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y65" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="48" t="s">
         <v>260</v>
       </c>
@@ -14362,8 +14833,11 @@
       <c r="X66" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y66" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="48" t="s">
         <v>263</v>
       </c>
@@ -14434,8 +14908,11 @@
       <c r="X67" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y67" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="48" t="s">
         <v>266</v>
       </c>
@@ -14506,8 +14983,11 @@
       <c r="X68" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y68" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="48" t="s">
         <v>269</v>
       </c>
@@ -14578,8 +15058,11 @@
       <c r="X69" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y69" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>272</v>
       </c>
@@ -14650,8 +15133,11 @@
       <c r="X70" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y70" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="48" t="s">
         <v>275</v>
       </c>
@@ -14722,8 +15208,11 @@
       <c r="X71" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y71" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
         <v>278</v>
       </c>
@@ -14794,8 +15283,11 @@
       <c r="X72" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y72" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="51" t="s">
         <v>281</v>
       </c>
@@ -14868,8 +15360,11 @@
       <c r="X73" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y73" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="62" t="s">
         <v>283</v>
       </c>
@@ -14942,8 +15437,11 @@
       <c r="X74" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y74" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>286</v>
       </c>
@@ -15016,8 +15514,11 @@
       <c r="X75" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y75" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
         <v>288</v>
       </c>
@@ -15090,8 +15591,11 @@
       <c r="X76" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y76" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="48" t="s">
         <v>290</v>
       </c>
@@ -15164,8 +15668,11 @@
       <c r="X77" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y77" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="48" t="s">
         <v>293</v>
       </c>
@@ -15238,8 +15745,11 @@
       <c r="X78" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y78" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="48" t="s">
         <v>296</v>
       </c>
@@ -15312,8 +15822,11 @@
       <c r="X79" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y79" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="48" t="s">
         <v>299</v>
       </c>
@@ -15386,8 +15899,11 @@
       <c r="X80" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y80" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="48" t="s">
         <v>302</v>
       </c>
@@ -15460,8 +15976,11 @@
       <c r="X81" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y81" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="48" t="s">
         <v>305</v>
       </c>
@@ -15534,8 +16053,11 @@
       <c r="X82" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y82" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
         <v>307</v>
       </c>
@@ -15608,8 +16130,11 @@
       <c r="X83" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y83" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="48" t="s">
         <v>309</v>
       </c>
@@ -15682,8 +16207,11 @@
       <c r="X84" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y84" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="48" t="s">
         <v>311</v>
       </c>
@@ -15756,8 +16284,11 @@
       <c r="X85" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y85" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>314</v>
       </c>
@@ -15830,8 +16361,11 @@
       <c r="X86" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y86" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="48" t="s">
         <v>317</v>
       </c>
@@ -15904,8 +16438,11 @@
       <c r="X87" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y87" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="48" t="s">
         <v>320</v>
       </c>
@@ -15978,8 +16515,11 @@
       <c r="X88" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y88" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="48" t="s">
         <v>323</v>
       </c>
@@ -16052,8 +16592,11 @@
       <c r="X89" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y89" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="48" t="s">
         <v>325</v>
       </c>
@@ -16126,8 +16669,11 @@
       <c r="X90" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y90" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="48" t="s">
         <v>328</v>
       </c>
@@ -16200,8 +16746,11 @@
       <c r="X91" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y91" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="48" t="s">
         <v>331</v>
       </c>
@@ -16274,8 +16823,11 @@
       <c r="X92" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y92" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="48" t="s">
         <v>333</v>
       </c>
@@ -16348,8 +16900,11 @@
       <c r="X93" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y93" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="48" t="s">
         <v>335</v>
       </c>
@@ -16422,8 +16977,11 @@
       <c r="X94" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y94" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="48" t="s">
         <v>337</v>
       </c>
@@ -16496,8 +17054,11 @@
       <c r="X95" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y95" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="48" t="s">
         <v>339</v>
       </c>
@@ -16570,8 +17131,11 @@
       <c r="X96" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y96" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="48" t="s">
         <v>341</v>
       </c>
@@ -16644,8 +17208,11 @@
       <c r="X97" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y97" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="48" t="s">
         <v>343</v>
       </c>
@@ -16718,8 +17285,11 @@
       <c r="X98" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y98" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="48" t="s">
         <v>345</v>
       </c>
@@ -16792,8 +17362,11 @@
       <c r="X99" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y99" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="48" t="s">
         <v>601</v>
       </c>
@@ -16866,8 +17439,11 @@
       <c r="X100" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y100" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="48" t="s">
         <v>349</v>
       </c>
@@ -16940,8 +17516,11 @@
       <c r="X101" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y101" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" s="48" t="s">
         <v>353</v>
       </c>
@@ -17014,8 +17593,11 @@
       <c r="X102" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y102" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="48" t="s">
         <v>356</v>
       </c>
@@ -17088,8 +17670,11 @@
       <c r="X103" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y103" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" s="48" t="s">
         <v>359</v>
       </c>
@@ -17162,8 +17747,11 @@
       <c r="X104" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y104" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="48" t="s">
         <v>362</v>
       </c>
@@ -17236,8 +17824,11 @@
       <c r="X105" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y105" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="48" t="s">
         <v>365</v>
       </c>
@@ -17310,8 +17901,11 @@
       <c r="X106" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y106" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" s="48" t="s">
         <v>368</v>
       </c>
@@ -17384,8 +17978,11 @@
       <c r="X107" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y107" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" s="48" t="s">
         <v>370</v>
       </c>
@@ -17458,8 +18055,11 @@
       <c r="X108" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y108" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="48" t="s">
         <v>372</v>
       </c>
@@ -17532,8 +18132,11 @@
       <c r="X109" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y109" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="48" t="s">
         <v>602</v>
       </c>
@@ -17606,8 +18209,11 @@
       <c r="X110" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y110" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="48" t="s">
         <v>380</v>
       </c>
@@ -17680,8 +18286,11 @@
       <c r="X111" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y111" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" s="48" t="s">
         <v>385</v>
       </c>
@@ -17754,8 +18363,11 @@
       <c r="X112" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y112" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" s="48" t="s">
         <v>399</v>
       </c>
@@ -17828,8 +18440,11 @@
       <c r="X113" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y113" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="48" t="s">
         <v>401</v>
       </c>
@@ -17902,8 +18517,11 @@
       <c r="X114" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y114" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" s="48" t="s">
         <v>402</v>
       </c>
@@ -17976,8 +18594,11 @@
       <c r="X115" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y115" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" s="48" t="s">
         <v>403</v>
       </c>
@@ -18050,8 +18671,11 @@
       <c r="X116" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y116" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" s="48" t="s">
         <v>404</v>
       </c>
@@ -18124,8 +18748,11 @@
       <c r="X117" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y117" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" s="48" t="s">
         <v>405</v>
       </c>
@@ -18198,8 +18825,11 @@
       <c r="X118" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y118" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="48" t="s">
         <v>407</v>
       </c>
@@ -18272,8 +18902,11 @@
       <c r="X119" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y119" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" s="48" t="s">
         <v>409</v>
       </c>
@@ -18346,8 +18979,11 @@
       <c r="X120" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" ht="27" x14ac:dyDescent="0.3">
+      <c r="Y120" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" ht="27" x14ac:dyDescent="0.3">
       <c r="A121" s="62" t="s">
         <v>415</v>
       </c>
@@ -18420,8 +19056,11 @@
       <c r="X121" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y121" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" s="48" t="s">
         <v>419</v>
       </c>
@@ -18494,8 +19133,11 @@
       <c r="X122" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y122" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" s="48" t="s">
         <v>422</v>
       </c>
@@ -18568,8 +19210,11 @@
       <c r="X123" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="124" spans="1:24" ht="27" x14ac:dyDescent="0.3">
+      <c r="Y123" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" ht="27" x14ac:dyDescent="0.3">
       <c r="A124" s="48" t="s">
         <v>424</v>
       </c>
@@ -18642,8 +19287,11 @@
       <c r="X124" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" ht="27" x14ac:dyDescent="0.3">
+      <c r="Y124" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" ht="27" x14ac:dyDescent="0.3">
       <c r="A125" s="48" t="s">
         <v>426</v>
       </c>
@@ -18716,8 +19364,11 @@
       <c r="X125" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y125" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" s="48" t="s">
         <v>429</v>
       </c>
@@ -18790,8 +19441,11 @@
       <c r="X126" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y126" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" s="48" t="s">
         <v>432</v>
       </c>
@@ -18864,8 +19518,11 @@
       <c r="X127" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y127" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" s="48" t="s">
         <v>435</v>
       </c>
@@ -18938,8 +19595,11 @@
       <c r="X128" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="129" spans="1:24" ht="27" x14ac:dyDescent="0.3">
+      <c r="Y128" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" ht="27" x14ac:dyDescent="0.3">
       <c r="A129" s="48" t="s">
         <v>438</v>
       </c>
@@ -19012,8 +19672,11 @@
       <c r="X129" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y129" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="48" t="s">
         <v>441</v>
       </c>
@@ -19086,8 +19749,11 @@
       <c r="X130" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y130" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="48" t="s">
         <v>399</v>
       </c>
@@ -19160,8 +19826,11 @@
       <c r="X131" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y131" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" s="48" t="s">
         <v>401</v>
       </c>
@@ -19234,8 +19903,11 @@
       <c r="X132" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y132" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" s="48" t="s">
         <v>402</v>
       </c>
@@ -19308,8 +19980,11 @@
       <c r="X133" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y133" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" s="48" t="s">
         <v>403</v>
       </c>
@@ -19382,8 +20057,11 @@
       <c r="X134" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y134" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" s="48" t="s">
         <v>404</v>
       </c>
@@ -19456,8 +20134,11 @@
       <c r="X135" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y135" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" s="48" t="s">
         <v>405</v>
       </c>
@@ -19530,8 +20211,11 @@
       <c r="X136" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y136" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="48" t="s">
         <v>407</v>
       </c>
@@ -19604,8 +20288,11 @@
       <c r="X137" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y137" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" s="48" t="s">
         <v>445</v>
       </c>
@@ -19678,8 +20365,11 @@
       <c r="X138" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y138" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" s="48" t="s">
         <v>449</v>
       </c>
@@ -19752,8 +20442,11 @@
       <c r="X139" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y139" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" s="48" t="s">
         <v>452</v>
       </c>
@@ -19826,8 +20519,11 @@
       <c r="X140" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y140" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" s="48" t="s">
         <v>454</v>
       </c>
@@ -19900,8 +20596,11 @@
       <c r="X141" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y141" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" s="48" t="s">
         <v>457</v>
       </c>
@@ -19974,8 +20673,11 @@
       <c r="X142" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y142" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" s="48" t="s">
         <v>460</v>
       </c>
@@ -20048,8 +20750,11 @@
       <c r="X143" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y143" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" s="48" t="s">
         <v>463</v>
       </c>
@@ -20122,8 +20827,11 @@
       <c r="X144" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y144" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" s="48" t="s">
         <v>466</v>
       </c>
@@ -20196,8 +20904,11 @@
       <c r="X145" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="146" spans="1:24" ht="66.599999999999994" x14ac:dyDescent="0.3">
+      <c r="Y145" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A146" s="48" t="s">
         <v>469</v>
       </c>
@@ -20270,8 +20981,11 @@
       <c r="X146" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="147" spans="1:24" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="Y146" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A147" s="48" t="s">
         <v>472</v>
       </c>
@@ -20344,8 +21058,11 @@
       <c r="X147" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="148" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y147" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="48" t="s">
         <v>513</v>
       </c>
@@ -20418,8 +21135,11 @@
       <c r="X148" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="149" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y148" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="67" t="s">
         <v>543</v>
       </c>
@@ -20492,8 +21212,11 @@
       <c r="X149" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="150" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y149" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="70" t="s">
         <v>547</v>
       </c>
@@ -20566,8 +21289,11 @@
       <c r="X150" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="151" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y150" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="67" t="s">
         <v>550</v>
       </c>
@@ -20640,8 +21366,11 @@
       <c r="X151" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="152" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y151" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="70" t="s">
         <v>553</v>
       </c>
@@ -20714,8 +21443,11 @@
       <c r="X152" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="153" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y152" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="67" t="s">
         <v>555</v>
       </c>
@@ -20788,8 +21520,11 @@
       <c r="X153" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="154" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y153" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="70" t="s">
         <v>557</v>
       </c>
@@ -20862,8 +21597,11 @@
       <c r="X154" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="155" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y154" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="67" t="s">
         <v>559</v>
       </c>
@@ -20936,8 +21674,11 @@
       <c r="X155" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="156" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y155" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="70" t="s">
         <v>561</v>
       </c>
@@ -21010,8 +21751,11 @@
       <c r="X156" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="157" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y156" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="67" t="s">
         <v>563</v>
       </c>
@@ -21084,8 +21828,11 @@
       <c r="X157" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="158" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y157" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="70" t="s">
         <v>566</v>
       </c>
@@ -21158,8 +21905,11 @@
       <c r="X158" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="159" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y158" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="67" t="s">
         <v>569</v>
       </c>
@@ -21232,8 +21982,11 @@
       <c r="X159" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="160" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y159" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="70" t="s">
         <v>572</v>
       </c>
@@ -21306,8 +22059,11 @@
       <c r="X160" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="161" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y160" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="67" t="s">
         <v>575</v>
       </c>
@@ -21380,8 +22136,11 @@
       <c r="X161" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="162" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y161" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="70" t="s">
         <v>578</v>
       </c>
@@ -21454,8 +22213,11 @@
       <c r="X162" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="163" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y162" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="67" t="s">
         <v>581</v>
       </c>
@@ -21528,8 +22290,11 @@
       <c r="X163" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="164" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y163" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="67" t="s">
         <v>583</v>
       </c>
@@ -21602,8 +22367,11 @@
       <c r="X164" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="165" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y164" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="67" t="s">
         <v>585</v>
       </c>
@@ -21676,8 +22444,11 @@
       <c r="X165" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="166" spans="1:24" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y165" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="67" t="s">
         <v>588</v>
       </c>
@@ -21750,8 +22521,11 @@
       <c r="X166" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="167" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y166" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="81"/>
       <c r="B167" s="48"/>
       <c r="C167" s="36"/>
@@ -21776,8 +22550,11 @@
       <c r="V167" s="48"/>
       <c r="W167" s="48"/>
       <c r="X167" s="48"/>
-    </row>
-    <row r="168" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y167" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="75" t="s">
         <v>606</v>
       </c>
@@ -21850,8 +22627,11 @@
       <c r="X168" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="169" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y168" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="75" t="s">
         <v>611</v>
       </c>
@@ -21924,8 +22704,11 @@
       <c r="X169" s="78" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="170" spans="1:24" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y169" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="75" t="s">
         <v>616</v>
       </c>
@@ -21995,11 +22778,14 @@
       <c r="W170" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="X170" s="82" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="171" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X170" s="78" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y170" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="75" t="s">
         <v>620</v>
       </c>
@@ -22072,8 +22858,11 @@
       <c r="X171" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="172" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y171" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="75" t="s">
         <v>626</v>
       </c>
@@ -22146,8 +22935,11 @@
       <c r="X172" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="173" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y172" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="75" t="s">
         <v>630</v>
       </c>
@@ -22217,68 +23009,71 @@
       <c r="W173" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="X173" s="83" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="174" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X173" s="82" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y173" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="75" t="s">
+        <v>633</v>
+      </c>
+      <c r="B174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S174" s="49" t="s">
         <v>634</v>
       </c>
-      <c r="B174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S174" s="49" t="s">
-        <v>635</v>
-      </c>
       <c r="T174" s="48" t="s">
         <v>22</v>
       </c>
@@ -22294,65 +23089,68 @@
       <c r="X174" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="175" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y174" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="75" t="s">
+        <v>643</v>
+      </c>
+      <c r="B175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S175" s="49" t="s">
         <v>644</v>
       </c>
-      <c r="B175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S175" s="49" t="s">
-        <v>645</v>
-      </c>
       <c r="T175" s="48" t="s">
         <v>22</v>
       </c>
@@ -22368,65 +23166,68 @@
       <c r="X175" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="176" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y175" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="75" t="s">
+        <v>639</v>
+      </c>
+      <c r="B176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S176" s="49" t="s">
         <v>640</v>
       </c>
-      <c r="B176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S176" s="49" t="s">
-        <v>641</v>
-      </c>
       <c r="T176" s="48" t="s">
         <v>22</v>
       </c>
@@ -22441,6 +23242,471 @@
       </c>
       <c r="X176" s="48" t="s">
         <v>22</v>
+      </c>
+      <c r="Y176" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="75" t="s">
+        <v>649</v>
+      </c>
+      <c r="B177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W177" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X177" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y177" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="75" t="s">
+        <v>652</v>
+      </c>
+      <c r="B178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S178" s="49" t="s">
+        <v>644</v>
+      </c>
+      <c r="T178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W178" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y178" s="48" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="75" t="s">
+        <v>656</v>
+      </c>
+      <c r="B179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S179" s="49" t="s">
+        <v>640</v>
+      </c>
+      <c r="T179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W179" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X179" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y179" s="48" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="75" t="s">
+        <v>662</v>
+      </c>
+      <c r="B180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W180" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X180" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y180" s="48" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="75" t="s">
+        <v>664</v>
+      </c>
+      <c r="B181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W181" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y181" s="84" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="75" t="s">
+        <v>670</v>
+      </c>
+      <c r="B182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W182" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X182" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y182" s="84" t="s">
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -22572,9 +23838,11 @@
     <hyperlink ref="S171" r:id="rId20" xr:uid="{7206C778-989C-4587-83FA-C09C20DA42BD}"/>
     <hyperlink ref="S172" r:id="rId21" xr:uid="{3B0D666D-626C-490D-A9B6-B9643B9EDF8A}"/>
     <hyperlink ref="X169" r:id="rId22" tooltip="pink real heaven" display="https://qa.zlta.testingserver8.com/product-detail/pink-real-heaven" xr:uid="{7AB2CC85-055B-4B62-B758-A407CA7BD409}"/>
-    <hyperlink ref="X173" r:id="rId23" display="https://qa.zlta.testingserver8.com/product-detail/pink-real-heaven" xr:uid="{E6426F17-2EE7-4F4A-80B0-E58B87C35EDA}"/>
+    <hyperlink ref="X170" r:id="rId23" tooltip="black test fomo dress" display="https://qa.zlta.testingserver8.com/product-detail/black-test-fomo-dress" xr:uid="{433348B6-FAF8-4A72-9F17-DD38230B048A}"/>
+    <hyperlink ref="X173" r:id="rId24" display="https://qa.zlta.testingserver8.com/product-detail/blur-kurta-kurti" xr:uid="{70B64AC5-4FBE-4336-8497-F9A1DB7FFD86}"/>
+    <hyperlink ref="S179" r:id="rId25" xr:uid="{DF8EB9C0-66FF-4567-AB0C-2AAA3F681E81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DBD83E-D112-4295-A78B-484615591382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D41E7C-7DE1-47A1-9ED3-249DC62785B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5957" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6060" uniqueCount="682">
   <si>
     <t>S.No</t>
   </si>
@@ -1969,15 +1969,9 @@
     <t>Blur kurta kurti</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_ADM_10</t>
-  </si>
-  <si>
     <t>Verify New Product added match between two exports.</t>
   </si>
   <si>
-    <t>TD_UI_Zlaata_ADM_10</t>
-  </si>
-  <si>
     <t>Admin Page Product Sorting</t>
   </si>
   <si>
@@ -2017,31 +2011,67 @@
     <t>TD_UI_Zlaata_ASP_03</t>
   </si>
   <si>
+    <t>TD_UI_Zlaata_ASP_04</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_04</t>
+  </si>
+  <si>
+    <t>Verify Micro Page product sorting between Admin Panel and User Application.</t>
+  </si>
+  <si>
+    <t>Autotmationtest</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_05</t>
+  </si>
+  <si>
+    <t>Verify All product sorting between Admin Panel and User Application.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ASP_05</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Admin Panel  Export Excel File</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_EEF_01</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_EEF_01</t>
+  </si>
+  <si>
     <t>Cotton Fabric</t>
   </si>
   <si>
-    <t>TD_UI_Zlaata_ASP_04</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ASP_04</t>
-  </si>
-  <si>
-    <t>Verify Micro Page product sorting between Admin Panel and User Application.</t>
-  </si>
-  <si>
-    <t>Autotmationtest</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ASP_05</t>
-  </si>
-  <si>
-    <t>Verify All product sorting between Admin Panel and User Application.</t>
-  </si>
-  <si>
-    <t>TD_UI_Zlaata_ASP_05</t>
-  </si>
-  <si>
-    <t>All</t>
+    <t>TD_UI_Zlaata_EEF_02</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_EEF_02</t>
+  </si>
+  <si>
+    <t>Verify Active Products match between two exports.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_EEF_03</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_EEF_04</t>
+  </si>
+  <si>
+    <t>Verify Sold Out Products match between two exports.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_EEF_03</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_EEF_04</t>
+  </si>
+  <si>
+    <t>Verify Inactive Products match between two exports.</t>
   </si>
 </sst>
 </file>
@@ -2469,7 +2499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2683,6 +2713,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2702,9 +2738,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3524,10 +3557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z184"/>
+  <dimension ref="A1:Z188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D184" sqref="D184"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4280,18 +4313,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="87"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="89"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -4678,18 +4711,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="90"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="92"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -5108,18 +5141,18 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="88" t="s">
+      <c r="A51" s="90" t="s">
         <v>245</v>
       </c>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="90"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="92"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="25">
@@ -5442,18 +5475,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="88" t="s">
+      <c r="A62" s="90" t="s">
         <v>247</v>
       </c>
-      <c r="B62" s="89"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="89"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="89"/>
-      <c r="I62" s="89"/>
-      <c r="J62" s="90"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="91"/>
+      <c r="J62" s="92"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="25">
@@ -5808,18 +5841,18 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="88" t="s">
+      <c r="A74" s="90" t="s">
         <v>346</v>
       </c>
-      <c r="B74" s="89"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="89"/>
-      <c r="F74" s="89"/>
-      <c r="G74" s="89"/>
-      <c r="H74" s="89"/>
-      <c r="I74" s="89"/>
-      <c r="J74" s="90"/>
+      <c r="B74" s="91"/>
+      <c r="C74" s="91"/>
+      <c r="D74" s="91"/>
+      <c r="E74" s="91"/>
+      <c r="F74" s="91"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="91"/>
+      <c r="J74" s="92"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="25">
@@ -6686,18 +6719,18 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="93" t="s">
+      <c r="A102" s="94" t="s">
         <v>376</v>
       </c>
-      <c r="B102" s="93"/>
-      <c r="C102" s="93"/>
-      <c r="D102" s="93"/>
-      <c r="E102" s="93"/>
-      <c r="F102" s="93"/>
-      <c r="G102" s="93"/>
-      <c r="H102" s="93"/>
-      <c r="I102" s="93"/>
-      <c r="J102" s="93"/>
+      <c r="B102" s="94"/>
+      <c r="C102" s="94"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="94"/>
+      <c r="F102" s="94"/>
+      <c r="G102" s="94"/>
+      <c r="H102" s="94"/>
+      <c r="I102" s="94"/>
+      <c r="J102" s="94"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="25">
@@ -7020,18 +7053,18 @@
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A113" s="91" t="s">
+      <c r="A113" s="93" t="s">
         <v>378</v>
       </c>
-      <c r="B113" s="91"/>
-      <c r="C113" s="91"/>
-      <c r="D113" s="91"/>
-      <c r="E113" s="91"/>
-      <c r="F113" s="91"/>
-      <c r="G113" s="91"/>
-      <c r="H113" s="91"/>
-      <c r="I113" s="91"/>
-      <c r="J113" s="91"/>
+      <c r="B113" s="93"/>
+      <c r="C113" s="93"/>
+      <c r="D113" s="93"/>
+      <c r="E113" s="93"/>
+      <c r="F113" s="93"/>
+      <c r="G113" s="93"/>
+      <c r="H113" s="93"/>
+      <c r="I113" s="93"/>
+      <c r="J113" s="93"/>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" s="25">
@@ -7066,18 +7099,18 @@
       </c>
     </row>
     <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="91" t="s">
+      <c r="A115" s="93" t="s">
         <v>383</v>
       </c>
-      <c r="B115" s="91"/>
-      <c r="C115" s="91"/>
-      <c r="D115" s="91"/>
-      <c r="E115" s="91"/>
-      <c r="F115" s="91"/>
-      <c r="G115" s="91"/>
-      <c r="H115" s="91"/>
-      <c r="I115" s="91"/>
-      <c r="J115" s="91"/>
+      <c r="B115" s="93"/>
+      <c r="C115" s="93"/>
+      <c r="D115" s="93"/>
+      <c r="E115" s="93"/>
+      <c r="F115" s="93"/>
+      <c r="G115" s="93"/>
+      <c r="H115" s="93"/>
+      <c r="I115" s="93"/>
+      <c r="J115" s="93"/>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116" s="25">
@@ -7112,18 +7145,18 @@
       </c>
     </row>
     <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="91" t="s">
+      <c r="A117" s="93" t="s">
         <v>396</v>
       </c>
-      <c r="B117" s="91"/>
-      <c r="C117" s="91"/>
-      <c r="D117" s="91"/>
-      <c r="E117" s="91"/>
-      <c r="F117" s="91"/>
-      <c r="G117" s="91"/>
-      <c r="H117" s="91"/>
-      <c r="I117" s="91"/>
-      <c r="J117" s="91"/>
+      <c r="B117" s="93"/>
+      <c r="C117" s="93"/>
+      <c r="D117" s="93"/>
+      <c r="E117" s="93"/>
+      <c r="F117" s="93"/>
+      <c r="G117" s="93"/>
+      <c r="H117" s="93"/>
+      <c r="I117" s="93"/>
+      <c r="J117" s="93"/>
     </row>
     <row r="118" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="25">
@@ -7448,18 +7481,18 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="91" t="s">
+      <c r="A125" s="93" t="s">
         <v>413</v>
       </c>
-      <c r="B125" s="91"/>
-      <c r="C125" s="91"/>
-      <c r="D125" s="94"/>
-      <c r="E125" s="94"/>
-      <c r="F125" s="94"/>
-      <c r="G125" s="94"/>
-      <c r="H125" s="94"/>
-      <c r="I125" s="94"/>
-      <c r="J125" s="94"/>
+      <c r="B125" s="93"/>
+      <c r="C125" s="93"/>
+      <c r="D125" s="95"/>
+      <c r="E125" s="95"/>
+      <c r="F125" s="95"/>
+      <c r="G125" s="95"/>
+      <c r="H125" s="95"/>
+      <c r="I125" s="95"/>
+      <c r="J125" s="95"/>
     </row>
     <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="59">
@@ -7922,18 +7955,18 @@
       <c r="X135" s="58"/>
     </row>
     <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="95" t="s">
+      <c r="A136" s="96" t="s">
         <v>442</v>
       </c>
-      <c r="B136" s="96"/>
-      <c r="C136" s="96"/>
-      <c r="D136" s="96"/>
-      <c r="E136" s="96"/>
-      <c r="F136" s="96"/>
-      <c r="G136" s="96"/>
-      <c r="H136" s="96"/>
-      <c r="I136" s="96"/>
-      <c r="J136" s="97"/>
+      <c r="B136" s="97"/>
+      <c r="C136" s="97"/>
+      <c r="D136" s="97"/>
+      <c r="E136" s="97"/>
+      <c r="F136" s="97"/>
+      <c r="G136" s="97"/>
+      <c r="H136" s="97"/>
+      <c r="I136" s="97"/>
+      <c r="J136" s="98"/>
     </row>
     <row r="137" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="25">
@@ -8382,18 +8415,18 @@
       <c r="X146" s="58"/>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A147" s="91" t="s">
+      <c r="A147" s="93" t="s">
         <v>514</v>
       </c>
-      <c r="B147" s="91"/>
-      <c r="C147" s="91"/>
-      <c r="D147" s="91"/>
-      <c r="E147" s="91"/>
-      <c r="F147" s="91"/>
-      <c r="G147" s="91"/>
-      <c r="H147" s="91"/>
-      <c r="I147" s="91"/>
-      <c r="J147" s="91"/>
+      <c r="B147" s="93"/>
+      <c r="C147" s="93"/>
+      <c r="D147" s="93"/>
+      <c r="E147" s="93"/>
+      <c r="F147" s="93"/>
+      <c r="G147" s="93"/>
+      <c r="H147" s="93"/>
+      <c r="I147" s="93"/>
+      <c r="J147" s="93"/>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148" s="25">
@@ -8428,18 +8461,18 @@
       </c>
     </row>
     <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="91" t="s">
+      <c r="A149" s="93" t="s">
         <v>540</v>
       </c>
-      <c r="B149" s="91"/>
-      <c r="C149" s="91"/>
-      <c r="D149" s="91"/>
-      <c r="E149" s="91"/>
-      <c r="F149" s="91"/>
-      <c r="G149" s="91"/>
-      <c r="H149" s="91"/>
-      <c r="I149" s="91"/>
-      <c r="J149" s="91"/>
+      <c r="B149" s="93"/>
+      <c r="C149" s="93"/>
+      <c r="D149" s="93"/>
+      <c r="E149" s="93"/>
+      <c r="F149" s="93"/>
+      <c r="G149" s="93"/>
+      <c r="H149" s="93"/>
+      <c r="I149" s="93"/>
+      <c r="J149" s="93"/>
     </row>
     <row r="150" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="65">
@@ -9306,18 +9339,18 @@
       <c r="Z167" s="58"/>
     </row>
     <row r="168" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="91" t="s">
+      <c r="A168" s="93" t="s">
         <v>619</v>
       </c>
-      <c r="B168" s="91"/>
-      <c r="C168" s="91"/>
-      <c r="D168" s="92"/>
-      <c r="E168" s="91"/>
-      <c r="F168" s="91"/>
-      <c r="G168" s="91"/>
-      <c r="H168" s="91"/>
-      <c r="I168" s="91"/>
-      <c r="J168" s="91"/>
+      <c r="B168" s="93"/>
+      <c r="C168" s="93"/>
+      <c r="D168" s="86"/>
+      <c r="E168" s="93"/>
+      <c r="F168" s="93"/>
+      <c r="G168" s="93"/>
+      <c r="H168" s="93"/>
+      <c r="I168" s="93"/>
+      <c r="J168" s="93"/>
     </row>
     <row r="169" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="73">
@@ -9608,69 +9641,69 @@
       </c>
     </row>
     <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="73">
+      <c r="A178" s="93" t="s">
+        <v>648</v>
+      </c>
+      <c r="B178" s="93"/>
+      <c r="C178" s="93"/>
+      <c r="D178" s="86"/>
+      <c r="E178" s="93"/>
+      <c r="F178" s="93"/>
+      <c r="G178" s="93"/>
+      <c r="H178" s="93"/>
+      <c r="I178" s="93"/>
+      <c r="J178" s="93"/>
+    </row>
+    <row r="179" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="73">
+        <v>1</v>
+      </c>
+      <c r="B179" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B178" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C178" s="79" t="s">
-        <v>647</v>
-      </c>
-      <c r="D178" s="84" t="s">
-        <v>648</v>
-      </c>
-      <c r="E178" s="80" t="s">
+      <c r="C179" s="79" t="s">
+        <v>649</v>
+      </c>
+      <c r="D179" s="83" t="s">
+        <v>651</v>
+      </c>
+      <c r="E179" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="F178" s="75" t="s">
-        <v>649</v>
-      </c>
-      <c r="G178" s="74" t="s">
+      <c r="F179" s="75" t="s">
+        <v>650</v>
+      </c>
+      <c r="G179" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H178" s="74" t="s">
+      <c r="H179" s="74" t="s">
         <v>544</v>
       </c>
-      <c r="I178" s="74" t="s">
+      <c r="I179" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="J178" s="74" t="s">
+      <c r="J179" s="74" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="91" t="s">
-        <v>650</v>
-      </c>
-      <c r="B179" s="91"/>
-      <c r="C179" s="91"/>
-      <c r="D179" s="92"/>
-      <c r="E179" s="91"/>
-      <c r="F179" s="91"/>
-      <c r="G179" s="91"/>
-      <c r="H179" s="91"/>
-      <c r="I179" s="91"/>
-      <c r="J179" s="91"/>
     </row>
     <row r="180" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B180" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C180" s="79" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="D180" s="83" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="E180" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F180" s="75" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G180" s="74" t="s">
         <v>11</v>
@@ -9687,7 +9720,7 @@
     </row>
     <row r="181" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B181" s="74" t="s">
         <v>10</v>
@@ -9695,14 +9728,14 @@
       <c r="C181" s="79" t="s">
         <v>658</v>
       </c>
-      <c r="D181" s="83" t="s">
+      <c r="D181" s="84" t="s">
         <v>659</v>
       </c>
       <c r="E181" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F181" s="75" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="G181" s="74" t="s">
         <v>11</v>
@@ -9719,22 +9752,22 @@
     </row>
     <row r="182" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B182" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C182" s="79" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D182" s="84" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E182" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F182" s="75" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G182" s="74" t="s">
         <v>11</v>
@@ -9751,7 +9784,7 @@
     </row>
     <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B183" s="74" t="s">
         <v>10</v>
@@ -9766,7 +9799,7 @@
         <v>14</v>
       </c>
       <c r="F183" s="75" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="G183" s="74" t="s">
         <v>11</v>
@@ -9781,41 +9814,157 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="73">
-        <v>5</v>
-      </c>
-      <c r="B184" s="74" t="s">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" s="86" t="s">
+        <v>669</v>
+      </c>
+      <c r="B184" s="86"/>
+      <c r="C184" s="86"/>
+      <c r="D184" s="86"/>
+      <c r="E184" s="86"/>
+      <c r="F184" s="86"/>
+      <c r="G184" s="86"/>
+      <c r="H184" s="86"/>
+      <c r="I184" s="86"/>
+      <c r="J184" s="86"/>
+    </row>
+    <row r="185" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="48">
+        <v>1</v>
+      </c>
+      <c r="B185" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C184" s="79" t="s">
-        <v>668</v>
-      </c>
-      <c r="D184" s="84" t="s">
-        <v>669</v>
-      </c>
-      <c r="E184" s="80" t="s">
+      <c r="C185" s="85" t="s">
+        <v>670</v>
+      </c>
+      <c r="D185" s="64" t="s">
+        <v>647</v>
+      </c>
+      <c r="E185" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F184" s="75" t="s">
-        <v>670</v>
-      </c>
-      <c r="G184" s="74" t="s">
+      <c r="F185" s="85" t="s">
+        <v>671</v>
+      </c>
+      <c r="G185" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H184" s="74" t="s">
+      <c r="H185" s="48" t="s">
         <v>544</v>
       </c>
-      <c r="I184" s="74" t="s">
+      <c r="I185" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J184" s="74" t="s">
+      <c r="J185" s="48" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="186" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="48">
+        <v>2</v>
+      </c>
+      <c r="B186" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" s="85" t="s">
+        <v>674</v>
+      </c>
+      <c r="D186" s="84" t="s">
+        <v>675</v>
+      </c>
+      <c r="E186" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="G186" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H186" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="I186" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J186" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="48">
+        <v>3</v>
+      </c>
+      <c r="B187" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" s="85" t="s">
+        <v>676</v>
+      </c>
+      <c r="D187" s="84" t="s">
+        <v>678</v>
+      </c>
+      <c r="E187" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" s="85" t="s">
+        <v>679</v>
+      </c>
+      <c r="G187" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H187" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="I187" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J187" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="48">
+        <v>4</v>
+      </c>
+      <c r="B188" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" s="85" t="s">
+        <v>677</v>
+      </c>
+      <c r="D188" s="84" t="s">
+        <v>681</v>
+      </c>
+      <c r="E188" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" s="85" t="s">
+        <v>680</v>
+      </c>
+      <c r="G188" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H188" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="I188" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J188" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A179:J179"/>
+  <mergeCells count="16">
+    <mergeCell ref="A184:J184"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="A178:J178"/>
     <mergeCell ref="A117:J117"/>
     <mergeCell ref="A115:J115"/>
     <mergeCell ref="A113:J113"/>
@@ -9825,11 +9974,6 @@
     <mergeCell ref="A147:J147"/>
     <mergeCell ref="A125:J125"/>
     <mergeCell ref="A136:J136"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A74:J74"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -9927,10 +10071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:Y182"/>
+  <dimension ref="A1:Y185"/>
   <sheetViews>
-    <sheetView topLeftCell="G168" workbookViewId="0">
-      <selection activeCell="Y182" sqref="Y182"/>
+    <sheetView topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10029,7 +10173,7 @@
         <v>615</v>
       </c>
       <c r="Y1" s="31" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
@@ -23249,7 +23393,7 @@
     </row>
     <row r="177" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="75" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B177" s="48" t="s">
         <v>22</v>
@@ -23302,8 +23446,8 @@
       <c r="R177" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S177" s="48" t="s">
-        <v>22</v>
+      <c r="S177" s="49" t="s">
+        <v>644</v>
       </c>
       <c r="T177" s="48" t="s">
         <v>22</v>
@@ -23321,12 +23465,12 @@
         <v>22</v>
       </c>
       <c r="Y177" s="48" t="s">
-        <v>22</v>
+        <v>653</v>
       </c>
     </row>
     <row r="178" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="75" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B178" s="48" t="s">
         <v>22</v>
@@ -23380,7 +23524,7 @@
         <v>22</v>
       </c>
       <c r="S178" s="49" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="T178" s="48" t="s">
         <v>22</v>
@@ -23403,7 +23547,7 @@
     </row>
     <row r="179" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="75" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B179" s="48" t="s">
         <v>22</v>
@@ -23456,8 +23600,8 @@
       <c r="R179" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S179" s="49" t="s">
-        <v>640</v>
+      <c r="S179" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="T179" s="48" t="s">
         <v>22</v>
@@ -23475,12 +23619,12 @@
         <v>22</v>
       </c>
       <c r="Y179" s="48" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
     </row>
     <row r="180" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="75" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B180" s="48" t="s">
         <v>22</v>
@@ -23551,13 +23695,13 @@
       <c r="X180" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="Y180" s="48" t="s">
-        <v>663</v>
+      <c r="Y180" s="84" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="181" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="75" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B181" s="48" t="s">
         <v>22</v>
@@ -23629,12 +23773,12 @@
         <v>22</v>
       </c>
       <c r="Y181" s="84" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="182" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B182" s="48" t="s">
         <v>22</v>
@@ -23705,8 +23849,239 @@
       <c r="X182" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="Y182" s="84" t="s">
-        <v>671</v>
+      <c r="Y182" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="75" t="s">
+        <v>673</v>
+      </c>
+      <c r="B183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W183" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y183" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="75" t="s">
+        <v>679</v>
+      </c>
+      <c r="B184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W184" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X184" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y184" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="75" t="s">
+        <v>680</v>
+      </c>
+      <c r="B185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W185" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y185" s="48" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -23840,7 +24215,7 @@
     <hyperlink ref="X169" r:id="rId22" tooltip="pink real heaven" display="https://qa.zlta.testingserver8.com/product-detail/pink-real-heaven" xr:uid="{7AB2CC85-055B-4B62-B758-A407CA7BD409}"/>
     <hyperlink ref="X170" r:id="rId23" tooltip="black test fomo dress" display="https://qa.zlta.testingserver8.com/product-detail/black-test-fomo-dress" xr:uid="{433348B6-FAF8-4A72-9F17-DD38230B048A}"/>
     <hyperlink ref="X173" r:id="rId24" display="https://qa.zlta.testingserver8.com/product-detail/blur-kurta-kurti" xr:uid="{70B64AC5-4FBE-4336-8497-F9A1DB7FFD86}"/>
-    <hyperlink ref="S179" r:id="rId25" xr:uid="{DF8EB9C0-66FF-4567-AB0C-2AAA3F681E81}"/>
+    <hyperlink ref="S178" r:id="rId25" xr:uid="{DF8EB9C0-66FF-4567-AB0C-2AAA3F681E81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId26"/>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D41E7C-7DE1-47A1-9ED3-249DC62785B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FB3E62-7EE8-4C6E-A761-169455E12ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
     <sheet name="ZlaataTestData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6060" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6334" uniqueCount="712">
   <si>
     <t>S.No</t>
   </si>
@@ -1924,9 +1924,6 @@
     <t>Remove product SKU from Top Selling and verify on User App.</t>
   </si>
   <si>
-    <t>pink real heaven</t>
-  </si>
-  <si>
     <t>TD_UI_Zlaata_ADM_07</t>
   </si>
   <si>
@@ -2072,6 +2069,99 @@
   </si>
   <si>
     <t>Verify Inactive Products match between two exports.</t>
+  </si>
+  <si>
+    <t>Admin Panel  Google Merchant</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_AGM_01</t>
+  </si>
+  <si>
+    <t>Verify product SKU can be pushed to Google Merchant and status updates.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_AGM_01</t>
+  </si>
+  <si>
+    <t>Beige testing new</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin Panel  Import </t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_01</t>
+  </si>
+  <si>
+    <t>Verify Categories import uploaded appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_02</t>
+  </si>
+  <si>
+    <t>Verify Collection import uploaded appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_02</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_03</t>
+  </si>
+  <si>
+    <t>Verify Product Style import uploaded appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_03</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/product-style</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_04</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_04</t>
+  </si>
+  <si>
+    <t>Verify All Product import uploaded appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_05</t>
+  </si>
+  <si>
+    <t>Verify Search Keyboard Product import uploaded appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_05</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_06</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_07</t>
+  </si>
+  <si>
+    <t>Verify Search Keyboard Collection import uploaded appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>Verify Search Keyboard Style import uploaded appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_06</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADI_07</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/product-search-keyword</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/collection-search-keyword</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/style-search-keyword</t>
   </si>
 </sst>
 </file>
@@ -2716,9 +2806,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2736,6 +2823,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3557,10 +3647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z188"/>
+  <dimension ref="A1:Z198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+    <sheetView topLeftCell="A178" zoomScale="109" workbookViewId="0">
+      <selection activeCell="F198" sqref="F198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4313,18 +4403,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="89"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="88"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -4711,18 +4801,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="90" t="s">
+      <c r="A37" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="92"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="91"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -5141,18 +5231,18 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="90" t="s">
+      <c r="A51" s="89" t="s">
         <v>245</v>
       </c>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="91"/>
-      <c r="H51" s="91"/>
-      <c r="I51" s="91"/>
-      <c r="J51" s="92"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="91"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="25">
@@ -5475,18 +5565,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="90" t="s">
+      <c r="A62" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="B62" s="91"/>
-      <c r="C62" s="91"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="91"/>
-      <c r="I62" s="91"/>
-      <c r="J62" s="92"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="91"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="25">
@@ -5841,18 +5931,18 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="90" t="s">
+      <c r="A74" s="89" t="s">
         <v>346</v>
       </c>
-      <c r="B74" s="91"/>
-      <c r="C74" s="91"/>
-      <c r="D74" s="91"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="91"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="91"/>
-      <c r="J74" s="92"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="90"/>
+      <c r="D74" s="90"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="90"/>
+      <c r="G74" s="90"/>
+      <c r="H74" s="90"/>
+      <c r="I74" s="90"/>
+      <c r="J74" s="91"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="25">
@@ -9344,7 +9434,7 @@
       </c>
       <c r="B168" s="93"/>
       <c r="C168" s="93"/>
-      <c r="D168" s="86"/>
+      <c r="D168" s="92"/>
       <c r="E168" s="93"/>
       <c r="F168" s="93"/>
       <c r="G168" s="93"/>
@@ -9552,16 +9642,16 @@
         <v>10</v>
       </c>
       <c r="C175" s="79" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D175" s="64" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E175" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F175" s="75" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G175" s="74" t="s">
         <v>11</v>
@@ -9584,16 +9674,16 @@
         <v>10</v>
       </c>
       <c r="C176" s="79" t="s">
+        <v>640</v>
+      </c>
+      <c r="D176" s="84" t="s">
         <v>641</v>
-      </c>
-      <c r="D176" s="84" t="s">
-        <v>642</v>
       </c>
       <c r="E176" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F176" s="75" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G176" s="74" t="s">
         <v>11</v>
@@ -9616,16 +9706,16 @@
         <v>10</v>
       </c>
       <c r="C177" s="79" t="s">
+        <v>636</v>
+      </c>
+      <c r="D177" s="64" t="s">
         <v>637</v>
-      </c>
-      <c r="D177" s="64" t="s">
-        <v>638</v>
       </c>
       <c r="E177" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F177" s="75" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G177" s="74" t="s">
         <v>11</v>
@@ -9642,11 +9732,11 @@
     </row>
     <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="93" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B178" s="93"/>
       <c r="C178" s="93"/>
-      <c r="D178" s="86"/>
+      <c r="D178" s="92"/>
       <c r="E178" s="93"/>
       <c r="F178" s="93"/>
       <c r="G178" s="93"/>
@@ -9662,16 +9752,16 @@
         <v>10</v>
       </c>
       <c r="C179" s="79" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D179" s="83" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E179" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F179" s="75" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G179" s="74" t="s">
         <v>11</v>
@@ -9694,16 +9784,16 @@
         <v>10</v>
       </c>
       <c r="C180" s="79" t="s">
+        <v>655</v>
+      </c>
+      <c r="D180" s="83" t="s">
         <v>656</v>
-      </c>
-      <c r="D180" s="83" t="s">
-        <v>657</v>
       </c>
       <c r="E180" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F180" s="75" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G180" s="74" t="s">
         <v>11</v>
@@ -9726,16 +9816,16 @@
         <v>10</v>
       </c>
       <c r="C181" s="79" t="s">
+        <v>657</v>
+      </c>
+      <c r="D181" s="84" t="s">
         <v>658</v>
-      </c>
-      <c r="D181" s="84" t="s">
-        <v>659</v>
       </c>
       <c r="E181" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F181" s="75" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G181" s="74" t="s">
         <v>11</v>
@@ -9758,16 +9848,16 @@
         <v>10</v>
       </c>
       <c r="C182" s="79" t="s">
+        <v>661</v>
+      </c>
+      <c r="D182" s="84" t="s">
         <v>662</v>
-      </c>
-      <c r="D182" s="84" t="s">
-        <v>663</v>
       </c>
       <c r="E182" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F182" s="75" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G182" s="74" t="s">
         <v>11</v>
@@ -9790,16 +9880,16 @@
         <v>10</v>
       </c>
       <c r="C183" s="79" t="s">
+        <v>664</v>
+      </c>
+      <c r="D183" s="84" t="s">
         <v>665</v>
-      </c>
-      <c r="D183" s="84" t="s">
-        <v>666</v>
       </c>
       <c r="E183" s="80" t="s">
         <v>14</v>
       </c>
       <c r="F183" s="75" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G183" s="74" t="s">
         <v>11</v>
@@ -9815,18 +9905,18 @@
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A184" s="86" t="s">
-        <v>669</v>
-      </c>
-      <c r="B184" s="86"/>
-      <c r="C184" s="86"/>
-      <c r="D184" s="86"/>
-      <c r="E184" s="86"/>
-      <c r="F184" s="86"/>
-      <c r="G184" s="86"/>
-      <c r="H184" s="86"/>
-      <c r="I184" s="86"/>
-      <c r="J184" s="86"/>
+      <c r="A184" s="92" t="s">
+        <v>668</v>
+      </c>
+      <c r="B184" s="92"/>
+      <c r="C184" s="92"/>
+      <c r="D184" s="92"/>
+      <c r="E184" s="92"/>
+      <c r="F184" s="92"/>
+      <c r="G184" s="92"/>
+      <c r="H184" s="92"/>
+      <c r="I184" s="92"/>
+      <c r="J184" s="92"/>
     </row>
     <row r="185" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="48">
@@ -9836,16 +9926,16 @@
         <v>10</v>
       </c>
       <c r="C185" s="85" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D185" s="64" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E185" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F185" s="85" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G185" s="48" t="s">
         <v>11</v>
@@ -9868,16 +9958,16 @@
         <v>10</v>
       </c>
       <c r="C186" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="D186" s="84" t="s">
         <v>674</v>
-      </c>
-      <c r="D186" s="84" t="s">
-        <v>675</v>
       </c>
       <c r="E186" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F186" s="85" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G186" s="48" t="s">
         <v>11</v>
@@ -9900,16 +9990,16 @@
         <v>10</v>
       </c>
       <c r="C187" s="85" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D187" s="84" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E187" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F187" s="85" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G187" s="48" t="s">
         <v>11</v>
@@ -9932,16 +10022,16 @@
         <v>10</v>
       </c>
       <c r="C188" s="85" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D188" s="84" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E188" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F188" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G188" s="48" t="s">
         <v>11</v>
@@ -9956,15 +10046,293 @@
         <v>13</v>
       </c>
     </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" s="92" t="s">
+        <v>681</v>
+      </c>
+      <c r="B189" s="92"/>
+      <c r="C189" s="92"/>
+      <c r="D189" s="92"/>
+      <c r="E189" s="92"/>
+      <c r="F189" s="92"/>
+      <c r="G189" s="92"/>
+      <c r="H189" s="92"/>
+      <c r="I189" s="92"/>
+      <c r="J189" s="92"/>
+    </row>
+    <row r="190" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="48">
+        <v>1</v>
+      </c>
+      <c r="B190" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" s="85" t="s">
+        <v>682</v>
+      </c>
+      <c r="D190" s="84" t="s">
+        <v>683</v>
+      </c>
+      <c r="E190" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F190" s="85" t="s">
+        <v>684</v>
+      </c>
+      <c r="G190" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H190" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="I190" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J190" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191" s="92" t="s">
+        <v>687</v>
+      </c>
+      <c r="B191" s="92"/>
+      <c r="C191" s="92"/>
+      <c r="D191" s="92"/>
+      <c r="E191" s="92"/>
+      <c r="F191" s="92"/>
+      <c r="G191" s="92"/>
+      <c r="H191" s="92"/>
+      <c r="I191" s="92"/>
+      <c r="J191" s="92"/>
+    </row>
+    <row r="192" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="48">
+        <v>1</v>
+      </c>
+      <c r="B192" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192" s="85" t="s">
+        <v>688</v>
+      </c>
+      <c r="D192" s="84" t="s">
+        <v>689</v>
+      </c>
+      <c r="E192" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192" s="85" t="s">
+        <v>686</v>
+      </c>
+      <c r="G192" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H192" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="I192" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J192" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="48">
+        <v>2</v>
+      </c>
+      <c r="B193" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="85" t="s">
+        <v>690</v>
+      </c>
+      <c r="D193" s="84" t="s">
+        <v>691</v>
+      </c>
+      <c r="E193" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F193" s="85" t="s">
+        <v>692</v>
+      </c>
+      <c r="G193" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H193" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="I193" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J193" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="48">
+        <v>3</v>
+      </c>
+      <c r="B194" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194" s="85" t="s">
+        <v>693</v>
+      </c>
+      <c r="D194" s="84" t="s">
+        <v>694</v>
+      </c>
+      <c r="E194" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F194" s="85" t="s">
+        <v>695</v>
+      </c>
+      <c r="G194" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H194" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="I194" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J194" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="48">
+        <v>4</v>
+      </c>
+      <c r="B195" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="85" t="s">
+        <v>698</v>
+      </c>
+      <c r="D195" s="84" t="s">
+        <v>699</v>
+      </c>
+      <c r="E195" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F195" s="85" t="s">
+        <v>697</v>
+      </c>
+      <c r="G195" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H195" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="I195" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J195" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="48">
+        <v>5</v>
+      </c>
+      <c r="B196" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" s="85" t="s">
+        <v>700</v>
+      </c>
+      <c r="D196" s="84" t="s">
+        <v>701</v>
+      </c>
+      <c r="E196" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F196" s="85" t="s">
+        <v>702</v>
+      </c>
+      <c r="G196" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H196" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="I196" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J196" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="48">
+        <v>6</v>
+      </c>
+      <c r="B197" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="85" t="s">
+        <v>703</v>
+      </c>
+      <c r="D197" s="84" t="s">
+        <v>705</v>
+      </c>
+      <c r="E197" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F197" s="85" t="s">
+        <v>707</v>
+      </c>
+      <c r="G197" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H197" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="I197" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J197" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="48">
+        <v>7</v>
+      </c>
+      <c r="B198" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="85" t="s">
+        <v>704</v>
+      </c>
+      <c r="D198" s="84" t="s">
+        <v>706</v>
+      </c>
+      <c r="E198" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" s="85" t="s">
+        <v>708</v>
+      </c>
+      <c r="G198" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H198" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="I198" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J198" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A184:J184"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A178:J178"/>
+  <mergeCells count="18">
+    <mergeCell ref="A191:J191"/>
     <mergeCell ref="A117:J117"/>
     <mergeCell ref="A115:J115"/>
     <mergeCell ref="A113:J113"/>
@@ -9974,6 +10342,14 @@
     <mergeCell ref="A147:J147"/>
     <mergeCell ref="A125:J125"/>
     <mergeCell ref="A136:J136"/>
+    <mergeCell ref="A189:J189"/>
+    <mergeCell ref="A184:J184"/>
+    <mergeCell ref="A178:J178"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A74:J74"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -10071,10 +10447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:Y185"/>
+  <dimension ref="A1:Y193"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="S193" sqref="S193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10173,7 +10549,7 @@
         <v>615</v>
       </c>
       <c r="Y1" s="31" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
@@ -22845,8 +23221,8 @@
       <c r="W169" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="X169" s="78" t="s">
-        <v>632</v>
+      <c r="X169" s="82" t="s">
+        <v>644</v>
       </c>
       <c r="Y169" s="48" t="s">
         <v>22</v>
@@ -22923,7 +23299,7 @@
         <v>22</v>
       </c>
       <c r="X170" s="78" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Y170" s="48" t="s">
         <v>22</v>
@@ -23154,7 +23530,7 @@
         <v>22</v>
       </c>
       <c r="X173" s="82" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Y173" s="48" t="s">
         <v>22</v>
@@ -23162,61 +23538,61 @@
     </row>
     <row r="174" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="75" t="s">
+        <v>632</v>
+      </c>
+      <c r="B174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S174" s="49" t="s">
         <v>633</v>
-      </c>
-      <c r="B174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R174" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S174" s="49" t="s">
-        <v>634</v>
       </c>
       <c r="T174" s="48" t="s">
         <v>22</v>
@@ -23239,61 +23615,61 @@
     </row>
     <row r="175" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="75" t="s">
+        <v>642</v>
+      </c>
+      <c r="B175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S175" s="49" t="s">
         <v>643</v>
-      </c>
-      <c r="B175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R175" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S175" s="49" t="s">
-        <v>644</v>
       </c>
       <c r="T175" s="48" t="s">
         <v>22</v>
@@ -23316,61 +23692,61 @@
     </row>
     <row r="176" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="75" t="s">
+        <v>638</v>
+      </c>
+      <c r="B176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S176" s="49" t="s">
         <v>639</v>
-      </c>
-      <c r="B176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R176" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S176" s="49" t="s">
-        <v>640</v>
       </c>
       <c r="T176" s="48" t="s">
         <v>22</v>
@@ -23393,7 +23769,7 @@
     </row>
     <row r="177" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="75" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B177" s="48" t="s">
         <v>22</v>
@@ -23447,7 +23823,7 @@
         <v>22</v>
       </c>
       <c r="S177" s="49" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T177" s="48" t="s">
         <v>22</v>
@@ -23465,89 +23841,89 @@
         <v>22</v>
       </c>
       <c r="Y177" s="48" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="178" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="75" t="s">
+        <v>653</v>
+      </c>
+      <c r="B178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S178" s="49" t="s">
+        <v>639</v>
+      </c>
+      <c r="T178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W178" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X178" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y178" s="48" t="s">
         <v>654</v>
-      </c>
-      <c r="B178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S178" s="49" t="s">
-        <v>640</v>
-      </c>
-      <c r="T178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="W178" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="X178" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y178" s="48" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="179" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="75" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B179" s="48" t="s">
         <v>22</v>
@@ -23619,12 +23995,12 @@
         <v>22</v>
       </c>
       <c r="Y179" s="48" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="180" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="75" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B180" s="48" t="s">
         <v>22</v>
@@ -23696,89 +24072,89 @@
         <v>22</v>
       </c>
       <c r="Y180" s="84" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="181" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="75" t="s">
+        <v>666</v>
+      </c>
+      <c r="B181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W181" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X181" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y181" s="84" t="s">
         <v>667</v>
-      </c>
-      <c r="B181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="W181" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="X181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y181" s="84" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="182" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="75" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B182" s="48" t="s">
         <v>22</v>
@@ -23855,7 +24231,7 @@
     </row>
     <row r="183" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="75" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B183" s="48" t="s">
         <v>22</v>
@@ -23932,7 +24308,7 @@
     </row>
     <row r="184" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="75" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B184" s="48" t="s">
         <v>22</v>
@@ -24009,7 +24385,7 @@
     </row>
     <row r="185" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="75" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B185" s="48" t="s">
         <v>22</v>
@@ -24081,6 +24457,622 @@
         <v>22</v>
       </c>
       <c r="Y185" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="75" t="s">
+        <v>684</v>
+      </c>
+      <c r="B186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S186" s="49" t="s">
+        <v>612</v>
+      </c>
+      <c r="T186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W186" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X186" s="78" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y186" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="75" t="s">
+        <v>686</v>
+      </c>
+      <c r="B187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S187" s="49" t="s">
+        <v>643</v>
+      </c>
+      <c r="T187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W187" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y187" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="75" t="s">
+        <v>692</v>
+      </c>
+      <c r="B188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S188" s="49" t="s">
+        <v>639</v>
+      </c>
+      <c r="T188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W188" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y188" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="75" t="s">
+        <v>695</v>
+      </c>
+      <c r="B189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S189" s="49" t="s">
+        <v>696</v>
+      </c>
+      <c r="T189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W189" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y189" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="75" t="s">
+        <v>697</v>
+      </c>
+      <c r="B190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S190" s="49" t="s">
+        <v>612</v>
+      </c>
+      <c r="T190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W190" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y190" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="75" t="s">
+        <v>702</v>
+      </c>
+      <c r="B191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S191" s="49" t="s">
+        <v>709</v>
+      </c>
+      <c r="T191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W191" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y191" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="75" t="s">
+        <v>707</v>
+      </c>
+      <c r="B192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S192" s="49" t="s">
+        <v>710</v>
+      </c>
+      <c r="T192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W192" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y192" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="75" t="s">
+        <v>708</v>
+      </c>
+      <c r="B193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S193" s="49" t="s">
+        <v>711</v>
+      </c>
+      <c r="T193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W193" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y193" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -24212,12 +25204,14 @@
     <hyperlink ref="S170" r:id="rId19" xr:uid="{23F160B7-D3CD-415D-B0D6-1EECB7AFE96F}"/>
     <hyperlink ref="S171" r:id="rId20" xr:uid="{7206C778-989C-4587-83FA-C09C20DA42BD}"/>
     <hyperlink ref="S172" r:id="rId21" xr:uid="{3B0D666D-626C-490D-A9B6-B9643B9EDF8A}"/>
-    <hyperlink ref="X169" r:id="rId22" tooltip="pink real heaven" display="https://qa.zlta.testingserver8.com/product-detail/pink-real-heaven" xr:uid="{7AB2CC85-055B-4B62-B758-A407CA7BD409}"/>
-    <hyperlink ref="X170" r:id="rId23" tooltip="black test fomo dress" display="https://qa.zlta.testingserver8.com/product-detail/black-test-fomo-dress" xr:uid="{433348B6-FAF8-4A72-9F17-DD38230B048A}"/>
-    <hyperlink ref="X173" r:id="rId24" display="https://qa.zlta.testingserver8.com/product-detail/blur-kurta-kurti" xr:uid="{70B64AC5-4FBE-4336-8497-F9A1DB7FFD86}"/>
-    <hyperlink ref="S178" r:id="rId25" xr:uid="{DF8EB9C0-66FF-4567-AB0C-2AAA3F681E81}"/>
+    <hyperlink ref="X170" r:id="rId22" tooltip="black test fomo dress" display="https://qa.zlta.testingserver8.com/product-detail/black-test-fomo-dress" xr:uid="{433348B6-FAF8-4A72-9F17-DD38230B048A}"/>
+    <hyperlink ref="X173" r:id="rId23" display="https://qa.zlta.testingserver8.com/product-detail/blur-kurta-kurti" xr:uid="{70B64AC5-4FBE-4336-8497-F9A1DB7FFD86}"/>
+    <hyperlink ref="S178" r:id="rId24" xr:uid="{DF8EB9C0-66FF-4567-AB0C-2AAA3F681E81}"/>
+    <hyperlink ref="X186" r:id="rId25" tooltip="Beige testing new" display="https://qa.zlta.testingserver8.com/product-detail/beige-testing-new" xr:uid="{4E249158-3499-44BE-89BA-DFB24181C4AF}"/>
+    <hyperlink ref="X169" r:id="rId26" display="https://qa.zlta.testingserver8.com/product-detail/black-test-fomo-dress" xr:uid="{94A4F9BA-36A0-4309-A4E1-BFF6C7737946}"/>
+    <hyperlink ref="S190" r:id="rId27" xr:uid="{3E75D26A-8D4A-4E73-BE8D-196621D83EE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjith\git\ZlaataQAsever02\src\test\resources\testdata\zltUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D866D9-A703-49C3-BF44-8EB7645D9AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0056FB-7EDA-4A52-A06F-3E0E34664AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
     <sheet name="ZlaataTestData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2840,6 +2840,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2849,25 +2858,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2877,6 +2871,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3683,24 +3683,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
   <dimension ref="A1:Z198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="A135" zoomScale="109" workbookViewId="0">
       <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="118.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="118.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>9</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>10</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>11</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>12</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>13</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
         <v>14</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>15</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>16</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
         <v>17</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <v>18</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <v>19</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
         <v>20</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
         <v>21</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="45">
         <v>22</v>
       </c>
@@ -4436,21 +4436,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="88" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="90"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="84"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>1</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>2</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>4</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>5</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>6</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>7</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>8</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>9</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>10</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>11</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>12</v>
       </c>
@@ -4834,21 +4834,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="82" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="84"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="87"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>1</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>2</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>3</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>4</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>6</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>7</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>8</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>9</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>10</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>11</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>12</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>13</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>14</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>15</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>16</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>16</v>
       </c>
@@ -5392,21 +5392,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="82" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="85" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="84"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="87"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
         <v>1</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="25">
         <v>2</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="25">
         <v>3</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="25">
         <v>4</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="25">
         <v>5</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="25">
         <v>6</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="25">
         <v>7</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="25">
         <v>8</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="25">
         <v>9</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="25">
         <v>10</v>
       </c>
@@ -5726,21 +5726,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="82" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="85" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="83"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="84"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="86"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="86"/>
+      <c r="J66" s="87"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
         <v>1</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="25">
         <v>2</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="25">
         <v>3</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="25">
         <v>4</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="25">
         <v>5</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="25">
         <v>6</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="25">
         <v>7</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="25">
         <v>8</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="25">
         <v>9</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="25">
         <v>10</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="25">
         <v>11</v>
       </c>
@@ -6092,21 +6092,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="82" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="85" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="83"/>
-      <c r="C78" s="83"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="83"/>
-      <c r="H78" s="83"/>
-      <c r="I78" s="83"/>
-      <c r="J78" s="84"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="86"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="86"/>
+      <c r="E78" s="86"/>
+      <c r="F78" s="86"/>
+      <c r="G78" s="86"/>
+      <c r="H78" s="86"/>
+      <c r="I78" s="86"/>
+      <c r="J78" s="87"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
         <v>1</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="25">
         <v>2</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="25">
         <v>3</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="25">
         <v>4</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="25">
         <v>5</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="25">
         <v>6</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="25">
         <v>7</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="25">
         <v>8</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="25">
         <v>9</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="25">
         <v>10</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="25">
         <v>11</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="25">
         <v>12</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="25">
         <v>13</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="25">
         <v>14</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="25">
         <v>15</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="25">
         <v>16</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="25">
         <v>17</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="25">
         <v>18</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="25">
         <v>19</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="25">
         <v>20</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="25">
         <v>21</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="25">
         <v>22</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="25">
         <v>23</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="25">
         <v>24</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="25">
         <v>25</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="25">
         <v>27</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="25">
         <v>28</v>
       </c>
@@ -6970,21 +6970,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="85" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="93" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="85"/>
-      <c r="C106" s="85"/>
-      <c r="D106" s="85"/>
-      <c r="E106" s="85"/>
-      <c r="F106" s="85"/>
-      <c r="G106" s="85"/>
-      <c r="H106" s="85"/>
-      <c r="I106" s="85"/>
-      <c r="J106" s="85"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="93"/>
+      <c r="C106" s="93"/>
+      <c r="D106" s="93"/>
+      <c r="E106" s="93"/>
+      <c r="F106" s="93"/>
+      <c r="G106" s="93"/>
+      <c r="H106" s="93"/>
+      <c r="I106" s="93"/>
+      <c r="J106" s="93"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
         <v>1</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="25">
         <v>2</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="25">
         <v>3</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="25">
         <v>4</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="25">
         <v>5</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="25">
         <v>6</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="25">
         <v>7</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" s="25">
         <v>8</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
         <v>9</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116" s="25">
         <v>10</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="25">
         <v>11</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="25">
         <v>12</v>
       </c>
@@ -7382,7 +7382,7 @@
       <c r="W118" s="58"/>
       <c r="X118" s="58"/>
     </row>
-    <row r="119" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="25">
         <v>13</v>
       </c>
@@ -7428,7 +7428,7 @@
       <c r="W119" s="58"/>
       <c r="X119" s="58"/>
     </row>
-    <row r="120" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="25">
         <v>14</v>
       </c>
@@ -7474,19 +7474,19 @@
       <c r="W120" s="58"/>
       <c r="X120" s="58"/>
     </row>
-    <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="86" t="s">
+    <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="89" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="86"/>
-      <c r="C121" s="86"/>
-      <c r="D121" s="86"/>
-      <c r="E121" s="86"/>
-      <c r="F121" s="86"/>
-      <c r="G121" s="86"/>
-      <c r="H121" s="86"/>
-      <c r="I121" s="86"/>
-      <c r="J121" s="86"/>
+      <c r="B121" s="89"/>
+      <c r="C121" s="89"/>
+      <c r="D121" s="89"/>
+      <c r="E121" s="89"/>
+      <c r="F121" s="89"/>
+      <c r="G121" s="89"/>
+      <c r="H121" s="89"/>
+      <c r="I121" s="89"/>
+      <c r="J121" s="89"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -7502,7 +7502,7 @@
       <c r="W121" s="58"/>
       <c r="X121" s="58"/>
     </row>
-    <row r="122" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="25">
         <v>1</v>
       </c>
@@ -7548,19 +7548,19 @@
       <c r="W122" s="58"/>
       <c r="X122" s="58"/>
     </row>
-    <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="86" t="s">
+    <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="89" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="86"/>
-      <c r="C123" s="86"/>
-      <c r="D123" s="86"/>
-      <c r="E123" s="86"/>
-      <c r="F123" s="86"/>
-      <c r="G123" s="86"/>
-      <c r="H123" s="86"/>
-      <c r="I123" s="86"/>
-      <c r="J123" s="86"/>
+      <c r="B123" s="89"/>
+      <c r="C123" s="89"/>
+      <c r="D123" s="89"/>
+      <c r="E123" s="89"/>
+      <c r="F123" s="89"/>
+      <c r="G123" s="89"/>
+      <c r="H123" s="89"/>
+      <c r="I123" s="89"/>
+      <c r="J123" s="89"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -7576,7 +7576,7 @@
       <c r="W123" s="58"/>
       <c r="X123" s="58"/>
     </row>
-    <row r="124" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="25">
         <v>1</v>
       </c>
@@ -7622,21 +7622,21 @@
       <c r="W124" s="58"/>
       <c r="X124" s="58"/>
     </row>
-    <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="86" t="s">
+    <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="89" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="86"/>
-      <c r="C125" s="86"/>
-      <c r="D125" s="86"/>
-      <c r="E125" s="86"/>
-      <c r="F125" s="86"/>
-      <c r="G125" s="86"/>
-      <c r="H125" s="86"/>
-      <c r="I125" s="86"/>
-      <c r="J125" s="86"/>
-    </row>
-    <row r="126" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="89"/>
+      <c r="C125" s="89"/>
+      <c r="D125" s="89"/>
+      <c r="E125" s="89"/>
+      <c r="F125" s="89"/>
+      <c r="G125" s="89"/>
+      <c r="H125" s="89"/>
+      <c r="I125" s="89"/>
+      <c r="J125" s="89"/>
+    </row>
+    <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="25">
         <v>1</v>
       </c>
@@ -7682,7 +7682,7 @@
       <c r="W126" s="61"/>
       <c r="X126" s="61"/>
     </row>
-    <row r="127" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="25">
         <v>2</v>
       </c>
@@ -7728,7 +7728,7 @@
       <c r="W127" s="58"/>
       <c r="X127" s="58"/>
     </row>
-    <row r="128" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="25">
         <v>3</v>
       </c>
@@ -7774,7 +7774,7 @@
       <c r="W128" s="58"/>
       <c r="X128" s="58"/>
     </row>
-    <row r="129" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="25">
         <v>4</v>
       </c>
@@ -7820,7 +7820,7 @@
       <c r="W129" s="58"/>
       <c r="X129" s="58"/>
     </row>
-    <row r="130" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="25">
         <v>5</v>
       </c>
@@ -7866,7 +7866,7 @@
       <c r="W130" s="58"/>
       <c r="X130" s="58"/>
     </row>
-    <row r="131" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="25">
         <v>6</v>
       </c>
@@ -7912,7 +7912,7 @@
       <c r="W131" s="58"/>
       <c r="X131" s="58"/>
     </row>
-    <row r="132" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="25">
         <v>7</v>
       </c>
@@ -7958,19 +7958,19 @@
       <c r="W132" s="58"/>
       <c r="X132" s="58"/>
     </row>
-    <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="86" t="s">
+    <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="89" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="86"/>
-      <c r="C133" s="86"/>
-      <c r="D133" s="87"/>
-      <c r="E133" s="87"/>
-      <c r="F133" s="87"/>
-      <c r="G133" s="87"/>
-      <c r="H133" s="87"/>
-      <c r="I133" s="87"/>
-      <c r="J133" s="87"/>
+      <c r="B133" s="89"/>
+      <c r="C133" s="89"/>
+      <c r="D133" s="94"/>
+      <c r="E133" s="94"/>
+      <c r="F133" s="94"/>
+      <c r="G133" s="94"/>
+      <c r="H133" s="94"/>
+      <c r="I133" s="94"/>
+      <c r="J133" s="94"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -7986,7 +7986,7 @@
       <c r="W133" s="58"/>
       <c r="X133" s="58"/>
     </row>
-    <row r="134" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="59">
         <v>11</v>
       </c>
@@ -8032,7 +8032,7 @@
       <c r="W134" s="58"/>
       <c r="X134" s="58"/>
     </row>
-    <row r="135" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="26">
         <v>2</v>
       </c>
@@ -8078,7 +8078,7 @@
       <c r="W135" s="58"/>
       <c r="X135" s="58"/>
     </row>
-    <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="26">
         <v>3</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="26">
         <v>4</v>
       </c>
@@ -8156,7 +8156,7 @@
       <c r="W137" s="58"/>
       <c r="X137" s="58"/>
     </row>
-    <row r="138" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="26">
         <v>5</v>
       </c>
@@ -8202,7 +8202,7 @@
       <c r="W138" s="58"/>
       <c r="X138" s="58"/>
     </row>
-    <row r="139" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="26">
         <v>6</v>
       </c>
@@ -8248,7 +8248,7 @@
       <c r="W139" s="58"/>
       <c r="X139" s="58"/>
     </row>
-    <row r="140" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="26">
         <v>7</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="26">
         <v>8</v>
       </c>
@@ -8326,7 +8326,7 @@
       <c r="W141" s="58"/>
       <c r="X141" s="58"/>
     </row>
-    <row r="142" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="26">
         <v>9</v>
       </c>
@@ -8372,7 +8372,7 @@
       <c r="W142" s="58"/>
       <c r="X142" s="58"/>
     </row>
-    <row r="143" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="26">
         <v>10</v>
       </c>
@@ -8418,7 +8418,7 @@
       <c r="W143" s="58"/>
       <c r="X143" s="58"/>
     </row>
-    <row r="144" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="26">
         <v>11</v>
       </c>
@@ -8464,19 +8464,19 @@
       <c r="W144" s="58"/>
       <c r="X144" s="58"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="92" t="s">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="90" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="93"/>
-      <c r="C145" s="93"/>
-      <c r="D145" s="93"/>
-      <c r="E145" s="93"/>
-      <c r="F145" s="93"/>
-      <c r="G145" s="93"/>
-      <c r="H145" s="93"/>
-      <c r="I145" s="93"/>
-      <c r="J145" s="94"/>
+      <c r="B145" s="91"/>
+      <c r="C145" s="91"/>
+      <c r="D145" s="91"/>
+      <c r="E145" s="91"/>
+      <c r="F145" s="91"/>
+      <c r="G145" s="91"/>
+      <c r="H145" s="91"/>
+      <c r="I145" s="91"/>
+      <c r="J145" s="92"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -8492,7 +8492,7 @@
       <c r="W145" s="58"/>
       <c r="X145" s="58"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="25">
         <v>1</v>
       </c>
@@ -8538,7 +8538,7 @@
       <c r="W146" s="58"/>
       <c r="X146" s="58"/>
     </row>
-    <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="25">
         <v>2</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148" s="25">
         <v>3</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="25">
         <v>4</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="25">
         <v>5</v>
       </c>
@@ -8682,7 +8682,7 @@
       <c r="Y150" s="58"/>
       <c r="Z150" s="58"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="25">
         <v>6</v>
       </c>
@@ -8730,7 +8730,7 @@
       <c r="Y151" s="58"/>
       <c r="Z151" s="58"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="25">
         <v>7</v>
       </c>
@@ -8778,7 +8778,7 @@
       <c r="Y152" s="58"/>
       <c r="Z152" s="58"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="25">
         <v>8</v>
       </c>
@@ -8826,7 +8826,7 @@
       <c r="Y153" s="58"/>
       <c r="Z153" s="58"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="25">
         <v>9</v>
       </c>
@@ -8874,7 +8874,7 @@
       <c r="Y154" s="58"/>
       <c r="Z154" s="58"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="25">
         <v>10</v>
       </c>
@@ -8922,19 +8922,19 @@
       <c r="Y155" s="58"/>
       <c r="Z155" s="58"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="86" t="s">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="89" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="86"/>
-      <c r="C156" s="86"/>
-      <c r="D156" s="86"/>
-      <c r="E156" s="86"/>
-      <c r="F156" s="86"/>
-      <c r="G156" s="86"/>
-      <c r="H156" s="86"/>
-      <c r="I156" s="86"/>
-      <c r="J156" s="86"/>
+      <c r="B156" s="89"/>
+      <c r="C156" s="89"/>
+      <c r="D156" s="89"/>
+      <c r="E156" s="89"/>
+      <c r="F156" s="89"/>
+      <c r="G156" s="89"/>
+      <c r="H156" s="89"/>
+      <c r="I156" s="89"/>
+      <c r="J156" s="89"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -8952,7 +8952,7 @@
       <c r="Y156" s="58"/>
       <c r="Z156" s="58"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="25">
         <v>1</v>
       </c>
@@ -9000,19 +9000,19 @@
       <c r="Y157" s="58"/>
       <c r="Z157" s="58"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="86" t="s">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="89" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="86"/>
-      <c r="C158" s="86"/>
-      <c r="D158" s="86"/>
-      <c r="E158" s="86"/>
-      <c r="F158" s="86"/>
-      <c r="G158" s="86"/>
-      <c r="H158" s="86"/>
-      <c r="I158" s="86"/>
-      <c r="J158" s="86"/>
+      <c r="B158" s="89"/>
+      <c r="C158" s="89"/>
+      <c r="D158" s="89"/>
+      <c r="E158" s="89"/>
+      <c r="F158" s="89"/>
+      <c r="G158" s="89"/>
+      <c r="H158" s="89"/>
+      <c r="I158" s="89"/>
+      <c r="J158" s="89"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -9030,7 +9030,7 @@
       <c r="Y158" s="58"/>
       <c r="Z158" s="58"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="67">
         <v>1</v>
       </c>
@@ -9078,7 +9078,7 @@
       <c r="Y159" s="58"/>
       <c r="Z159" s="58"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="68">
         <v>2</v>
       </c>
@@ -9126,7 +9126,7 @@
       <c r="Y160" s="58"/>
       <c r="Z160" s="58"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="68">
         <v>3</v>
       </c>
@@ -9174,7 +9174,7 @@
       <c r="Y161" s="58"/>
       <c r="Z161" s="58"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="68">
         <v>4</v>
       </c>
@@ -9222,7 +9222,7 @@
       <c r="Y162" s="58"/>
       <c r="Z162" s="58"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="68">
         <v>5</v>
       </c>
@@ -9270,7 +9270,7 @@
       <c r="Y163" s="58"/>
       <c r="Z163" s="58"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="68">
         <v>6</v>
       </c>
@@ -9318,7 +9318,7 @@
       <c r="Y164" s="58"/>
       <c r="Z164" s="58"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="68">
         <v>7</v>
       </c>
@@ -9366,7 +9366,7 @@
       <c r="Y165" s="58"/>
       <c r="Z165" s="58"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="68">
         <v>8</v>
       </c>
@@ -9414,7 +9414,7 @@
       <c r="Y166" s="58"/>
       <c r="Z166" s="58"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="67">
         <v>9</v>
       </c>
@@ -9462,7 +9462,7 @@
       <c r="Y167" s="58"/>
       <c r="Z167" s="58"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="68">
         <v>10</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="67">
         <v>11</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="68">
         <v>12</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="67">
         <v>13</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="68">
         <v>14</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="67">
         <v>15</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="68">
         <v>16</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="67">
         <v>17</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="68">
         <v>18</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="68">
         <v>9</v>
       </c>
@@ -9782,21 +9782,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="86" t="s">
+    <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="B178" s="86"/>
-      <c r="C178" s="86"/>
-      <c r="D178" s="91"/>
-      <c r="E178" s="86"/>
-      <c r="F178" s="86"/>
-      <c r="G178" s="86"/>
-      <c r="H178" s="86"/>
-      <c r="I178" s="86"/>
-      <c r="J178" s="86"/>
-    </row>
-    <row r="179" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="89"/>
+      <c r="C178" s="89"/>
+      <c r="D178" s="88"/>
+      <c r="E178" s="89"/>
+      <c r="F178" s="89"/>
+      <c r="G178" s="89"/>
+      <c r="H178" s="89"/>
+      <c r="I178" s="89"/>
+      <c r="J178" s="89"/>
+    </row>
+    <row r="179" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="68">
         <v>1</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="68">
         <v>2</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="68">
         <v>3</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="68">
         <v>4</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="68">
         <v>5</v>
       </c>
@@ -9956,21 +9956,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="91" t="s">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" s="88" t="s">
         <v>647</v>
       </c>
-      <c r="B184" s="91"/>
-      <c r="C184" s="91"/>
-      <c r="D184" s="91"/>
-      <c r="E184" s="91"/>
-      <c r="F184" s="91"/>
-      <c r="G184" s="91"/>
-      <c r="H184" s="91"/>
-      <c r="I184" s="91"/>
-      <c r="J184" s="91"/>
-    </row>
-    <row r="185" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="88"/>
+      <c r="C184" s="88"/>
+      <c r="D184" s="88"/>
+      <c r="E184" s="88"/>
+      <c r="F184" s="88"/>
+      <c r="G184" s="88"/>
+      <c r="H184" s="88"/>
+      <c r="I184" s="88"/>
+      <c r="J184" s="88"/>
+    </row>
+    <row r="185" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="48">
         <v>1</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="48">
         <v>2</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="48">
         <v>3</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="48">
         <v>4</v>
       </c>
@@ -10098,21 +10098,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" s="91" t="s">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" s="88" t="s">
         <v>660</v>
       </c>
-      <c r="B189" s="91"/>
-      <c r="C189" s="91"/>
-      <c r="D189" s="91"/>
-      <c r="E189" s="91"/>
-      <c r="F189" s="91"/>
-      <c r="G189" s="91"/>
-      <c r="H189" s="91"/>
-      <c r="I189" s="91"/>
-      <c r="J189" s="91"/>
-    </row>
-    <row r="190" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="88"/>
+      <c r="C189" s="88"/>
+      <c r="D189" s="88"/>
+      <c r="E189" s="88"/>
+      <c r="F189" s="88"/>
+      <c r="G189" s="88"/>
+      <c r="H189" s="88"/>
+      <c r="I189" s="88"/>
+      <c r="J189" s="88"/>
+    </row>
+    <row r="190" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="48">
         <v>1</v>
       </c>
@@ -10144,21 +10144,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A191" s="91" t="s">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191" s="88" t="s">
         <v>666</v>
       </c>
-      <c r="B191" s="91"/>
-      <c r="C191" s="91"/>
-      <c r="D191" s="91"/>
-      <c r="E191" s="91"/>
-      <c r="F191" s="91"/>
-      <c r="G191" s="91"/>
-      <c r="H191" s="91"/>
-      <c r="I191" s="91"/>
-      <c r="J191" s="91"/>
-    </row>
-    <row r="192" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="88"/>
+      <c r="C191" s="88"/>
+      <c r="D191" s="88"/>
+      <c r="E191" s="88"/>
+      <c r="F191" s="88"/>
+      <c r="G191" s="88"/>
+      <c r="H191" s="88"/>
+      <c r="I191" s="88"/>
+      <c r="J191" s="88"/>
+    </row>
+    <row r="192" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="48">
         <v>1</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="48">
         <v>2</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="48">
         <v>3</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="48">
         <v>4</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="48">
         <v>5</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="48">
         <v>6</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="48">
         <v>7</v>
       </c>
@@ -10384,6 +10384,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A133:J133"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A37:J37"/>
     <mergeCell ref="A55:J55"/>
@@ -10400,7 +10401,6 @@
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A121:J121"/>
     <mergeCell ref="A123:J123"/>
-    <mergeCell ref="A133:J133"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -10500,33 +10500,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
   <dimension ref="A1:AD199"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+    <sheetView tabSelected="1" topLeftCell="U175" workbookViewId="0">
+      <selection activeCell="AF183" sqref="AF183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
-    <col min="12" max="12" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="12" max="12" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="71.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="71.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
     <col min="24" max="25" width="29" customWidth="1"/>
+    <col min="26" max="26" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.44140625" customWidth="1"/>
+    <col min="29" max="29" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
@@ -10618,7 +10623,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>23</v>
       </c>
@@ -10698,7 +10703,7 @@
       <c r="AC2" s="28"/>
       <c r="AD2" s="28"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>25</v>
       </c>
@@ -10778,7 +10783,7 @@
       <c r="AC3" s="28"/>
       <c r="AD3" s="28"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>28</v>
       </c>
@@ -10858,7 +10863,7 @@
       <c r="AC4" s="28"/>
       <c r="AD4" s="28"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>58</v>
       </c>
@@ -10938,7 +10943,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>69</v>
       </c>
@@ -11018,7 +11023,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>73</v>
       </c>
@@ -11098,7 +11103,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
     </row>
-    <row r="8" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>77</v>
       </c>
@@ -11178,7 +11183,7 @@
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>79</v>
       </c>
@@ -11258,7 +11263,7 @@
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>80</v>
       </c>
@@ -11338,7 +11343,7 @@
       <c r="AC10" s="28"/>
       <c r="AD10" s="28"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>81</v>
       </c>
@@ -11418,7 +11423,7 @@
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
         <v>83</v>
       </c>
@@ -11498,7 +11503,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>84</v>
       </c>
@@ -11578,7 +11583,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>85</v>
       </c>
@@ -11658,7 +11663,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>86</v>
       </c>
@@ -11738,7 +11743,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>87</v>
       </c>
@@ -11818,7 +11823,7 @@
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
         <v>88</v>
       </c>
@@ -11898,7 +11903,7 @@
       <c r="AC17" s="28"/>
       <c r="AD17" s="28"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>89</v>
       </c>
@@ -11978,7 +11983,7 @@
       <c r="AC18" s="28"/>
       <c r="AD18" s="28"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
         <v>91</v>
       </c>
@@ -12058,7 +12063,7 @@
       <c r="AC19" s="28"/>
       <c r="AD19" s="28"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>93</v>
       </c>
@@ -12138,7 +12143,7 @@
       <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
         <v>94</v>
       </c>
@@ -12218,7 +12223,7 @@
       <c r="AC21" s="28"/>
       <c r="AD21" s="28"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
         <v>135</v>
       </c>
@@ -12298,7 +12303,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
         <v>140</v>
       </c>
@@ -12378,7 +12383,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="53" t="s">
         <v>63</v>
       </c>
@@ -12458,7 +12463,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="46" t="s">
         <v>144</v>
       </c>
@@ -12538,7 +12543,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="46" t="s">
         <v>145</v>
       </c>
@@ -12618,7 +12623,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="46" t="s">
         <v>146</v>
       </c>
@@ -12698,7 +12703,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="46" t="s">
         <v>147</v>
       </c>
@@ -12778,7 +12783,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="s">
         <v>148</v>
       </c>
@@ -12858,7 +12863,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="46" t="s">
         <v>150</v>
       </c>
@@ -12938,7 +12943,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
         <v>151</v>
       </c>
@@ -13018,7 +13023,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>152</v>
       </c>
@@ -13098,7 +13103,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
         <v>153</v>
       </c>
@@ -13178,7 +13183,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
         <v>154</v>
       </c>
@@ -13258,7 +13263,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="s">
         <v>155</v>
       </c>
@@ -13338,7 +13343,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
         <v>64</v>
       </c>
@@ -13418,7 +13423,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="54" t="s">
         <v>175</v>
       </c>
@@ -13500,7 +13505,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>179</v>
       </c>
@@ -13582,7 +13587,7 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>182</v>
       </c>
@@ -13664,7 +13669,7 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>185</v>
       </c>
@@ -13746,7 +13751,7 @@
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>188</v>
       </c>
@@ -13828,7 +13833,7 @@
       <c r="AC41" s="28"/>
       <c r="AD41" s="28"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>190</v>
       </c>
@@ -13910,7 +13915,7 @@
       <c r="AC42" s="28"/>
       <c r="AD42" s="28"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>193</v>
       </c>
@@ -13992,7 +13997,7 @@
       <c r="AC43" s="28"/>
       <c r="AD43" s="28"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>196</v>
       </c>
@@ -14074,7 +14079,7 @@
       <c r="AC44" s="28"/>
       <c r="AD44" s="28"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>198</v>
       </c>
@@ -14156,7 +14161,7 @@
       <c r="AC45" s="28"/>
       <c r="AD45" s="28"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
         <v>200</v>
       </c>
@@ -14238,7 +14243,7 @@
       <c r="AC46" s="28"/>
       <c r="AD46" s="28"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>202</v>
       </c>
@@ -14320,7 +14325,7 @@
       <c r="AC47" s="28"/>
       <c r="AD47" s="28"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="47" t="s">
         <v>204</v>
       </c>
@@ -14402,7 +14407,7 @@
       <c r="AC48" s="28"/>
       <c r="AD48" s="28"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>206</v>
       </c>
@@ -14484,7 +14489,7 @@
       <c r="AC49" s="28"/>
       <c r="AD49" s="28"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>208</v>
       </c>
@@ -14566,7 +14571,7 @@
       <c r="AC50" s="28"/>
       <c r="AD50" s="28"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>210</v>
       </c>
@@ -14648,7 +14653,7 @@
       <c r="AC51" s="28"/>
       <c r="AD51" s="28"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
         <v>212</v>
       </c>
@@ -14730,7 +14735,7 @@
       <c r="AC52" s="28"/>
       <c r="AD52" s="28"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>700</v>
       </c>
@@ -14812,7 +14817,7 @@
       <c r="AC53" s="28"/>
       <c r="AD53" s="28"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="55" t="s">
         <v>213</v>
       </c>
@@ -14894,7 +14899,7 @@
       <c r="AC54" s="28"/>
       <c r="AD54" s="28"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="48" t="s">
         <v>214</v>
       </c>
@@ -14976,7 +14981,7 @@
       <c r="AC55" s="28"/>
       <c r="AD55" s="28"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>215</v>
       </c>
@@ -15058,7 +15063,7 @@
       <c r="AC56" s="28"/>
       <c r="AD56" s="28"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="48" t="s">
         <v>216</v>
       </c>
@@ -15140,7 +15145,7 @@
       <c r="AC57" s="28"/>
       <c r="AD57" s="28"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
         <v>217</v>
       </c>
@@ -15222,7 +15227,7 @@
       <c r="AC58" s="28"/>
       <c r="AD58" s="28"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="48" t="s">
         <v>218</v>
       </c>
@@ -15304,7 +15309,7 @@
       <c r="AC59" s="28"/>
       <c r="AD59" s="28"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="48" t="s">
         <v>219</v>
       </c>
@@ -15386,7 +15391,7 @@
       <c r="AC60" s="28"/>
       <c r="AD60" s="28"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="48" t="s">
         <v>220</v>
       </c>
@@ -15468,7 +15473,7 @@
       <c r="AC61" s="28"/>
       <c r="AD61" s="28"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>221</v>
       </c>
@@ -15550,7 +15555,7 @@
       <c r="AC62" s="28"/>
       <c r="AD62" s="28"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="51" t="s">
         <v>222</v>
       </c>
@@ -15632,7 +15637,7 @@
       <c r="AC63" s="28"/>
       <c r="AD63" s="28"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="56" t="s">
         <v>249</v>
       </c>
@@ -15714,7 +15719,7 @@
       <c r="AC64" s="28"/>
       <c r="AD64" s="28"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="48" t="s">
         <v>253</v>
       </c>
@@ -15796,7 +15801,7 @@
       <c r="AC65" s="28"/>
       <c r="AD65" s="28"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="48" t="s">
         <v>256</v>
       </c>
@@ -15878,7 +15883,7 @@
       <c r="AC66" s="28"/>
       <c r="AD66" s="28"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" s="48" t="s">
         <v>259</v>
       </c>
@@ -15960,7 +15965,7 @@
       <c r="AC67" s="28"/>
       <c r="AD67" s="28"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" s="48" t="s">
         <v>262</v>
       </c>
@@ -16042,7 +16047,7 @@
       <c r="AC68" s="28"/>
       <c r="AD68" s="28"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" s="48" t="s">
         <v>265</v>
       </c>
@@ -16124,7 +16129,7 @@
       <c r="AC69" s="28"/>
       <c r="AD69" s="28"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>268</v>
       </c>
@@ -16206,7 +16211,7 @@
       <c r="AC70" s="28"/>
       <c r="AD70" s="28"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" s="48" t="s">
         <v>271</v>
       </c>
@@ -16288,7 +16293,7 @@
       <c r="AC71" s="28"/>
       <c r="AD71" s="28"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
         <v>274</v>
       </c>
@@ -16370,7 +16375,7 @@
       <c r="AC72" s="28"/>
       <c r="AD72" s="28"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" s="48" t="s">
         <v>277</v>
       </c>
@@ -16452,7 +16457,7 @@
       <c r="AC73" s="28"/>
       <c r="AD73" s="28"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" s="51" t="s">
         <v>280</v>
       </c>
@@ -16536,7 +16541,7 @@
       <c r="AC74" s="28"/>
       <c r="AD74" s="28"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75" s="62" t="s">
         <v>282</v>
       </c>
@@ -16620,7 +16625,7 @@
       <c r="AC75" s="28"/>
       <c r="AD75" s="28"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
         <v>285</v>
       </c>
@@ -16704,7 +16709,7 @@
       <c r="AC76" s="28"/>
       <c r="AD76" s="28"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" s="48" t="s">
         <v>287</v>
       </c>
@@ -16788,7 +16793,7 @@
       <c r="AC77" s="28"/>
       <c r="AD77" s="28"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" s="48" t="s">
         <v>289</v>
       </c>
@@ -16872,7 +16877,7 @@
       <c r="AC78" s="28"/>
       <c r="AD78" s="28"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79" s="48" t="s">
         <v>292</v>
       </c>
@@ -16956,7 +16961,7 @@
       <c r="AC79" s="28"/>
       <c r="AD79" s="28"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80" s="48" t="s">
         <v>295</v>
       </c>
@@ -17040,7 +17045,7 @@
       <c r="AC80" s="28"/>
       <c r="AD80" s="28"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" s="48" t="s">
         <v>298</v>
       </c>
@@ -17124,7 +17129,7 @@
       <c r="AC81" s="28"/>
       <c r="AD81" s="28"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82" s="48" t="s">
         <v>301</v>
       </c>
@@ -17208,7 +17213,7 @@
       <c r="AC82" s="28"/>
       <c r="AD82" s="28"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
         <v>304</v>
       </c>
@@ -17292,7 +17297,7 @@
       <c r="AC83" s="28"/>
       <c r="AD83" s="28"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" s="48" t="s">
         <v>306</v>
       </c>
@@ -17376,7 +17381,7 @@
       <c r="AC84" s="28"/>
       <c r="AD84" s="28"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" s="48" t="s">
         <v>308</v>
       </c>
@@ -17460,7 +17465,7 @@
       <c r="AC85" s="28"/>
       <c r="AD85" s="28"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>310</v>
       </c>
@@ -17544,7 +17549,7 @@
       <c r="AC86" s="28"/>
       <c r="AD86" s="28"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87" s="48" t="s">
         <v>313</v>
       </c>
@@ -17628,7 +17633,7 @@
       <c r="AC87" s="28"/>
       <c r="AD87" s="28"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88" s="48" t="s">
         <v>316</v>
       </c>
@@ -17712,7 +17717,7 @@
       <c r="AC88" s="28"/>
       <c r="AD88" s="28"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89" s="48" t="s">
         <v>319</v>
       </c>
@@ -17796,7 +17801,7 @@
       <c r="AC89" s="28"/>
       <c r="AD89" s="28"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90" s="48" t="s">
         <v>322</v>
       </c>
@@ -17880,7 +17885,7 @@
       <c r="AC90" s="28"/>
       <c r="AD90" s="28"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91" s="48" t="s">
         <v>324</v>
       </c>
@@ -17964,7 +17969,7 @@
       <c r="AC91" s="28"/>
       <c r="AD91" s="28"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92" s="48" t="s">
         <v>327</v>
       </c>
@@ -18048,7 +18053,7 @@
       <c r="AC92" s="28"/>
       <c r="AD92" s="28"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93" s="48" t="s">
         <v>330</v>
       </c>
@@ -18132,7 +18137,7 @@
       <c r="AC93" s="28"/>
       <c r="AD93" s="28"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94" s="48" t="s">
         <v>332</v>
       </c>
@@ -18216,7 +18221,7 @@
       <c r="AC94" s="28"/>
       <c r="AD94" s="28"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" s="48" t="s">
         <v>334</v>
       </c>
@@ -18300,7 +18305,7 @@
       <c r="AC95" s="28"/>
       <c r="AD95" s="28"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A96" s="48" t="s">
         <v>336</v>
       </c>
@@ -18384,7 +18389,7 @@
       <c r="AC96" s="28"/>
       <c r="AD96" s="28"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97" s="48" t="s">
         <v>338</v>
       </c>
@@ -18468,7 +18473,7 @@
       <c r="AC97" s="28"/>
       <c r="AD97" s="28"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98" s="48" t="s">
         <v>340</v>
       </c>
@@ -18552,7 +18557,7 @@
       <c r="AC98" s="28"/>
       <c r="AD98" s="28"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A99" s="48" t="s">
         <v>342</v>
       </c>
@@ -18636,7 +18641,7 @@
       <c r="AC99" s="28"/>
       <c r="AD99" s="28"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A100" s="48" t="s">
         <v>344</v>
       </c>
@@ -18720,7 +18725,7 @@
       <c r="AC100" s="28"/>
       <c r="AD100" s="28"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A101" s="48" t="s">
         <v>597</v>
       </c>
@@ -18804,7 +18809,7 @@
       <c r="AC101" s="28"/>
       <c r="AD101" s="28"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A102" s="48" t="s">
         <v>348</v>
       </c>
@@ -18888,7 +18893,7 @@
       <c r="AC102" s="28"/>
       <c r="AD102" s="28"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A103" s="48" t="s">
         <v>352</v>
       </c>
@@ -18972,7 +18977,7 @@
       <c r="AC103" s="28"/>
       <c r="AD103" s="28"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A104" s="48" t="s">
         <v>355</v>
       </c>
@@ -19056,7 +19061,7 @@
       <c r="AC104" s="28"/>
       <c r="AD104" s="28"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A105" s="48" t="s">
         <v>358</v>
       </c>
@@ -19140,7 +19145,7 @@
       <c r="AC105" s="28"/>
       <c r="AD105" s="28"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A106" s="48" t="s">
         <v>361</v>
       </c>
@@ -19224,7 +19229,7 @@
       <c r="AC106" s="28"/>
       <c r="AD106" s="28"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A107" s="48" t="s">
         <v>364</v>
       </c>
@@ -19308,7 +19313,7 @@
       <c r="AC107" s="28"/>
       <c r="AD107" s="28"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A108" s="48" t="s">
         <v>367</v>
       </c>
@@ -19392,7 +19397,7 @@
       <c r="AC108" s="28"/>
       <c r="AD108" s="28"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A109" s="48" t="s">
         <v>369</v>
       </c>
@@ -19476,7 +19481,7 @@
       <c r="AC109" s="28"/>
       <c r="AD109" s="28"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A110" s="48" t="s">
         <v>371</v>
       </c>
@@ -19560,7 +19565,7 @@
       <c r="AC110" s="28"/>
       <c r="AD110" s="28"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A111" s="48" t="s">
         <v>598</v>
       </c>
@@ -19644,7 +19649,7 @@
       <c r="AC111" s="28"/>
       <c r="AD111" s="28"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A112" s="48" t="s">
         <v>703</v>
       </c>
@@ -19728,7 +19733,7 @@
       <c r="AC112" s="28"/>
       <c r="AD112" s="28"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A113" s="48" t="s">
         <v>706</v>
       </c>
@@ -19812,7 +19817,7 @@
       <c r="AC113" s="28"/>
       <c r="AD113" s="28"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A114" s="48" t="s">
         <v>709</v>
       </c>
@@ -19896,7 +19901,7 @@
       <c r="AC114" s="28"/>
       <c r="AD114" s="28"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A115" s="48" t="s">
         <v>712</v>
       </c>
@@ -19980,7 +19985,7 @@
       <c r="AC115" s="28"/>
       <c r="AD115" s="28"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A116" s="48" t="s">
         <v>378</v>
       </c>
@@ -20064,7 +20069,7 @@
       <c r="AC116" s="28"/>
       <c r="AD116" s="28"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A117" s="48" t="s">
         <v>383</v>
       </c>
@@ -20148,7 +20153,7 @@
       <c r="AC117" s="28"/>
       <c r="AD117" s="28"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A118" s="48" t="s">
         <v>397</v>
       </c>
@@ -20232,7 +20237,7 @@
       <c r="AC118" s="28"/>
       <c r="AD118" s="28"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A119" s="48" t="s">
         <v>399</v>
       </c>
@@ -20316,7 +20321,7 @@
       <c r="AC119" s="28"/>
       <c r="AD119" s="28"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A120" s="48" t="s">
         <v>400</v>
       </c>
@@ -20400,7 +20405,7 @@
       <c r="AC120" s="28"/>
       <c r="AD120" s="28"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A121" s="48" t="s">
         <v>401</v>
       </c>
@@ -20484,7 +20489,7 @@
       <c r="AC121" s="28"/>
       <c r="AD121" s="28"/>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A122" s="48" t="s">
         <v>402</v>
       </c>
@@ -20568,7 +20573,7 @@
       <c r="AC122" s="28"/>
       <c r="AD122" s="28"/>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A123" s="48" t="s">
         <v>403</v>
       </c>
@@ -20652,7 +20657,7 @@
       <c r="AC123" s="28"/>
       <c r="AD123" s="28"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A124" s="48" t="s">
         <v>405</v>
       </c>
@@ -20736,7 +20741,7 @@
       <c r="AC124" s="28"/>
       <c r="AD124" s="28"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A125" s="48" t="s">
         <v>407</v>
       </c>
@@ -20820,7 +20825,7 @@
       <c r="AC125" s="28"/>
       <c r="AD125" s="28"/>
     </row>
-    <row r="126" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A126" s="62" t="s">
         <v>413</v>
       </c>
@@ -20904,7 +20909,7 @@
       <c r="AC126" s="28"/>
       <c r="AD126" s="28"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A127" s="48" t="s">
         <v>417</v>
       </c>
@@ -20988,7 +20993,7 @@
       <c r="AC127" s="28"/>
       <c r="AD127" s="28"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A128" s="48" t="s">
         <v>420</v>
       </c>
@@ -21072,7 +21077,7 @@
       <c r="AC128" s="28"/>
       <c r="AD128" s="28"/>
     </row>
-    <row r="129" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A129" s="48" t="s">
         <v>422</v>
       </c>
@@ -21156,7 +21161,7 @@
       <c r="AC129" s="28"/>
       <c r="AD129" s="28"/>
     </row>
-    <row r="130" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A130" s="48" t="s">
         <v>424</v>
       </c>
@@ -21240,7 +21245,7 @@
       <c r="AC130" s="28"/>
       <c r="AD130" s="28"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A131" s="48" t="s">
         <v>427</v>
       </c>
@@ -21324,7 +21329,7 @@
       <c r="AC131" s="28"/>
       <c r="AD131" s="28"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A132" s="48" t="s">
         <v>430</v>
       </c>
@@ -21408,7 +21413,7 @@
       <c r="AC132" s="28"/>
       <c r="AD132" s="28"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A133" s="48" t="s">
         <v>433</v>
       </c>
@@ -21492,7 +21497,7 @@
       <c r="AC133" s="28"/>
       <c r="AD133" s="28"/>
     </row>
-    <row r="134" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A134" s="48" t="s">
         <v>436</v>
       </c>
@@ -21576,7 +21581,7 @@
       <c r="AC134" s="28"/>
       <c r="AD134" s="28"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A135" s="48" t="s">
         <v>438</v>
       </c>
@@ -21660,7 +21665,7 @@
       <c r="AC135" s="28"/>
       <c r="AD135" s="28"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A136" s="48" t="s">
         <v>716</v>
       </c>
@@ -21744,7 +21749,7 @@
       <c r="AC136" s="28"/>
       <c r="AD136" s="28"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A137" s="48" t="s">
         <v>397</v>
       </c>
@@ -21828,7 +21833,7 @@
       <c r="AC137" s="28"/>
       <c r="AD137" s="28"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A138" s="48" t="s">
         <v>399</v>
       </c>
@@ -21912,7 +21917,7 @@
       <c r="AC138" s="28"/>
       <c r="AD138" s="28"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A139" s="48" t="s">
         <v>400</v>
       </c>
@@ -21996,7 +22001,7 @@
       <c r="AC139" s="28"/>
       <c r="AD139" s="28"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A140" s="48" t="s">
         <v>401</v>
       </c>
@@ -22080,7 +22085,7 @@
       <c r="AC140" s="28"/>
       <c r="AD140" s="28"/>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A141" s="48" t="s">
         <v>402</v>
       </c>
@@ -22164,7 +22169,7 @@
       <c r="AC141" s="28"/>
       <c r="AD141" s="28"/>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A142" s="48" t="s">
         <v>403</v>
       </c>
@@ -22248,7 +22253,7 @@
       <c r="AC142" s="28"/>
       <c r="AD142" s="28"/>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A143" s="48" t="s">
         <v>405</v>
       </c>
@@ -22332,7 +22337,7 @@
       <c r="AC143" s="28"/>
       <c r="AD143" s="28"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A144" s="48" t="s">
         <v>442</v>
       </c>
@@ -22416,7 +22421,7 @@
       <c r="AC144" s="28"/>
       <c r="AD144" s="28"/>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A145" s="48" t="s">
         <v>446</v>
       </c>
@@ -22500,7 +22505,7 @@
       <c r="AC145" s="28"/>
       <c r="AD145" s="28"/>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A146" s="48" t="s">
         <v>449</v>
       </c>
@@ -22584,7 +22589,7 @@
       <c r="AC146" s="28"/>
       <c r="AD146" s="28"/>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A147" s="48" t="s">
         <v>451</v>
       </c>
@@ -22668,7 +22673,7 @@
       <c r="AC147" s="28"/>
       <c r="AD147" s="28"/>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A148" s="48" t="s">
         <v>454</v>
       </c>
@@ -22752,7 +22757,7 @@
       <c r="AC148" s="28"/>
       <c r="AD148" s="28"/>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A149" s="48" t="s">
         <v>457</v>
       </c>
@@ -22836,7 +22841,7 @@
       <c r="AC149" s="28"/>
       <c r="AD149" s="28"/>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A150" s="48" t="s">
         <v>460</v>
       </c>
@@ -22920,7 +22925,7 @@
       <c r="AC150" s="28"/>
       <c r="AD150" s="28"/>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A151" s="48" t="s">
         <v>463</v>
       </c>
@@ -23004,7 +23009,7 @@
       <c r="AC151" s="28"/>
       <c r="AD151" s="28"/>
     </row>
-    <row r="152" spans="1:30" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:30" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A152" s="48" t="s">
         <v>466</v>
       </c>
@@ -23088,7 +23093,7 @@
       <c r="AC152" s="28"/>
       <c r="AD152" s="28"/>
     </row>
-    <row r="153" spans="1:30" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:30" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A153" s="48" t="s">
         <v>469</v>
       </c>
@@ -23172,7 +23177,7 @@
       <c r="AC153" s="28"/>
       <c r="AD153" s="28"/>
     </row>
-    <row r="154" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="48" t="s">
         <v>509</v>
       </c>
@@ -23256,7 +23261,7 @@
       <c r="AC154" s="28"/>
       <c r="AD154" s="28"/>
     </row>
-    <row r="155" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="66" t="s">
         <v>539</v>
       </c>
@@ -23340,7 +23345,7 @@
       <c r="AC155" s="28"/>
       <c r="AD155" s="28"/>
     </row>
-    <row r="156" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="70" t="s">
         <v>543</v>
       </c>
@@ -23424,7 +23429,7 @@
       <c r="AC156" s="28"/>
       <c r="AD156" s="28"/>
     </row>
-    <row r="157" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="66" t="s">
         <v>546</v>
       </c>
@@ -23508,7 +23513,7 @@
       <c r="AC157" s="28"/>
       <c r="AD157" s="28"/>
     </row>
-    <row r="158" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="70" t="s">
         <v>549</v>
       </c>
@@ -23592,7 +23597,7 @@
       <c r="AC158" s="28"/>
       <c r="AD158" s="28"/>
     </row>
-    <row r="159" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="66" t="s">
         <v>551</v>
       </c>
@@ -23676,7 +23681,7 @@
       <c r="AC159" s="28"/>
       <c r="AD159" s="28"/>
     </row>
-    <row r="160" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="70" t="s">
         <v>553</v>
       </c>
@@ -23760,7 +23765,7 @@
       <c r="AC160" s="28"/>
       <c r="AD160" s="28"/>
     </row>
-    <row r="161" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="66" t="s">
         <v>555</v>
       </c>
@@ -23844,7 +23849,7 @@
       <c r="AC161" s="28"/>
       <c r="AD161" s="28"/>
     </row>
-    <row r="162" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="70" t="s">
         <v>557</v>
       </c>
@@ -23928,7 +23933,7 @@
       <c r="AC162" s="28"/>
       <c r="AD162" s="28"/>
     </row>
-    <row r="163" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="66" t="s">
         <v>559</v>
       </c>
@@ -24012,7 +24017,7 @@
       <c r="AC163" s="28"/>
       <c r="AD163" s="28"/>
     </row>
-    <row r="164" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="70" t="s">
         <v>562</v>
       </c>
@@ -24096,7 +24101,7 @@
       <c r="AC164" s="28"/>
       <c r="AD164" s="28"/>
     </row>
-    <row r="165" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="66" t="s">
         <v>565</v>
       </c>
@@ -24180,7 +24185,7 @@
       <c r="AC165" s="28"/>
       <c r="AD165" s="28"/>
     </row>
-    <row r="166" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="70" t="s">
         <v>568</v>
       </c>
@@ -24264,7 +24269,7 @@
       <c r="AC166" s="28"/>
       <c r="AD166" s="28"/>
     </row>
-    <row r="167" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="66" t="s">
         <v>571</v>
       </c>
@@ -24348,7 +24353,7 @@
       <c r="AC167" s="28"/>
       <c r="AD167" s="28"/>
     </row>
-    <row r="168" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="70" t="s">
         <v>574</v>
       </c>
@@ -24432,7 +24437,7 @@
       <c r="AC168" s="28"/>
       <c r="AD168" s="28"/>
     </row>
-    <row r="169" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="66" t="s">
         <v>577</v>
       </c>
@@ -24516,7 +24521,7 @@
       <c r="AC169" s="28"/>
       <c r="AD169" s="28"/>
     </row>
-    <row r="170" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="66" t="s">
         <v>579</v>
       </c>
@@ -24600,7 +24605,7 @@
       <c r="AC170" s="28"/>
       <c r="AD170" s="28"/>
     </row>
-    <row r="171" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="66" t="s">
         <v>581</v>
       </c>
@@ -24684,7 +24689,7 @@
       <c r="AC171" s="28"/>
       <c r="AD171" s="28"/>
     </row>
-    <row r="172" spans="1:30" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:30" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="66" t="s">
         <v>584</v>
       </c>
@@ -24768,7 +24773,7 @@
       <c r="AC172" s="28"/>
       <c r="AD172" s="28"/>
     </row>
-    <row r="173" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="76"/>
       <c r="B173" s="48"/>
       <c r="C173" s="36"/>
@@ -24812,7 +24817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:30" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="70" t="s">
         <v>601</v>
       </c>
@@ -24904,7 +24909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="70" t="s">
         <v>605</v>
       </c>
@@ -24996,7 +25001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="70" t="s">
         <v>608</v>
       </c>
@@ -25088,7 +25093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:30" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:30" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="70" t="s">
         <v>609</v>
       </c>
@@ -25180,7 +25185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="70" t="s">
         <v>613</v>
       </c>
@@ -25272,7 +25277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:30" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="70" t="s">
         <v>614</v>
       </c>
@@ -25364,7 +25369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="70" t="s">
         <v>615</v>
       </c>
@@ -25456,7 +25461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="70" t="s">
         <v>621</v>
       </c>
@@ -25548,7 +25553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="70" t="s">
         <v>619</v>
       </c>
@@ -25640,7 +25645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="70" t="s">
         <v>628</v>
       </c>
@@ -25732,7 +25737,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="184" spans="1:30" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:30" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="70" t="s">
         <v>632</v>
       </c>
@@ -25824,7 +25829,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="185" spans="1:30" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:30" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="70" t="s">
         <v>638</v>
       </c>
@@ -25916,7 +25921,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="186" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="70" t="s">
         <v>639</v>
       </c>
@@ -26008,7 +26013,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="187" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="70" t="s">
         <v>645</v>
       </c>
@@ -26100,7 +26105,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="188" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="70" t="s">
         <v>649</v>
       </c>
@@ -26192,7 +26197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="70" t="s">
         <v>651</v>
       </c>
@@ -26284,7 +26289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="70" t="s">
         <v>657</v>
       </c>
@@ -26376,7 +26381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="70" t="s">
         <v>658</v>
       </c>
@@ -26468,7 +26473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:30" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="70" t="s">
         <v>663</v>
       </c>
@@ -26560,7 +26565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="70" t="s">
         <v>665</v>
       </c>
@@ -26652,7 +26657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="70" t="s">
         <v>671</v>
       </c>
@@ -26744,7 +26749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="70" t="s">
         <v>674</v>
       </c>
@@ -26836,7 +26841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="70" t="s">
         <v>676</v>
       </c>
@@ -26928,7 +26933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="70" t="s">
         <v>681</v>
       </c>
@@ -27020,7 +27025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="70" t="s">
         <v>686</v>
       </c>
@@ -27112,7 +27117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="70" t="s">
         <v>687</v>
       </c>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjith\git\ZlaataQAsever0001\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0056FB-7EDA-4A52-A06F-3E0E34664AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0FA9B1-C8A6-4858-95FB-0FE536211264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6802" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6875" uniqueCount="745">
   <si>
     <t>S.No</t>
   </si>
@@ -2210,6 +2210,57 @@
   </si>
   <si>
     <t>Verify Checkout page calculation</t>
+  </si>
+  <si>
+    <t>Admin Page</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_01</t>
+  </si>
+  <si>
+    <t>Verify banner upload on home page section</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_02</t>
+  </si>
+  <si>
+    <t>Verify Top Selling Section Product Display on Homepage.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_03</t>
+  </si>
+  <si>
+    <t>Verify New Arrivals Section Product Display on Homepage.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_04</t>
+  </si>
+  <si>
+    <t>Verify Category Section Display on Website.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_05</t>
+  </si>
+  <si>
+    <t>Verify bulk product upload and visibility.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_06</t>
+  </si>
+  <si>
+    <t>Remove product SKU from Top Selling and verify on User App.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_07</t>
+  </si>
+  <si>
+    <t>Verify all uploaded Special Timer products appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_08</t>
+  </si>
+  <si>
+    <t>Verify uploaded categories appear in Admin and User App.</t>
   </si>
 </sst>
 </file>
@@ -2637,7 +2688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2840,6 +2891,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2861,9 +2918,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2876,7 +2930,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3681,26 +3741,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z198"/>
+  <dimension ref="A1:Z207"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="118.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="118.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3732,7 +3792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -3764,7 +3824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -3796,7 +3856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -3828,7 +3888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -3860,7 +3920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -3892,7 +3952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -3924,7 +3984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -3956,7 +4016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -3988,7 +4048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>9</v>
       </c>
@@ -4020,7 +4080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>10</v>
       </c>
@@ -4052,7 +4112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>11</v>
       </c>
@@ -4084,7 +4144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>12</v>
       </c>
@@ -4116,7 +4176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>13</v>
       </c>
@@ -4148,7 +4208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>14</v>
       </c>
@@ -4180,7 +4240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>15</v>
       </c>
@@ -4212,7 +4272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>16</v>
       </c>
@@ -4244,7 +4304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>17</v>
       </c>
@@ -4276,7 +4336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>18</v>
       </c>
@@ -4308,7 +4368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>19</v>
       </c>
@@ -4340,7 +4400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>20</v>
       </c>
@@ -4372,7 +4432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>21</v>
       </c>
@@ -4404,7 +4464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="45">
         <v>22</v>
       </c>
@@ -4436,21 +4496,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="82" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="84"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="86"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>1</v>
       </c>
@@ -4482,7 +4542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>2</v>
       </c>
@@ -4514,7 +4574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -4546,7 +4606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>4</v>
       </c>
@@ -4578,7 +4638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>5</v>
       </c>
@@ -4610,7 +4670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>6</v>
       </c>
@@ -4642,7 +4702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>7</v>
       </c>
@@ -4674,7 +4734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>8</v>
       </c>
@@ -4706,7 +4766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>9</v>
       </c>
@@ -4738,7 +4798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>10</v>
       </c>
@@ -4770,7 +4830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>11</v>
       </c>
@@ -4802,7 +4862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>12</v>
       </c>
@@ -4834,21 +4894,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="85" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="87"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="89"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>1</v>
       </c>
@@ -4880,7 +4940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>2</v>
       </c>
@@ -4912,7 +4972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>3</v>
       </c>
@@ -4944,7 +5004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>4</v>
       </c>
@@ -4976,7 +5036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -5008,7 +5068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>6</v>
       </c>
@@ -5040,7 +5100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>7</v>
       </c>
@@ -5072,7 +5132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>8</v>
       </c>
@@ -5104,7 +5164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>9</v>
       </c>
@@ -5136,7 +5196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>10</v>
       </c>
@@ -5168,7 +5228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>11</v>
       </c>
@@ -5200,7 +5260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>12</v>
       </c>
@@ -5232,7 +5292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>13</v>
       </c>
@@ -5264,7 +5324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>14</v>
       </c>
@@ -5296,7 +5356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>15</v>
       </c>
@@ -5328,7 +5388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>16</v>
       </c>
@@ -5360,7 +5420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>16</v>
       </c>
@@ -5392,21 +5452,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="85" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="87"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="88"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="89"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
         <v>1</v>
       </c>
@@ -5438,7 +5498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <v>2</v>
       </c>
@@ -5470,7 +5530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
         <v>3</v>
       </c>
@@ -5502,7 +5562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
         <v>4</v>
       </c>
@@ -5534,7 +5594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
         <v>5</v>
       </c>
@@ -5566,7 +5626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
         <v>6</v>
       </c>
@@ -5598,7 +5658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
         <v>7</v>
       </c>
@@ -5630,7 +5690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <v>8</v>
       </c>
@@ -5662,7 +5722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
         <v>9</v>
       </c>
@@ -5694,7 +5754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
         <v>10</v>
       </c>
@@ -5726,21 +5786,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="85" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="86"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="86"/>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="86"/>
-      <c r="I66" s="86"/>
-      <c r="J66" s="87"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B66" s="88"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="89"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <v>1</v>
       </c>
@@ -5772,7 +5832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
         <v>2</v>
       </c>
@@ -5804,7 +5864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="25">
         <v>3</v>
       </c>
@@ -5836,7 +5896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="25">
         <v>4</v>
       </c>
@@ -5868,7 +5928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
         <v>5</v>
       </c>
@@ -5900,7 +5960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
         <v>6</v>
       </c>
@@ -5932,7 +5992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
         <v>7</v>
       </c>
@@ -5964,7 +6024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
         <v>8</v>
       </c>
@@ -5996,7 +6056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
         <v>9</v>
       </c>
@@ -6028,7 +6088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
         <v>10</v>
       </c>
@@ -6060,7 +6120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
         <v>11</v>
       </c>
@@ -6092,21 +6152,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="85" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="87" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="86"/>
-      <c r="C78" s="86"/>
-      <c r="D78" s="86"/>
-      <c r="E78" s="86"/>
-      <c r="F78" s="86"/>
-      <c r="G78" s="86"/>
-      <c r="H78" s="86"/>
-      <c r="I78" s="86"/>
-      <c r="J78" s="87"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B78" s="88"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="88"/>
+      <c r="E78" s="88"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="88"/>
+      <c r="H78" s="88"/>
+      <c r="I78" s="88"/>
+      <c r="J78" s="89"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
         <v>1</v>
       </c>
@@ -6138,7 +6198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="25">
         <v>2</v>
       </c>
@@ -6170,7 +6230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="25">
         <v>3</v>
       </c>
@@ -6202,7 +6262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="25">
         <v>4</v>
       </c>
@@ -6234,7 +6294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="25">
         <v>5</v>
       </c>
@@ -6266,7 +6326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="25">
         <v>6</v>
       </c>
@@ -6298,7 +6358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="25">
         <v>7</v>
       </c>
@@ -6330,7 +6390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="25">
         <v>8</v>
       </c>
@@ -6362,7 +6422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="25">
         <v>9</v>
       </c>
@@ -6394,7 +6454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="25">
         <v>10</v>
       </c>
@@ -6426,7 +6486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="25">
         <v>11</v>
       </c>
@@ -6458,7 +6518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="25">
         <v>12</v>
       </c>
@@ -6490,7 +6550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="25">
         <v>13</v>
       </c>
@@ -6522,7 +6582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="25">
         <v>14</v>
       </c>
@@ -6554,7 +6614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="25">
         <v>15</v>
       </c>
@@ -6586,7 +6646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="25">
         <v>16</v>
       </c>
@@ -6618,7 +6678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="25">
         <v>17</v>
       </c>
@@ -6650,7 +6710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="25">
         <v>18</v>
       </c>
@@ -6682,7 +6742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="25">
         <v>19</v>
       </c>
@@ -6714,7 +6774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="25">
         <v>20</v>
       </c>
@@ -6746,7 +6806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="25">
         <v>21</v>
       </c>
@@ -6778,7 +6838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="25">
         <v>22</v>
       </c>
@@ -6810,7 +6870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="25">
         <v>23</v>
       </c>
@@ -6842,7 +6902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="25">
         <v>24</v>
       </c>
@@ -6874,7 +6934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="25">
         <v>25</v>
       </c>
@@ -6906,7 +6966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="25">
         <v>27</v>
       </c>
@@ -6938,7 +6998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="25">
         <v>28</v>
       </c>
@@ -6970,21 +7030,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="93" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="94" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="93"/>
-      <c r="C106" s="93"/>
-      <c r="D106" s="93"/>
-      <c r="E106" s="93"/>
-      <c r="F106" s="93"/>
-      <c r="G106" s="93"/>
-      <c r="H106" s="93"/>
-      <c r="I106" s="93"/>
-      <c r="J106" s="93"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B106" s="94"/>
+      <c r="C106" s="94"/>
+      <c r="D106" s="94"/>
+      <c r="E106" s="94"/>
+      <c r="F106" s="94"/>
+      <c r="G106" s="94"/>
+      <c r="H106" s="94"/>
+      <c r="I106" s="94"/>
+      <c r="J106" s="94"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="25">
         <v>1</v>
       </c>
@@ -7016,7 +7076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="25">
         <v>2</v>
       </c>
@@ -7048,7 +7108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="25">
         <v>3</v>
       </c>
@@ -7080,7 +7140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="25">
         <v>4</v>
       </c>
@@ -7112,7 +7172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="25">
         <v>5</v>
       </c>
@@ -7144,7 +7204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="25">
         <v>6</v>
       </c>
@@ -7176,7 +7236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="25">
         <v>7</v>
       </c>
@@ -7208,7 +7268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="25">
         <v>8</v>
       </c>
@@ -7240,7 +7300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="25">
         <v>9</v>
       </c>
@@ -7272,7 +7332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="25">
         <v>10</v>
       </c>
@@ -7304,7 +7364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="25">
         <v>11</v>
       </c>
@@ -7336,7 +7396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="25">
         <v>12</v>
       </c>
@@ -7382,7 +7442,7 @@
       <c r="W118" s="58"/>
       <c r="X118" s="58"/>
     </row>
-    <row r="119" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="25">
         <v>13</v>
       </c>
@@ -7428,7 +7488,7 @@
       <c r="W119" s="58"/>
       <c r="X119" s="58"/>
     </row>
-    <row r="120" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="25">
         <v>14</v>
       </c>
@@ -7474,19 +7534,19 @@
       <c r="W120" s="58"/>
       <c r="X120" s="58"/>
     </row>
-    <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="89" t="s">
+    <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="82" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="89"/>
-      <c r="C121" s="89"/>
-      <c r="D121" s="89"/>
-      <c r="E121" s="89"/>
-      <c r="F121" s="89"/>
-      <c r="G121" s="89"/>
-      <c r="H121" s="89"/>
-      <c r="I121" s="89"/>
-      <c r="J121" s="89"/>
+      <c r="B121" s="82"/>
+      <c r="C121" s="82"/>
+      <c r="D121" s="82"/>
+      <c r="E121" s="82"/>
+      <c r="F121" s="82"/>
+      <c r="G121" s="82"/>
+      <c r="H121" s="82"/>
+      <c r="I121" s="82"/>
+      <c r="J121" s="82"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -7502,7 +7562,7 @@
       <c r="W121" s="58"/>
       <c r="X121" s="58"/>
     </row>
-    <row r="122" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="25">
         <v>1</v>
       </c>
@@ -7548,19 +7608,19 @@
       <c r="W122" s="58"/>
       <c r="X122" s="58"/>
     </row>
-    <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="89" t="s">
+    <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="82" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="89"/>
-      <c r="C123" s="89"/>
-      <c r="D123" s="89"/>
-      <c r="E123" s="89"/>
-      <c r="F123" s="89"/>
-      <c r="G123" s="89"/>
-      <c r="H123" s="89"/>
-      <c r="I123" s="89"/>
-      <c r="J123" s="89"/>
+      <c r="B123" s="82"/>
+      <c r="C123" s="82"/>
+      <c r="D123" s="82"/>
+      <c r="E123" s="82"/>
+      <c r="F123" s="82"/>
+      <c r="G123" s="82"/>
+      <c r="H123" s="82"/>
+      <c r="I123" s="82"/>
+      <c r="J123" s="82"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -7576,7 +7636,7 @@
       <c r="W123" s="58"/>
       <c r="X123" s="58"/>
     </row>
-    <row r="124" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="25">
         <v>1</v>
       </c>
@@ -7622,21 +7682,21 @@
       <c r="W124" s="58"/>
       <c r="X124" s="58"/>
     </row>
-    <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="89" t="s">
+    <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="82" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="89"/>
-      <c r="C125" s="89"/>
-      <c r="D125" s="89"/>
-      <c r="E125" s="89"/>
-      <c r="F125" s="89"/>
-      <c r="G125" s="89"/>
-      <c r="H125" s="89"/>
-      <c r="I125" s="89"/>
-      <c r="J125" s="89"/>
-    </row>
-    <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="82"/>
+      <c r="C125" s="82"/>
+      <c r="D125" s="82"/>
+      <c r="E125" s="82"/>
+      <c r="F125" s="82"/>
+      <c r="G125" s="82"/>
+      <c r="H125" s="82"/>
+      <c r="I125" s="82"/>
+      <c r="J125" s="82"/>
+    </row>
+    <row r="126" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="25">
         <v>1</v>
       </c>
@@ -7682,7 +7742,7 @@
       <c r="W126" s="61"/>
       <c r="X126" s="61"/>
     </row>
-    <row r="127" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="25">
         <v>2</v>
       </c>
@@ -7728,7 +7788,7 @@
       <c r="W127" s="58"/>
       <c r="X127" s="58"/>
     </row>
-    <row r="128" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="25">
         <v>3</v>
       </c>
@@ -7774,7 +7834,7 @@
       <c r="W128" s="58"/>
       <c r="X128" s="58"/>
     </row>
-    <row r="129" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="25">
         <v>4</v>
       </c>
@@ -7820,7 +7880,7 @@
       <c r="W129" s="58"/>
       <c r="X129" s="58"/>
     </row>
-    <row r="130" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="25">
         <v>5</v>
       </c>
@@ -7866,7 +7926,7 @@
       <c r="W130" s="58"/>
       <c r="X130" s="58"/>
     </row>
-    <row r="131" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="25">
         <v>6</v>
       </c>
@@ -7912,7 +7972,7 @@
       <c r="W131" s="58"/>
       <c r="X131" s="58"/>
     </row>
-    <row r="132" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="25">
         <v>7</v>
       </c>
@@ -7958,19 +8018,19 @@
       <c r="W132" s="58"/>
       <c r="X132" s="58"/>
     </row>
-    <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="89" t="s">
+    <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="82" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="89"/>
-      <c r="C133" s="89"/>
-      <c r="D133" s="94"/>
-      <c r="E133" s="94"/>
-      <c r="F133" s="94"/>
-      <c r="G133" s="94"/>
-      <c r="H133" s="94"/>
-      <c r="I133" s="94"/>
-      <c r="J133" s="94"/>
+      <c r="B133" s="82"/>
+      <c r="C133" s="82"/>
+      <c r="D133" s="83"/>
+      <c r="E133" s="83"/>
+      <c r="F133" s="83"/>
+      <c r="G133" s="83"/>
+      <c r="H133" s="83"/>
+      <c r="I133" s="83"/>
+      <c r="J133" s="83"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -7986,7 +8046,7 @@
       <c r="W133" s="58"/>
       <c r="X133" s="58"/>
     </row>
-    <row r="134" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="59">
         <v>11</v>
       </c>
@@ -8032,7 +8092,7 @@
       <c r="W134" s="58"/>
       <c r="X134" s="58"/>
     </row>
-    <row r="135" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="26">
         <v>2</v>
       </c>
@@ -8078,7 +8138,7 @@
       <c r="W135" s="58"/>
       <c r="X135" s="58"/>
     </row>
-    <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="26">
         <v>3</v>
       </c>
@@ -8110,7 +8170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="26">
         <v>4</v>
       </c>
@@ -8156,7 +8216,7 @@
       <c r="W137" s="58"/>
       <c r="X137" s="58"/>
     </row>
-    <row r="138" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="26">
         <v>5</v>
       </c>
@@ -8202,7 +8262,7 @@
       <c r="W138" s="58"/>
       <c r="X138" s="58"/>
     </row>
-    <row r="139" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="26">
         <v>6</v>
       </c>
@@ -8248,7 +8308,7 @@
       <c r="W139" s="58"/>
       <c r="X139" s="58"/>
     </row>
-    <row r="140" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="26">
         <v>7</v>
       </c>
@@ -8280,7 +8340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="26">
         <v>8</v>
       </c>
@@ -8326,7 +8386,7 @@
       <c r="W141" s="58"/>
       <c r="X141" s="58"/>
     </row>
-    <row r="142" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="26">
         <v>9</v>
       </c>
@@ -8372,7 +8432,7 @@
       <c r="W142" s="58"/>
       <c r="X142" s="58"/>
     </row>
-    <row r="143" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="26">
         <v>10</v>
       </c>
@@ -8418,7 +8478,7 @@
       <c r="W143" s="58"/>
       <c r="X143" s="58"/>
     </row>
-    <row r="144" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="26">
         <v>11</v>
       </c>
@@ -8464,19 +8524,19 @@
       <c r="W144" s="58"/>
       <c r="X144" s="58"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="90" t="s">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="91" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="91"/>
-      <c r="C145" s="91"/>
-      <c r="D145" s="91"/>
-      <c r="E145" s="91"/>
-      <c r="F145" s="91"/>
-      <c r="G145" s="91"/>
-      <c r="H145" s="91"/>
-      <c r="I145" s="91"/>
-      <c r="J145" s="92"/>
+      <c r="B145" s="92"/>
+      <c r="C145" s="92"/>
+      <c r="D145" s="92"/>
+      <c r="E145" s="92"/>
+      <c r="F145" s="92"/>
+      <c r="G145" s="92"/>
+      <c r="H145" s="92"/>
+      <c r="I145" s="92"/>
+      <c r="J145" s="93"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -8492,7 +8552,7 @@
       <c r="W145" s="58"/>
       <c r="X145" s="58"/>
     </row>
-    <row r="146" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="25">
         <v>1</v>
       </c>
@@ -8538,7 +8598,7 @@
       <c r="W146" s="58"/>
       <c r="X146" s="58"/>
     </row>
-    <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="25">
         <v>2</v>
       </c>
@@ -8570,7 +8630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" s="25">
         <v>3</v>
       </c>
@@ -8602,7 +8662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="25">
         <v>4</v>
       </c>
@@ -8634,7 +8694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="25">
         <v>5</v>
       </c>
@@ -8682,7 +8742,7 @@
       <c r="Y150" s="58"/>
       <c r="Z150" s="58"/>
     </row>
-    <row r="151" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="25">
         <v>6</v>
       </c>
@@ -8730,7 +8790,7 @@
       <c r="Y151" s="58"/>
       <c r="Z151" s="58"/>
     </row>
-    <row r="152" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="25">
         <v>7</v>
       </c>
@@ -8778,7 +8838,7 @@
       <c r="Y152" s="58"/>
       <c r="Z152" s="58"/>
     </row>
-    <row r="153" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="25">
         <v>8</v>
       </c>
@@ -8826,7 +8886,7 @@
       <c r="Y153" s="58"/>
       <c r="Z153" s="58"/>
     </row>
-    <row r="154" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="25">
         <v>9</v>
       </c>
@@ -8874,7 +8934,7 @@
       <c r="Y154" s="58"/>
       <c r="Z154" s="58"/>
     </row>
-    <row r="155" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="25">
         <v>10</v>
       </c>
@@ -8922,19 +8982,19 @@
       <c r="Y155" s="58"/>
       <c r="Z155" s="58"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="89" t="s">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="82" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="89"/>
-      <c r="C156" s="89"/>
-      <c r="D156" s="89"/>
-      <c r="E156" s="89"/>
-      <c r="F156" s="89"/>
-      <c r="G156" s="89"/>
-      <c r="H156" s="89"/>
-      <c r="I156" s="89"/>
-      <c r="J156" s="89"/>
+      <c r="B156" s="82"/>
+      <c r="C156" s="82"/>
+      <c r="D156" s="82"/>
+      <c r="E156" s="82"/>
+      <c r="F156" s="82"/>
+      <c r="G156" s="82"/>
+      <c r="H156" s="82"/>
+      <c r="I156" s="82"/>
+      <c r="J156" s="82"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -8952,7 +9012,7 @@
       <c r="Y156" s="58"/>
       <c r="Z156" s="58"/>
     </row>
-    <row r="157" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="25">
         <v>1</v>
       </c>
@@ -9000,19 +9060,19 @@
       <c r="Y157" s="58"/>
       <c r="Z157" s="58"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="89" t="s">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="82" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="89"/>
-      <c r="C158" s="89"/>
-      <c r="D158" s="89"/>
-      <c r="E158" s="89"/>
-      <c r="F158" s="89"/>
-      <c r="G158" s="89"/>
-      <c r="H158" s="89"/>
-      <c r="I158" s="89"/>
-      <c r="J158" s="89"/>
+      <c r="B158" s="82"/>
+      <c r="C158" s="82"/>
+      <c r="D158" s="82"/>
+      <c r="E158" s="82"/>
+      <c r="F158" s="82"/>
+      <c r="G158" s="82"/>
+      <c r="H158" s="82"/>
+      <c r="I158" s="82"/>
+      <c r="J158" s="82"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -9030,7 +9090,7 @@
       <c r="Y158" s="58"/>
       <c r="Z158" s="58"/>
     </row>
-    <row r="159" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="67">
         <v>1</v>
       </c>
@@ -9078,7 +9138,7 @@
       <c r="Y159" s="58"/>
       <c r="Z159" s="58"/>
     </row>
-    <row r="160" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="68">
         <v>2</v>
       </c>
@@ -9126,7 +9186,7 @@
       <c r="Y160" s="58"/>
       <c r="Z160" s="58"/>
     </row>
-    <row r="161" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="68">
         <v>3</v>
       </c>
@@ -9174,7 +9234,7 @@
       <c r="Y161" s="58"/>
       <c r="Z161" s="58"/>
     </row>
-    <row r="162" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="68">
         <v>4</v>
       </c>
@@ -9222,7 +9282,7 @@
       <c r="Y162" s="58"/>
       <c r="Z162" s="58"/>
     </row>
-    <row r="163" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="68">
         <v>5</v>
       </c>
@@ -9270,7 +9330,7 @@
       <c r="Y163" s="58"/>
       <c r="Z163" s="58"/>
     </row>
-    <row r="164" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="68">
         <v>6</v>
       </c>
@@ -9318,7 +9378,7 @@
       <c r="Y164" s="58"/>
       <c r="Z164" s="58"/>
     </row>
-    <row r="165" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="68">
         <v>7</v>
       </c>
@@ -9366,7 +9426,7 @@
       <c r="Y165" s="58"/>
       <c r="Z165" s="58"/>
     </row>
-    <row r="166" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="68">
         <v>8</v>
       </c>
@@ -9414,7 +9474,7 @@
       <c r="Y166" s="58"/>
       <c r="Z166" s="58"/>
     </row>
-    <row r="167" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="67">
         <v>9</v>
       </c>
@@ -9462,7 +9522,7 @@
       <c r="Y167" s="58"/>
       <c r="Z167" s="58"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="68">
         <v>10</v>
       </c>
@@ -9494,7 +9554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="67">
         <v>11</v>
       </c>
@@ -9526,7 +9586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="68">
         <v>12</v>
       </c>
@@ -9558,7 +9618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="67">
         <v>13</v>
       </c>
@@ -9590,7 +9650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="68">
         <v>14</v>
       </c>
@@ -9622,7 +9682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="67">
         <v>15</v>
       </c>
@@ -9654,7 +9714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="68">
         <v>16</v>
       </c>
@@ -9686,7 +9746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="67">
         <v>17</v>
       </c>
@@ -9718,7 +9778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="68">
         <v>18</v>
       </c>
@@ -9750,70 +9810,70 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="68">
-        <v>9</v>
-      </c>
-      <c r="B177" s="69" t="s">
+    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="82" t="s">
+        <v>728</v>
+      </c>
+      <c r="B177" s="82"/>
+      <c r="C177" s="82"/>
+      <c r="D177" s="90"/>
+      <c r="E177" s="82"/>
+      <c r="F177" s="82"/>
+      <c r="G177" s="82"/>
+      <c r="H177" s="82"/>
+      <c r="I177" s="82"/>
+      <c r="J177" s="82"/>
+    </row>
+    <row r="178" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="68">
+        <v>1</v>
+      </c>
+      <c r="B178" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C177" s="74" t="s">
-        <v>617</v>
-      </c>
-      <c r="D177" s="64" t="s">
-        <v>618</v>
-      </c>
-      <c r="E177" s="75" t="s">
+      <c r="C178" s="74" t="s">
+        <v>729</v>
+      </c>
+      <c r="D178" s="78" t="s">
+        <v>730</v>
+      </c>
+      <c r="E178" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="F177" s="70" t="s">
-        <v>619</v>
-      </c>
-      <c r="G177" s="69" t="s">
+      <c r="F178" s="70" t="s">
+        <v>601</v>
+      </c>
+      <c r="G178" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H177" s="69" t="s">
+      <c r="H178" s="69" t="s">
         <v>540</v>
       </c>
-      <c r="I177" s="69" t="s">
+      <c r="I178" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J177" s="69" t="s">
+      <c r="J178" s="69" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="89" t="s">
-        <v>626</v>
-      </c>
-      <c r="B178" s="89"/>
-      <c r="C178" s="89"/>
-      <c r="D178" s="88"/>
-      <c r="E178" s="89"/>
-      <c r="F178" s="89"/>
-      <c r="G178" s="89"/>
-      <c r="H178" s="89"/>
-      <c r="I178" s="89"/>
-      <c r="J178" s="89"/>
-    </row>
-    <row r="179" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B179" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C179" s="74" t="s">
-        <v>627</v>
+        <v>731</v>
       </c>
       <c r="D179" s="78" t="s">
-        <v>629</v>
+        <v>732</v>
       </c>
       <c r="E179" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F179" s="70" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="G179" s="69" t="s">
         <v>11</v>
@@ -9828,24 +9888,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B180" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C180" s="74" t="s">
-        <v>634</v>
+        <v>733</v>
       </c>
       <c r="D180" s="78" t="s">
-        <v>635</v>
+        <v>734</v>
       </c>
       <c r="E180" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F180" s="70" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="G180" s="69" t="s">
         <v>11</v>
@@ -9860,24 +9920,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B181" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C181" s="74" t="s">
-        <v>636</v>
-      </c>
-      <c r="D181" s="79" t="s">
-        <v>637</v>
+        <v>735</v>
+      </c>
+      <c r="D181" s="64" t="s">
+        <v>736</v>
       </c>
       <c r="E181" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F181" s="70" t="s">
-        <v>638</v>
+        <v>609</v>
       </c>
       <c r="G181" s="69" t="s">
         <v>11</v>
@@ -9892,24 +9952,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B182" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C182" s="74" t="s">
-        <v>640</v>
-      </c>
-      <c r="D182" s="79" t="s">
-        <v>641</v>
+        <v>737</v>
+      </c>
+      <c r="D182" s="64" t="s">
+        <v>738</v>
       </c>
       <c r="E182" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F182" s="70" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="G182" s="69" t="s">
         <v>11</v>
@@ -9924,24 +9984,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B183" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C183" s="74" t="s">
-        <v>643</v>
-      </c>
-      <c r="D183" s="79" t="s">
-        <v>644</v>
+        <v>739</v>
+      </c>
+      <c r="D183" s="78" t="s">
+        <v>740</v>
       </c>
       <c r="E183" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F183" s="70" t="s">
-        <v>645</v>
+        <v>614</v>
       </c>
       <c r="G183" s="69" t="s">
         <v>11</v>
@@ -9956,290 +10016,308 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A184" s="88" t="s">
+    <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="68">
+        <v>7</v>
+      </c>
+      <c r="B184" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" s="74" t="s">
+        <v>741</v>
+      </c>
+      <c r="D184" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="E184" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" s="70" t="s">
+        <v>615</v>
+      </c>
+      <c r="G184" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" s="69" t="s">
+        <v>540</v>
+      </c>
+      <c r="I184" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J184" s="69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="68">
+        <v>8</v>
+      </c>
+      <c r="B185" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="74" t="s">
+        <v>743</v>
+      </c>
+      <c r="D185" s="79" t="s">
+        <v>744</v>
+      </c>
+      <c r="E185" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" s="70" t="s">
+        <v>621</v>
+      </c>
+      <c r="G185" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H185" s="69" t="s">
+        <v>540</v>
+      </c>
+      <c r="I185" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J185" s="69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="68">
+        <v>9</v>
+      </c>
+      <c r="B186" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" s="74" t="s">
+        <v>617</v>
+      </c>
+      <c r="D186" s="64" t="s">
+        <v>618</v>
+      </c>
+      <c r="E186" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" s="70" t="s">
+        <v>619</v>
+      </c>
+      <c r="G186" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H186" s="69" t="s">
+        <v>540</v>
+      </c>
+      <c r="I186" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J186" s="69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="95" t="s">
+        <v>626</v>
+      </c>
+      <c r="B187" s="96"/>
+      <c r="C187" s="96"/>
+      <c r="D187" s="96"/>
+      <c r="E187" s="96"/>
+      <c r="F187" s="96"/>
+      <c r="G187" s="96"/>
+      <c r="H187" s="96"/>
+      <c r="I187" s="96"/>
+      <c r="J187" s="97"/>
+    </row>
+    <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="68">
+        <v>1</v>
+      </c>
+      <c r="B188" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" s="74" t="s">
+        <v>627</v>
+      </c>
+      <c r="D188" s="78" t="s">
+        <v>629</v>
+      </c>
+      <c r="E188" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" s="70" t="s">
+        <v>628</v>
+      </c>
+      <c r="G188" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H188" s="69" t="s">
+        <v>540</v>
+      </c>
+      <c r="I188" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J188" s="69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="68">
+        <v>2</v>
+      </c>
+      <c r="B189" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" s="74" t="s">
+        <v>634</v>
+      </c>
+      <c r="D189" s="78" t="s">
+        <v>635</v>
+      </c>
+      <c r="E189" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" s="70" t="s">
+        <v>632</v>
+      </c>
+      <c r="G189" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H189" s="69" t="s">
+        <v>540</v>
+      </c>
+      <c r="I189" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J189" s="69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="68">
+        <v>3</v>
+      </c>
+      <c r="B190" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" s="74" t="s">
+        <v>636</v>
+      </c>
+      <c r="D190" s="79" t="s">
+        <v>637</v>
+      </c>
+      <c r="E190" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F190" s="70" t="s">
+        <v>638</v>
+      </c>
+      <c r="G190" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H190" s="69" t="s">
+        <v>540</v>
+      </c>
+      <c r="I190" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J190" s="69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="68">
+        <v>4</v>
+      </c>
+      <c r="B191" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" s="74" t="s">
+        <v>640</v>
+      </c>
+      <c r="D191" s="79" t="s">
+        <v>641</v>
+      </c>
+      <c r="E191" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191" s="70" t="s">
+        <v>639</v>
+      </c>
+      <c r="G191" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H191" s="69" t="s">
+        <v>540</v>
+      </c>
+      <c r="I191" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J191" s="69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="68">
+        <v>5</v>
+      </c>
+      <c r="B192" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192" s="74" t="s">
+        <v>643</v>
+      </c>
+      <c r="D192" s="79" t="s">
+        <v>644</v>
+      </c>
+      <c r="E192" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192" s="70" t="s">
+        <v>645</v>
+      </c>
+      <c r="G192" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H192" s="69" t="s">
+        <v>540</v>
+      </c>
+      <c r="I192" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J192" s="69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="90" t="s">
         <v>647</v>
       </c>
-      <c r="B184" s="88"/>
-      <c r="C184" s="88"/>
-      <c r="D184" s="88"/>
-      <c r="E184" s="88"/>
-      <c r="F184" s="88"/>
-      <c r="G184" s="88"/>
-      <c r="H184" s="88"/>
-      <c r="I184" s="88"/>
-      <c r="J184" s="88"/>
-    </row>
-    <row r="185" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="48">
+      <c r="B193" s="90"/>
+      <c r="C193" s="90"/>
+      <c r="D193" s="90"/>
+      <c r="E193" s="90"/>
+      <c r="F193" s="90"/>
+      <c r="G193" s="90"/>
+      <c r="H193" s="90"/>
+      <c r="I193" s="90"/>
+      <c r="J193" s="90"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="48">
         <v>1</v>
-      </c>
-      <c r="B185" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C185" s="80" t="s">
-        <v>648</v>
-      </c>
-      <c r="D185" s="64" t="s">
-        <v>625</v>
-      </c>
-      <c r="E185" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F185" s="80" t="s">
-        <v>649</v>
-      </c>
-      <c r="G185" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H185" s="48" t="s">
-        <v>540</v>
-      </c>
-      <c r="I185" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J185" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="48">
-        <v>2</v>
-      </c>
-      <c r="B186" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C186" s="80" t="s">
-        <v>652</v>
-      </c>
-      <c r="D186" s="79" t="s">
-        <v>653</v>
-      </c>
-      <c r="E186" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F186" s="80" t="s">
-        <v>651</v>
-      </c>
-      <c r="G186" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H186" s="48" t="s">
-        <v>540</v>
-      </c>
-      <c r="I186" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J186" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="48">
-        <v>3</v>
-      </c>
-      <c r="B187" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C187" s="80" t="s">
-        <v>654</v>
-      </c>
-      <c r="D187" s="79" t="s">
-        <v>656</v>
-      </c>
-      <c r="E187" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F187" s="80" t="s">
-        <v>657</v>
-      </c>
-      <c r="G187" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H187" s="48" t="s">
-        <v>540</v>
-      </c>
-      <c r="I187" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J187" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="48">
-        <v>4</v>
-      </c>
-      <c r="B188" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C188" s="80" t="s">
-        <v>655</v>
-      </c>
-      <c r="D188" s="79" t="s">
-        <v>659</v>
-      </c>
-      <c r="E188" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F188" s="80" t="s">
-        <v>658</v>
-      </c>
-      <c r="G188" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H188" s="48" t="s">
-        <v>540</v>
-      </c>
-      <c r="I188" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J188" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A189" s="88" t="s">
-        <v>660</v>
-      </c>
-      <c r="B189" s="88"/>
-      <c r="C189" s="88"/>
-      <c r="D189" s="88"/>
-      <c r="E189" s="88"/>
-      <c r="F189" s="88"/>
-      <c r="G189" s="88"/>
-      <c r="H189" s="88"/>
-      <c r="I189" s="88"/>
-      <c r="J189" s="88"/>
-    </row>
-    <row r="190" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="48">
-        <v>1</v>
-      </c>
-      <c r="B190" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C190" s="80" t="s">
-        <v>661</v>
-      </c>
-      <c r="D190" s="79" t="s">
-        <v>662</v>
-      </c>
-      <c r="E190" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F190" s="80" t="s">
-        <v>663</v>
-      </c>
-      <c r="G190" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H190" s="48" t="s">
-        <v>540</v>
-      </c>
-      <c r="I190" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J190" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A191" s="88" t="s">
-        <v>666</v>
-      </c>
-      <c r="B191" s="88"/>
-      <c r="C191" s="88"/>
-      <c r="D191" s="88"/>
-      <c r="E191" s="88"/>
-      <c r="F191" s="88"/>
-      <c r="G191" s="88"/>
-      <c r="H191" s="88"/>
-      <c r="I191" s="88"/>
-      <c r="J191" s="88"/>
-    </row>
-    <row r="192" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="48">
-        <v>1</v>
-      </c>
-      <c r="B192" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C192" s="80" t="s">
-        <v>667</v>
-      </c>
-      <c r="D192" s="79" t="s">
-        <v>668</v>
-      </c>
-      <c r="E192" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F192" s="80" t="s">
-        <v>665</v>
-      </c>
-      <c r="G192" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H192" s="48" t="s">
-        <v>540</v>
-      </c>
-      <c r="I192" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J192" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="48">
-        <v>2</v>
-      </c>
-      <c r="B193" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C193" s="80" t="s">
-        <v>669</v>
-      </c>
-      <c r="D193" s="79" t="s">
-        <v>670</v>
-      </c>
-      <c r="E193" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F193" s="80" t="s">
-        <v>671</v>
-      </c>
-      <c r="G193" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H193" s="48" t="s">
-        <v>540</v>
-      </c>
-      <c r="I193" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J193" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="48">
-        <v>3</v>
       </c>
       <c r="B194" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C194" s="80" t="s">
-        <v>672</v>
-      </c>
-      <c r="D194" s="79" t="s">
-        <v>673</v>
+        <v>648</v>
+      </c>
+      <c r="D194" s="64" t="s">
+        <v>625</v>
       </c>
       <c r="E194" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F194" s="80" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="G194" s="48" t="s">
         <v>11</v>
@@ -10254,24 +10332,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B195" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C195" s="80" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="D195" s="79" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="E195" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F195" s="80" t="s">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="G195" s="48" t="s">
         <v>11</v>
@@ -10286,24 +10364,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B196" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C196" s="80" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="D196" s="79" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
       <c r="E196" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F196" s="80" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="G196" s="48" t="s">
         <v>11</v>
@@ -10318,24 +10396,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B197" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C197" s="80" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="D197" s="79" t="s">
-        <v>684</v>
+        <v>659</v>
       </c>
       <c r="E197" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F197" s="80" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
       <c r="G197" s="48" t="s">
         <v>11</v>
@@ -10350,53 +10428,306 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="48">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="90" t="s">
+        <v>660</v>
+      </c>
+      <c r="B198" s="90"/>
+      <c r="C198" s="90"/>
+      <c r="D198" s="90"/>
+      <c r="E198" s="90"/>
+      <c r="F198" s="90"/>
+      <c r="G198" s="90"/>
+      <c r="H198" s="90"/>
+      <c r="I198" s="90"/>
+      <c r="J198" s="90"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="48">
+        <v>1</v>
+      </c>
+      <c r="B199" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199" s="80" t="s">
+        <v>661</v>
+      </c>
+      <c r="D199" s="79" t="s">
+        <v>662</v>
+      </c>
+      <c r="E199" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" s="80" t="s">
+        <v>663</v>
+      </c>
+      <c r="G199" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H199" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I199" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J199" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="90" t="s">
+        <v>666</v>
+      </c>
+      <c r="B200" s="90"/>
+      <c r="C200" s="90"/>
+      <c r="D200" s="90"/>
+      <c r="E200" s="90"/>
+      <c r="F200" s="90"/>
+      <c r="G200" s="90"/>
+      <c r="H200" s="90"/>
+      <c r="I200" s="90"/>
+      <c r="J200" s="90"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="48">
+        <v>1</v>
+      </c>
+      <c r="B201" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" s="80" t="s">
+        <v>667</v>
+      </c>
+      <c r="D201" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="E201" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F201" s="80" t="s">
+        <v>665</v>
+      </c>
+      <c r="G201" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H201" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I201" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J201" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="48">
+        <v>2</v>
+      </c>
+      <c r="B202" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" s="80" t="s">
+        <v>669</v>
+      </c>
+      <c r="D202" s="79" t="s">
+        <v>670</v>
+      </c>
+      <c r="E202" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202" s="80" t="s">
+        <v>671</v>
+      </c>
+      <c r="G202" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H202" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I202" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J202" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="48">
+        <v>3</v>
+      </c>
+      <c r="B203" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" s="80" t="s">
+        <v>672</v>
+      </c>
+      <c r="D203" s="79" t="s">
+        <v>673</v>
+      </c>
+      <c r="E203" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F203" s="80" t="s">
+        <v>674</v>
+      </c>
+      <c r="G203" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H203" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I203" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J203" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="48">
+        <v>4</v>
+      </c>
+      <c r="B204" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" s="80" t="s">
+        <v>677</v>
+      </c>
+      <c r="D204" s="79" t="s">
+        <v>678</v>
+      </c>
+      <c r="E204" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F204" s="80" t="s">
+        <v>676</v>
+      </c>
+      <c r="G204" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H204" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I204" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J204" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="48">
+        <v>5</v>
+      </c>
+      <c r="B205" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" s="80" t="s">
+        <v>679</v>
+      </c>
+      <c r="D205" s="79" t="s">
+        <v>680</v>
+      </c>
+      <c r="E205" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F205" s="80" t="s">
+        <v>681</v>
+      </c>
+      <c r="G205" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H205" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I205" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J205" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="48">
+        <v>6</v>
+      </c>
+      <c r="B206" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" s="80" t="s">
+        <v>682</v>
+      </c>
+      <c r="D206" s="79" t="s">
+        <v>684</v>
+      </c>
+      <c r="E206" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F206" s="80" t="s">
+        <v>686</v>
+      </c>
+      <c r="G206" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H206" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I206" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J206" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="48">
         <v>7</v>
       </c>
-      <c r="B198" s="48" t="s">
+      <c r="B207" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C198" s="80" t="s">
+      <c r="C207" s="80" t="s">
         <v>683</v>
       </c>
-      <c r="D198" s="79" t="s">
+      <c r="D207" s="79" t="s">
         <v>685</v>
       </c>
-      <c r="E198" s="48" t="s">
+      <c r="E207" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F198" s="80" t="s">
+      <c r="F207" s="80" t="s">
         <v>687</v>
       </c>
-      <c r="G198" s="48" t="s">
+      <c r="G207" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H198" s="48" t="s">
+      <c r="H207" s="48" t="s">
         <v>540</v>
       </c>
-      <c r="I198" s="48" t="s">
+      <c r="I207" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J198" s="48" t="s">
+      <c r="J207" s="48" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="A200:J200"/>
+    <mergeCell ref="A125:J125"/>
+    <mergeCell ref="A198:J198"/>
+    <mergeCell ref="A193:J193"/>
+    <mergeCell ref="A187:J187"/>
+    <mergeCell ref="A145:J145"/>
+    <mergeCell ref="A156:J156"/>
+    <mergeCell ref="A158:J158"/>
+    <mergeCell ref="A177:J177"/>
     <mergeCell ref="A133:J133"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A37:J37"/>
     <mergeCell ref="A55:J55"/>
     <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A191:J191"/>
-    <mergeCell ref="A125:J125"/>
-    <mergeCell ref="A189:J189"/>
-    <mergeCell ref="A184:J184"/>
-    <mergeCell ref="A178:J178"/>
-    <mergeCell ref="A145:J145"/>
-    <mergeCell ref="A156:J156"/>
-    <mergeCell ref="A158:J158"/>
     <mergeCell ref="A78:J78"/>
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A121:J121"/>
@@ -10500,38 +10831,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
   <dimension ref="A1:AD199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U175" workbookViewId="0">
-      <selection activeCell="AF183" sqref="AF183"/>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174:A182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1"/>
-    <col min="12" max="12" width="53.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="12" max="12" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="71.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.109375" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
     <col min="24" max="25" width="29" customWidth="1"/>
-    <col min="26" max="26" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.44140625" customWidth="1"/>
-    <col min="29" max="29" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.6640625" customWidth="1"/>
+    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" customWidth="1"/>
+    <col min="29" max="29" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
@@ -10623,7 +10954,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>23</v>
       </c>
@@ -10703,7 +11034,7 @@
       <c r="AC2" s="28"/>
       <c r="AD2" s="28"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>25</v>
       </c>
@@ -10783,7 +11114,7 @@
       <c r="AC3" s="28"/>
       <c r="AD3" s="28"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>28</v>
       </c>
@@ -10863,7 +11194,7 @@
       <c r="AC4" s="28"/>
       <c r="AD4" s="28"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>58</v>
       </c>
@@ -10943,7 +11274,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>69</v>
       </c>
@@ -11023,7 +11354,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>73</v>
       </c>
@@ -11103,7 +11434,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
     </row>
-    <row r="8" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>77</v>
       </c>
@@ -11183,7 +11514,7 @@
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>79</v>
       </c>
@@ -11263,7 +11594,7 @@
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>80</v>
       </c>
@@ -11343,7 +11674,7 @@
       <c r="AC10" s="28"/>
       <c r="AD10" s="28"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>81</v>
       </c>
@@ -11423,7 +11754,7 @@
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>83</v>
       </c>
@@ -11503,7 +11834,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>84</v>
       </c>
@@ -11583,7 +11914,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>85</v>
       </c>
@@ -11663,7 +11994,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>86</v>
       </c>
@@ -11743,7 +12074,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>87</v>
       </c>
@@ -11823,7 +12154,7 @@
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>88</v>
       </c>
@@ -11903,7 +12234,7 @@
       <c r="AC17" s="28"/>
       <c r="AD17" s="28"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>89</v>
       </c>
@@ -11983,7 +12314,7 @@
       <c r="AC18" s="28"/>
       <c r="AD18" s="28"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>91</v>
       </c>
@@ -12063,7 +12394,7 @@
       <c r="AC19" s="28"/>
       <c r="AD19" s="28"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>93</v>
       </c>
@@ -12143,7 +12474,7 @@
       <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>94</v>
       </c>
@@ -12223,7 +12554,7 @@
       <c r="AC21" s="28"/>
       <c r="AD21" s="28"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>135</v>
       </c>
@@ -12303,7 +12634,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>140</v>
       </c>
@@ -12383,7 +12714,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>63</v>
       </c>
@@ -12463,7 +12794,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
         <v>144</v>
       </c>
@@ -12543,7 +12874,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
         <v>145</v>
       </c>
@@ -12623,7 +12954,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
         <v>146</v>
       </c>
@@ -12703,7 +13034,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
         <v>147</v>
       </c>
@@ -12783,7 +13114,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
         <v>148</v>
       </c>
@@ -12863,7 +13194,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>150</v>
       </c>
@@ -12943,7 +13274,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="46" t="s">
         <v>151</v>
       </c>
@@ -13023,7 +13354,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>152</v>
       </c>
@@ -13103,7 +13434,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
         <v>153</v>
       </c>
@@ -13183,7 +13514,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
         <v>154</v>
       </c>
@@ -13263,7 +13594,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
         <v>155</v>
       </c>
@@ -13343,7 +13674,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>64</v>
       </c>
@@ -13423,7 +13754,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
         <v>175</v>
       </c>
@@ -13505,7 +13836,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
         <v>179</v>
       </c>
@@ -13587,7 +13918,7 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
         <v>182</v>
       </c>
@@ -13669,7 +14000,7 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
         <v>185</v>
       </c>
@@ -13751,7 +14082,7 @@
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
         <v>188</v>
       </c>
@@ -13833,7 +14164,7 @@
       <c r="AC41" s="28"/>
       <c r="AD41" s="28"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>190</v>
       </c>
@@ -13915,7 +14246,7 @@
       <c r="AC42" s="28"/>
       <c r="AD42" s="28"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
         <v>193</v>
       </c>
@@ -13997,7 +14328,7 @@
       <c r="AC43" s="28"/>
       <c r="AD43" s="28"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
         <v>196</v>
       </c>
@@ -14079,7 +14410,7 @@
       <c r="AC44" s="28"/>
       <c r="AD44" s="28"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
         <v>198</v>
       </c>
@@ -14161,7 +14492,7 @@
       <c r="AC45" s="28"/>
       <c r="AD45" s="28"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
         <v>200</v>
       </c>
@@ -14243,7 +14574,7 @@
       <c r="AC46" s="28"/>
       <c r="AD46" s="28"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
         <v>202</v>
       </c>
@@ -14325,7 +14656,7 @@
       <c r="AC47" s="28"/>
       <c r="AD47" s="28"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>204</v>
       </c>
@@ -14407,7 +14738,7 @@
       <c r="AC48" s="28"/>
       <c r="AD48" s="28"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>206</v>
       </c>
@@ -14489,7 +14820,7 @@
       <c r="AC49" s="28"/>
       <c r="AD49" s="28"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>208</v>
       </c>
@@ -14571,7 +14902,7 @@
       <c r="AC50" s="28"/>
       <c r="AD50" s="28"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>210</v>
       </c>
@@ -14653,7 +14984,7 @@
       <c r="AC51" s="28"/>
       <c r="AD51" s="28"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
         <v>212</v>
       </c>
@@ -14735,7 +15066,7 @@
       <c r="AC52" s="28"/>
       <c r="AD52" s="28"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>700</v>
       </c>
@@ -14817,7 +15148,7 @@
       <c r="AC53" s="28"/>
       <c r="AD53" s="28"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="55" t="s">
         <v>213</v>
       </c>
@@ -14899,7 +15230,7 @@
       <c r="AC54" s="28"/>
       <c r="AD54" s="28"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>214</v>
       </c>
@@ -14981,7 +15312,7 @@
       <c r="AC55" s="28"/>
       <c r="AD55" s="28"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>215</v>
       </c>
@@ -15063,7 +15394,7 @@
       <c r="AC56" s="28"/>
       <c r="AD56" s="28"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>216</v>
       </c>
@@ -15145,7 +15476,7 @@
       <c r="AC57" s="28"/>
       <c r="AD57" s="28"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>217</v>
       </c>
@@ -15227,7 +15558,7 @@
       <c r="AC58" s="28"/>
       <c r="AD58" s="28"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
         <v>218</v>
       </c>
@@ -15309,7 +15640,7 @@
       <c r="AC59" s="28"/>
       <c r="AD59" s="28"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>219</v>
       </c>
@@ -15391,7 +15722,7 @@
       <c r="AC60" s="28"/>
       <c r="AD60" s="28"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>220</v>
       </c>
@@ -15473,7 +15804,7 @@
       <c r="AC61" s="28"/>
       <c r="AD61" s="28"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>221</v>
       </c>
@@ -15555,7 +15886,7 @@
       <c r="AC62" s="28"/>
       <c r="AD62" s="28"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="51" t="s">
         <v>222</v>
       </c>
@@ -15637,7 +15968,7 @@
       <c r="AC63" s="28"/>
       <c r="AD63" s="28"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="56" t="s">
         <v>249</v>
       </c>
@@ -15719,7 +16050,7 @@
       <c r="AC64" s="28"/>
       <c r="AD64" s="28"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>253</v>
       </c>
@@ -15801,7 +16132,7 @@
       <c r="AC65" s="28"/>
       <c r="AD65" s="28"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>256</v>
       </c>
@@ -15883,7 +16214,7 @@
       <c r="AC66" s="28"/>
       <c r="AD66" s="28"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>259</v>
       </c>
@@ -15965,7 +16296,7 @@
       <c r="AC67" s="28"/>
       <c r="AD67" s="28"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>262</v>
       </c>
@@ -16047,7 +16378,7 @@
       <c r="AC68" s="28"/>
       <c r="AD68" s="28"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>265</v>
       </c>
@@ -16129,7 +16460,7 @@
       <c r="AC69" s="28"/>
       <c r="AD69" s="28"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>268</v>
       </c>
@@ -16211,7 +16542,7 @@
       <c r="AC70" s="28"/>
       <c r="AD70" s="28"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
         <v>271</v>
       </c>
@@ -16293,7 +16624,7 @@
       <c r="AC71" s="28"/>
       <c r="AD71" s="28"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>274</v>
       </c>
@@ -16375,7 +16706,7 @@
       <c r="AC72" s="28"/>
       <c r="AD72" s="28"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
         <v>277</v>
       </c>
@@ -16457,7 +16788,7 @@
       <c r="AC73" s="28"/>
       <c r="AD73" s="28"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="51" t="s">
         <v>280</v>
       </c>
@@ -16541,7 +16872,7 @@
       <c r="AC74" s="28"/>
       <c r="AD74" s="28"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" s="62" t="s">
         <v>282</v>
       </c>
@@ -16625,7 +16956,7 @@
       <c r="AC75" s="28"/>
       <c r="AD75" s="28"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>285</v>
       </c>
@@ -16709,7 +17040,7 @@
       <c r="AC76" s="28"/>
       <c r="AD76" s="28"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>287</v>
       </c>
@@ -16793,7 +17124,7 @@
       <c r="AC77" s="28"/>
       <c r="AD77" s="28"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>289</v>
       </c>
@@ -16877,7 +17208,7 @@
       <c r="AC78" s="28"/>
       <c r="AD78" s="28"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
         <v>292</v>
       </c>
@@ -16961,7 +17292,7 @@
       <c r="AC79" s="28"/>
       <c r="AD79" s="28"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
         <v>295</v>
       </c>
@@ -17045,7 +17376,7 @@
       <c r="AC80" s="28"/>
       <c r="AD80" s="28"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
         <v>298</v>
       </c>
@@ -17129,7 +17460,7 @@
       <c r="AC81" s="28"/>
       <c r="AD81" s="28"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>301</v>
       </c>
@@ -17213,7 +17544,7 @@
       <c r="AC82" s="28"/>
       <c r="AD82" s="28"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>304</v>
       </c>
@@ -17297,7 +17628,7 @@
       <c r="AC83" s="28"/>
       <c r="AD83" s="28"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
         <v>306</v>
       </c>
@@ -17381,7 +17712,7 @@
       <c r="AC84" s="28"/>
       <c r="AD84" s="28"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>308</v>
       </c>
@@ -17465,7 +17796,7 @@
       <c r="AC85" s="28"/>
       <c r="AD85" s="28"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>310</v>
       </c>
@@ -17549,7 +17880,7 @@
       <c r="AC86" s="28"/>
       <c r="AD86" s="28"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
         <v>313</v>
       </c>
@@ -17633,7 +17964,7 @@
       <c r="AC87" s="28"/>
       <c r="AD87" s="28"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>316</v>
       </c>
@@ -17717,7 +18048,7 @@
       <c r="AC88" s="28"/>
       <c r="AD88" s="28"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
         <v>319</v>
       </c>
@@ -17801,7 +18132,7 @@
       <c r="AC89" s="28"/>
       <c r="AD89" s="28"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>322</v>
       </c>
@@ -17885,7 +18216,7 @@
       <c r="AC90" s="28"/>
       <c r="AD90" s="28"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
         <v>324</v>
       </c>
@@ -17969,7 +18300,7 @@
       <c r="AC91" s="28"/>
       <c r="AD91" s="28"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>327</v>
       </c>
@@ -18053,7 +18384,7 @@
       <c r="AC92" s="28"/>
       <c r="AD92" s="28"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>330</v>
       </c>
@@ -18137,7 +18468,7 @@
       <c r="AC93" s="28"/>
       <c r="AD93" s="28"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
         <v>332</v>
       </c>
@@ -18221,7 +18552,7 @@
       <c r="AC94" s="28"/>
       <c r="AD94" s="28"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
         <v>334</v>
       </c>
@@ -18305,7 +18636,7 @@
       <c r="AC95" s="28"/>
       <c r="AD95" s="28"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
         <v>336</v>
       </c>
@@ -18389,7 +18720,7 @@
       <c r="AC96" s="28"/>
       <c r="AD96" s="28"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
         <v>338</v>
       </c>
@@ -18473,7 +18804,7 @@
       <c r="AC97" s="28"/>
       <c r="AD97" s="28"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
         <v>340</v>
       </c>
@@ -18557,7 +18888,7 @@
       <c r="AC98" s="28"/>
       <c r="AD98" s="28"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" s="48" t="s">
         <v>342</v>
       </c>
@@ -18641,7 +18972,7 @@
       <c r="AC99" s="28"/>
       <c r="AD99" s="28"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" s="48" t="s">
         <v>344</v>
       </c>
@@ -18725,7 +19056,7 @@
       <c r="AC100" s="28"/>
       <c r="AD100" s="28"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>597</v>
       </c>
@@ -18809,7 +19140,7 @@
       <c r="AC101" s="28"/>
       <c r="AD101" s="28"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
         <v>348</v>
       </c>
@@ -18893,7 +19224,7 @@
       <c r="AC102" s="28"/>
       <c r="AD102" s="28"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103" s="48" t="s">
         <v>352</v>
       </c>
@@ -18977,7 +19308,7 @@
       <c r="AC103" s="28"/>
       <c r="AD103" s="28"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>355</v>
       </c>
@@ -19061,7 +19392,7 @@
       <c r="AC104" s="28"/>
       <c r="AD104" s="28"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
         <v>358</v>
       </c>
@@ -19145,7 +19476,7 @@
       <c r="AC105" s="28"/>
       <c r="AD105" s="28"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>361</v>
       </c>
@@ -19229,7 +19560,7 @@
       <c r="AC106" s="28"/>
       <c r="AD106" s="28"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>364</v>
       </c>
@@ -19313,7 +19644,7 @@
       <c r="AC107" s="28"/>
       <c r="AD107" s="28"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
         <v>367</v>
       </c>
@@ -19397,7 +19728,7 @@
       <c r="AC108" s="28"/>
       <c r="AD108" s="28"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109" s="48" t="s">
         <v>369</v>
       </c>
@@ -19481,7 +19812,7 @@
       <c r="AC109" s="28"/>
       <c r="AD109" s="28"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
         <v>371</v>
       </c>
@@ -19565,7 +19896,7 @@
       <c r="AC110" s="28"/>
       <c r="AD110" s="28"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
         <v>598</v>
       </c>
@@ -19649,7 +19980,7 @@
       <c r="AC111" s="28"/>
       <c r="AD111" s="28"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
         <v>703</v>
       </c>
@@ -19733,7 +20064,7 @@
       <c r="AC112" s="28"/>
       <c r="AD112" s="28"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
         <v>706</v>
       </c>
@@ -19817,7 +20148,7 @@
       <c r="AC113" s="28"/>
       <c r="AD113" s="28"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>709</v>
       </c>
@@ -19901,7 +20232,7 @@
       <c r="AC114" s="28"/>
       <c r="AD114" s="28"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
         <v>712</v>
       </c>
@@ -19985,7 +20316,7 @@
       <c r="AC115" s="28"/>
       <c r="AD115" s="28"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>378</v>
       </c>
@@ -20069,7 +20400,7 @@
       <c r="AC116" s="28"/>
       <c r="AD116" s="28"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
         <v>383</v>
       </c>
@@ -20153,7 +20484,7 @@
       <c r="AC117" s="28"/>
       <c r="AD117" s="28"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>397</v>
       </c>
@@ -20237,7 +20568,7 @@
       <c r="AC118" s="28"/>
       <c r="AD118" s="28"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119" s="48" t="s">
         <v>399</v>
       </c>
@@ -20321,7 +20652,7 @@
       <c r="AC119" s="28"/>
       <c r="AD119" s="28"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A120" s="48" t="s">
         <v>400</v>
       </c>
@@ -20405,7 +20736,7 @@
       <c r="AC120" s="28"/>
       <c r="AD120" s="28"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A121" s="48" t="s">
         <v>401</v>
       </c>
@@ -20489,7 +20820,7 @@
       <c r="AC121" s="28"/>
       <c r="AD121" s="28"/>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>402</v>
       </c>
@@ -20573,7 +20904,7 @@
       <c r="AC122" s="28"/>
       <c r="AD122" s="28"/>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A123" s="48" t="s">
         <v>403</v>
       </c>
@@ -20657,7 +20988,7 @@
       <c r="AC123" s="28"/>
       <c r="AD123" s="28"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A124" s="48" t="s">
         <v>405</v>
       </c>
@@ -20741,7 +21072,7 @@
       <c r="AC124" s="28"/>
       <c r="AD124" s="28"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A125" s="48" t="s">
         <v>407</v>
       </c>
@@ -20825,7 +21156,7 @@
       <c r="AC125" s="28"/>
       <c r="AD125" s="28"/>
     </row>
-    <row r="126" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A126" s="62" t="s">
         <v>413</v>
       </c>
@@ -20909,7 +21240,7 @@
       <c r="AC126" s="28"/>
       <c r="AD126" s="28"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A127" s="48" t="s">
         <v>417</v>
       </c>
@@ -20993,7 +21324,7 @@
       <c r="AC127" s="28"/>
       <c r="AD127" s="28"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A128" s="48" t="s">
         <v>420</v>
       </c>
@@ -21077,7 +21408,7 @@
       <c r="AC128" s="28"/>
       <c r="AD128" s="28"/>
     </row>
-    <row r="129" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A129" s="48" t="s">
         <v>422</v>
       </c>
@@ -21161,7 +21492,7 @@
       <c r="AC129" s="28"/>
       <c r="AD129" s="28"/>
     </row>
-    <row r="130" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
         <v>424</v>
       </c>
@@ -21245,7 +21576,7 @@
       <c r="AC130" s="28"/>
       <c r="AD130" s="28"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
         <v>427</v>
       </c>
@@ -21329,7 +21660,7 @@
       <c r="AC131" s="28"/>
       <c r="AD131" s="28"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
         <v>430</v>
       </c>
@@ -21413,7 +21744,7 @@
       <c r="AC132" s="28"/>
       <c r="AD132" s="28"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A133" s="48" t="s">
         <v>433</v>
       </c>
@@ -21497,7 +21828,7 @@
       <c r="AC133" s="28"/>
       <c r="AD133" s="28"/>
     </row>
-    <row r="134" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A134" s="48" t="s">
         <v>436</v>
       </c>
@@ -21581,7 +21912,7 @@
       <c r="AC134" s="28"/>
       <c r="AD134" s="28"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>438</v>
       </c>
@@ -21665,7 +21996,7 @@
       <c r="AC135" s="28"/>
       <c r="AD135" s="28"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A136" s="48" t="s">
         <v>716</v>
       </c>
@@ -21749,7 +22080,7 @@
       <c r="AC136" s="28"/>
       <c r="AD136" s="28"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A137" s="48" t="s">
         <v>397</v>
       </c>
@@ -21833,7 +22164,7 @@
       <c r="AC137" s="28"/>
       <c r="AD137" s="28"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A138" s="48" t="s">
         <v>399</v>
       </c>
@@ -21917,7 +22248,7 @@
       <c r="AC138" s="28"/>
       <c r="AD138" s="28"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A139" s="48" t="s">
         <v>400</v>
       </c>
@@ -22001,7 +22332,7 @@
       <c r="AC139" s="28"/>
       <c r="AD139" s="28"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
         <v>401</v>
       </c>
@@ -22085,7 +22416,7 @@
       <c r="AC140" s="28"/>
       <c r="AD140" s="28"/>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A141" s="48" t="s">
         <v>402</v>
       </c>
@@ -22169,7 +22500,7 @@
       <c r="AC141" s="28"/>
       <c r="AD141" s="28"/>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A142" s="48" t="s">
         <v>403</v>
       </c>
@@ -22253,7 +22584,7 @@
       <c r="AC142" s="28"/>
       <c r="AD142" s="28"/>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A143" s="48" t="s">
         <v>405</v>
       </c>
@@ -22337,7 +22668,7 @@
       <c r="AC143" s="28"/>
       <c r="AD143" s="28"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A144" s="48" t="s">
         <v>442</v>
       </c>
@@ -22421,7 +22752,7 @@
       <c r="AC144" s="28"/>
       <c r="AD144" s="28"/>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A145" s="48" t="s">
         <v>446</v>
       </c>
@@ -22505,7 +22836,7 @@
       <c r="AC145" s="28"/>
       <c r="AD145" s="28"/>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A146" s="48" t="s">
         <v>449</v>
       </c>
@@ -22589,7 +22920,7 @@
       <c r="AC146" s="28"/>
       <c r="AD146" s="28"/>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A147" s="48" t="s">
         <v>451</v>
       </c>
@@ -22673,7 +23004,7 @@
       <c r="AC147" s="28"/>
       <c r="AD147" s="28"/>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A148" s="48" t="s">
         <v>454</v>
       </c>
@@ -22757,7 +23088,7 @@
       <c r="AC148" s="28"/>
       <c r="AD148" s="28"/>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A149" s="48" t="s">
         <v>457</v>
       </c>
@@ -22841,7 +23172,7 @@
       <c r="AC149" s="28"/>
       <c r="AD149" s="28"/>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A150" s="48" t="s">
         <v>460</v>
       </c>
@@ -22925,7 +23256,7 @@
       <c r="AC150" s="28"/>
       <c r="AD150" s="28"/>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A151" s="48" t="s">
         <v>463</v>
       </c>
@@ -23009,7 +23340,7 @@
       <c r="AC151" s="28"/>
       <c r="AD151" s="28"/>
     </row>
-    <row r="152" spans="1:30" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:30" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A152" s="48" t="s">
         <v>466</v>
       </c>
@@ -23093,7 +23424,7 @@
       <c r="AC152" s="28"/>
       <c r="AD152" s="28"/>
     </row>
-    <row r="153" spans="1:30" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:30" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A153" s="48" t="s">
         <v>469</v>
       </c>
@@ -23177,7 +23508,7 @@
       <c r="AC153" s="28"/>
       <c r="AD153" s="28"/>
     </row>
-    <row r="154" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="48" t="s">
         <v>509</v>
       </c>
@@ -23261,7 +23592,7 @@
       <c r="AC154" s="28"/>
       <c r="AD154" s="28"/>
     </row>
-    <row r="155" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="66" t="s">
         <v>539</v>
       </c>
@@ -23345,7 +23676,7 @@
       <c r="AC155" s="28"/>
       <c r="AD155" s="28"/>
     </row>
-    <row r="156" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="70" t="s">
         <v>543</v>
       </c>
@@ -23429,7 +23760,7 @@
       <c r="AC156" s="28"/>
       <c r="AD156" s="28"/>
     </row>
-    <row r="157" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="66" t="s">
         <v>546</v>
       </c>
@@ -23513,7 +23844,7 @@
       <c r="AC157" s="28"/>
       <c r="AD157" s="28"/>
     </row>
-    <row r="158" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="70" t="s">
         <v>549</v>
       </c>
@@ -23597,7 +23928,7 @@
       <c r="AC158" s="28"/>
       <c r="AD158" s="28"/>
     </row>
-    <row r="159" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="66" t="s">
         <v>551</v>
       </c>
@@ -23681,7 +24012,7 @@
       <c r="AC159" s="28"/>
       <c r="AD159" s="28"/>
     </row>
-    <row r="160" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="70" t="s">
         <v>553</v>
       </c>
@@ -23765,7 +24096,7 @@
       <c r="AC160" s="28"/>
       <c r="AD160" s="28"/>
     </row>
-    <row r="161" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="66" t="s">
         <v>555</v>
       </c>
@@ -23849,7 +24180,7 @@
       <c r="AC161" s="28"/>
       <c r="AD161" s="28"/>
     </row>
-    <row r="162" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="70" t="s">
         <v>557</v>
       </c>
@@ -23933,7 +24264,7 @@
       <c r="AC162" s="28"/>
       <c r="AD162" s="28"/>
     </row>
-    <row r="163" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="66" t="s">
         <v>559</v>
       </c>
@@ -24017,7 +24348,7 @@
       <c r="AC163" s="28"/>
       <c r="AD163" s="28"/>
     </row>
-    <row r="164" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="70" t="s">
         <v>562</v>
       </c>
@@ -24101,7 +24432,7 @@
       <c r="AC164" s="28"/>
       <c r="AD164" s="28"/>
     </row>
-    <row r="165" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="66" t="s">
         <v>565</v>
       </c>
@@ -24185,7 +24516,7 @@
       <c r="AC165" s="28"/>
       <c r="AD165" s="28"/>
     </row>
-    <row r="166" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="70" t="s">
         <v>568</v>
       </c>
@@ -24269,7 +24600,7 @@
       <c r="AC166" s="28"/>
       <c r="AD166" s="28"/>
     </row>
-    <row r="167" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="66" t="s">
         <v>571</v>
       </c>
@@ -24353,7 +24684,7 @@
       <c r="AC167" s="28"/>
       <c r="AD167" s="28"/>
     </row>
-    <row r="168" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="70" t="s">
         <v>574</v>
       </c>
@@ -24437,7 +24768,7 @@
       <c r="AC168" s="28"/>
       <c r="AD168" s="28"/>
     </row>
-    <row r="169" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="66" t="s">
         <v>577</v>
       </c>
@@ -24521,7 +24852,7 @@
       <c r="AC169" s="28"/>
       <c r="AD169" s="28"/>
     </row>
-    <row r="170" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="66" t="s">
         <v>579</v>
       </c>
@@ -24605,7 +24936,7 @@
       <c r="AC170" s="28"/>
       <c r="AD170" s="28"/>
     </row>
-    <row r="171" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="66" t="s">
         <v>581</v>
       </c>
@@ -24689,7 +25020,7 @@
       <c r="AC171" s="28"/>
       <c r="AD171" s="28"/>
     </row>
-    <row r="172" spans="1:30" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:30" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="66" t="s">
         <v>584</v>
       </c>
@@ -24773,7 +25104,7 @@
       <c r="AC172" s="28"/>
       <c r="AD172" s="28"/>
     </row>
-    <row r="173" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="76"/>
       <c r="B173" s="48"/>
       <c r="C173" s="36"/>
@@ -24817,7 +25148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:30" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="70" t="s">
         <v>601</v>
       </c>
@@ -24909,7 +25240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="70" t="s">
         <v>605</v>
       </c>
@@ -25001,7 +25332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="70" t="s">
         <v>608</v>
       </c>
@@ -25093,7 +25424,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:30" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="70" t="s">
         <v>609</v>
       </c>
@@ -25185,7 +25516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="70" t="s">
         <v>613</v>
       </c>
@@ -25277,7 +25608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="70" t="s">
         <v>614</v>
       </c>
@@ -25369,7 +25700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="70" t="s">
         <v>615</v>
       </c>
@@ -25461,7 +25792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="70" t="s">
         <v>621</v>
       </c>
@@ -25553,7 +25884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="70" t="s">
         <v>619</v>
       </c>
@@ -25645,7 +25976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="70" t="s">
         <v>628</v>
       </c>
@@ -25737,7 +26068,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="184" spans="1:30" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="70" t="s">
         <v>632</v>
       </c>
@@ -25829,7 +26160,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="185" spans="1:30" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="70" t="s">
         <v>638</v>
       </c>
@@ -25921,7 +26252,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="186" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="70" t="s">
         <v>639</v>
       </c>
@@ -26013,7 +26344,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="187" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="70" t="s">
         <v>645</v>
       </c>
@@ -26105,7 +26436,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="188" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="70" t="s">
         <v>649</v>
       </c>
@@ -26197,7 +26528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="70" t="s">
         <v>651</v>
       </c>
@@ -26289,7 +26620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="70" t="s">
         <v>657</v>
       </c>
@@ -26381,7 +26712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="70" t="s">
         <v>658</v>
       </c>
@@ -26473,7 +26804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="70" t="s">
         <v>663</v>
       </c>
@@ -26565,7 +26896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="70" t="s">
         <v>665</v>
       </c>
@@ -26657,7 +26988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="70" t="s">
         <v>671</v>
       </c>
@@ -26749,7 +27080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="70" t="s">
         <v>674</v>
       </c>
@@ -26841,7 +27172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="70" t="s">
         <v>676</v>
       </c>
@@ -26933,7 +27264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="70" t="s">
         <v>681</v>
       </c>
@@ -27025,7 +27356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="70" t="s">
         <v>686</v>
       </c>
@@ -27117,7 +27448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="70" t="s">
         <v>687</v>
       </c>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjith\git\ZlaataQAsever0001\src\test\resources\testdata\zltUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0FA9B1-C8A6-4858-95FB-0FE536211264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF9C931-3872-4CD9-82B8-6E52BC60C6D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6875" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6875" uniqueCount="744">
   <si>
     <t>S.No</t>
   </si>
@@ -1898,9 +1898,6 @@
   </si>
   <si>
     <t>black test fomo dress</t>
-  </si>
-  <si>
-    <t>Blur kurta kurti</t>
   </si>
   <si>
     <t>Verify New Product added match between two exports.</t>
@@ -2891,7 +2888,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2915,29 +2933,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3743,24 +3740,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
   <dimension ref="A1:Z207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="A172" zoomScale="109" workbookViewId="0">
       <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="118.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="118.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3792,7 +3789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -3824,7 +3821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -3856,7 +3853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -3888,7 +3885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -3920,7 +3917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -3952,7 +3949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -3984,7 +3981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -4016,7 +4013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -4048,7 +4045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>9</v>
       </c>
@@ -4080,7 +4077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>10</v>
       </c>
@@ -4112,7 +4109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>11</v>
       </c>
@@ -4144,7 +4141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>12</v>
       </c>
@@ -4176,7 +4173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>13</v>
       </c>
@@ -4208,7 +4205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
         <v>14</v>
       </c>
@@ -4240,7 +4237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>15</v>
       </c>
@@ -4272,7 +4269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>16</v>
       </c>
@@ -4304,7 +4301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
         <v>17</v>
       </c>
@@ -4336,7 +4333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <v>18</v>
       </c>
@@ -4368,7 +4365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <v>19</v>
       </c>
@@ -4400,7 +4397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
         <v>20</v>
       </c>
@@ -4432,7 +4429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
         <v>21</v>
       </c>
@@ -4464,7 +4461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="45">
         <v>22</v>
       </c>
@@ -4496,21 +4493,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="86"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="93"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>1</v>
       </c>
@@ -4542,7 +4539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>2</v>
       </c>
@@ -4574,7 +4571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -4606,7 +4603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>4</v>
       </c>
@@ -4638,7 +4635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>5</v>
       </c>
@@ -4670,7 +4667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>6</v>
       </c>
@@ -4702,7 +4699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>7</v>
       </c>
@@ -4734,7 +4731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>8</v>
       </c>
@@ -4766,7 +4763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>9</v>
       </c>
@@ -4798,7 +4795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>10</v>
       </c>
@@ -4830,7 +4827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>11</v>
       </c>
@@ -4862,7 +4859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>12</v>
       </c>
@@ -4894,21 +4891,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="87" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="89"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="96"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>1</v>
       </c>
@@ -4940,7 +4937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>2</v>
       </c>
@@ -4972,7 +4969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>3</v>
       </c>
@@ -5004,7 +5001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>4</v>
       </c>
@@ -5036,7 +5033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -5068,7 +5065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>6</v>
       </c>
@@ -5100,7 +5097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>7</v>
       </c>
@@ -5132,7 +5129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>8</v>
       </c>
@@ -5164,7 +5161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>9</v>
       </c>
@@ -5175,7 +5172,7 @@
         <v>197</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E46" s="47" t="s">
         <v>14</v>
@@ -5196,7 +5193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>10</v>
       </c>
@@ -5228,7 +5225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>11</v>
       </c>
@@ -5260,7 +5257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>12</v>
       </c>
@@ -5292,7 +5289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>13</v>
       </c>
@@ -5324,7 +5321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>14</v>
       </c>
@@ -5332,10 +5329,10 @@
         <v>10</v>
       </c>
       <c r="C51" s="47" t="s">
+        <v>691</v>
+      </c>
+      <c r="D51" s="81" t="s">
         <v>692</v>
-      </c>
-      <c r="D51" s="81" t="s">
-        <v>693</v>
       </c>
       <c r="E51" s="48" t="s">
         <v>14</v>
@@ -5356,7 +5353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>15</v>
       </c>
@@ -5364,10 +5361,10 @@
         <v>10</v>
       </c>
       <c r="C52" s="47" t="s">
+        <v>693</v>
+      </c>
+      <c r="D52" s="81" t="s">
         <v>694</v>
-      </c>
-      <c r="D52" s="81" t="s">
-        <v>695</v>
       </c>
       <c r="E52" s="48" t="s">
         <v>14</v>
@@ -5388,7 +5385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>16</v>
       </c>
@@ -5396,10 +5393,10 @@
         <v>10</v>
       </c>
       <c r="C53" s="47" t="s">
+        <v>695</v>
+      </c>
+      <c r="D53" s="81" t="s">
         <v>696</v>
-      </c>
-      <c r="D53" s="81" t="s">
-        <v>697</v>
       </c>
       <c r="E53" s="48" t="s">
         <v>14</v>
@@ -5420,7 +5417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>16</v>
       </c>
@@ -5428,16 +5425,16 @@
         <v>10</v>
       </c>
       <c r="C54" s="47" t="s">
+        <v>697</v>
+      </c>
+      <c r="D54" s="81" t="s">
         <v>698</v>
-      </c>
-      <c r="D54" s="81" t="s">
-        <v>699</v>
       </c>
       <c r="E54" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G54" s="48" t="s">
         <v>11</v>
@@ -5452,21 +5449,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="87" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="94" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="89"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="96"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
         <v>1</v>
       </c>
@@ -5498,7 +5495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="25">
         <v>2</v>
       </c>
@@ -5530,7 +5527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="25">
         <v>3</v>
       </c>
@@ -5562,7 +5559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="25">
         <v>4</v>
       </c>
@@ -5594,7 +5591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="25">
         <v>5</v>
       </c>
@@ -5626,7 +5623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="25">
         <v>6</v>
       </c>
@@ -5658,7 +5655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="25">
         <v>7</v>
       </c>
@@ -5690,7 +5687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="25">
         <v>8</v>
       </c>
@@ -5722,7 +5719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="25">
         <v>9</v>
       </c>
@@ -5754,7 +5751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="25">
         <v>10</v>
       </c>
@@ -5786,21 +5783,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="87" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="88"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="88"/>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="89"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="95"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="96"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
         <v>1</v>
       </c>
@@ -5832,7 +5829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="25">
         <v>2</v>
       </c>
@@ -5864,7 +5861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="25">
         <v>3</v>
       </c>
@@ -5896,7 +5893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="25">
         <v>4</v>
       </c>
@@ -5928,7 +5925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="25">
         <v>5</v>
       </c>
@@ -5960,7 +5957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="25">
         <v>6</v>
       </c>
@@ -5992,7 +5989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="25">
         <v>7</v>
       </c>
@@ -6024,7 +6021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="25">
         <v>8</v>
       </c>
@@ -6056,7 +6053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="25">
         <v>9</v>
       </c>
@@ -6088,7 +6085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="25">
         <v>10</v>
       </c>
@@ -6120,7 +6117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="25">
         <v>11</v>
       </c>
@@ -6152,21 +6149,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="87" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="94" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="88"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="88"/>
-      <c r="F78" s="88"/>
-      <c r="G78" s="88"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="89"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="95"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="95"/>
+      <c r="I78" s="95"/>
+      <c r="J78" s="96"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
         <v>1</v>
       </c>
@@ -6198,7 +6195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="25">
         <v>2</v>
       </c>
@@ -6230,7 +6227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="25">
         <v>3</v>
       </c>
@@ -6262,7 +6259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="25">
         <v>4</v>
       </c>
@@ -6294,7 +6291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="25">
         <v>5</v>
       </c>
@@ -6326,7 +6323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="25">
         <v>6</v>
       </c>
@@ -6358,7 +6355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="25">
         <v>7</v>
       </c>
@@ -6390,7 +6387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="25">
         <v>8</v>
       </c>
@@ -6422,7 +6419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="25">
         <v>9</v>
       </c>
@@ -6454,7 +6451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="25">
         <v>10</v>
       </c>
@@ -6486,7 +6483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="25">
         <v>11</v>
       </c>
@@ -6518,7 +6515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="25">
         <v>12</v>
       </c>
@@ -6550,7 +6547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="25">
         <v>13</v>
       </c>
@@ -6582,7 +6579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="25">
         <v>14</v>
       </c>
@@ -6614,7 +6611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="25">
         <v>15</v>
       </c>
@@ -6646,7 +6643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="25">
         <v>16</v>
       </c>
@@ -6678,7 +6675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="25">
         <v>17</v>
       </c>
@@ -6710,7 +6707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="25">
         <v>18</v>
       </c>
@@ -6742,7 +6739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="25">
         <v>19</v>
       </c>
@@ -6774,7 +6771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="25">
         <v>20</v>
       </c>
@@ -6806,7 +6803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="25">
         <v>21</v>
       </c>
@@ -6838,7 +6835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="25">
         <v>22</v>
       </c>
@@ -6870,7 +6867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="25">
         <v>23</v>
       </c>
@@ -6902,7 +6899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="25">
         <v>24</v>
       </c>
@@ -6934,7 +6931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="25">
         <v>25</v>
       </c>
@@ -6966,7 +6963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="25">
         <v>27</v>
       </c>
@@ -6998,7 +6995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="25">
         <v>28</v>
       </c>
@@ -7030,21 +7027,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="94" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="97" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="94"/>
-      <c r="C106" s="94"/>
-      <c r="D106" s="94"/>
-      <c r="E106" s="94"/>
-      <c r="F106" s="94"/>
-      <c r="G106" s="94"/>
-      <c r="H106" s="94"/>
-      <c r="I106" s="94"/>
-      <c r="J106" s="94"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="97"/>
+      <c r="C106" s="97"/>
+      <c r="D106" s="97"/>
+      <c r="E106" s="97"/>
+      <c r="F106" s="97"/>
+      <c r="G106" s="97"/>
+      <c r="H106" s="97"/>
+      <c r="I106" s="97"/>
+      <c r="J106" s="97"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
         <v>1</v>
       </c>
@@ -7076,7 +7073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="25">
         <v>2</v>
       </c>
@@ -7108,7 +7105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="25">
         <v>3</v>
       </c>
@@ -7140,7 +7137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="25">
         <v>4</v>
       </c>
@@ -7172,7 +7169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="25">
         <v>5</v>
       </c>
@@ -7204,7 +7201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="25">
         <v>6</v>
       </c>
@@ -7236,7 +7233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="25">
         <v>7</v>
       </c>
@@ -7268,7 +7265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" s="25">
         <v>8</v>
       </c>
@@ -7300,7 +7297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
         <v>9</v>
       </c>
@@ -7311,7 +7308,7 @@
         <v>370</v>
       </c>
       <c r="D115" s="48" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E115" s="48" t="s">
         <v>14</v>
@@ -7332,7 +7329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116" s="25">
         <v>10</v>
       </c>
@@ -7364,7 +7361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="25">
         <v>11</v>
       </c>
@@ -7372,16 +7369,16 @@
         <v>10</v>
       </c>
       <c r="C117" s="48" t="s">
+        <v>700</v>
+      </c>
+      <c r="D117" s="48" t="s">
         <v>701</v>
-      </c>
-      <c r="D117" s="48" t="s">
-        <v>702</v>
       </c>
       <c r="E117" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="48" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G117" s="48" t="s">
         <v>11</v>
@@ -7396,7 +7393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="25">
         <v>12</v>
       </c>
@@ -7404,16 +7401,16 @@
         <v>10</v>
       </c>
       <c r="C118" s="48" t="s">
+        <v>703</v>
+      </c>
+      <c r="D118" s="48" t="s">
         <v>704</v>
-      </c>
-      <c r="D118" s="48" t="s">
-        <v>705</v>
       </c>
       <c r="E118" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F118" s="48" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G118" s="48" t="s">
         <v>11</v>
@@ -7442,7 +7439,7 @@
       <c r="W118" s="58"/>
       <c r="X118" s="58"/>
     </row>
-    <row r="119" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="25">
         <v>13</v>
       </c>
@@ -7450,16 +7447,16 @@
         <v>10</v>
       </c>
       <c r="C119" s="48" t="s">
+        <v>706</v>
+      </c>
+      <c r="D119" s="48" t="s">
         <v>707</v>
-      </c>
-      <c r="D119" s="48" t="s">
-        <v>708</v>
       </c>
       <c r="E119" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F119" s="48" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G119" s="48" t="s">
         <v>11</v>
@@ -7488,7 +7485,7 @@
       <c r="W119" s="58"/>
       <c r="X119" s="58"/>
     </row>
-    <row r="120" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="25">
         <v>14</v>
       </c>
@@ -7496,16 +7493,16 @@
         <v>10</v>
       </c>
       <c r="C120" s="48" t="s">
+        <v>709</v>
+      </c>
+      <c r="D120" s="48" t="s">
         <v>710</v>
-      </c>
-      <c r="D120" s="48" t="s">
-        <v>711</v>
       </c>
       <c r="E120" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="48" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G120" s="48" t="s">
         <v>11</v>
@@ -7534,19 +7531,19 @@
       <c r="W120" s="58"/>
       <c r="X120" s="58"/>
     </row>
-    <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="82" t="s">
+    <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="83" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="82"/>
-      <c r="C121" s="82"/>
-      <c r="D121" s="82"/>
-      <c r="E121" s="82"/>
-      <c r="F121" s="82"/>
-      <c r="G121" s="82"/>
-      <c r="H121" s="82"/>
-      <c r="I121" s="82"/>
-      <c r="J121" s="82"/>
+      <c r="B121" s="83"/>
+      <c r="C121" s="83"/>
+      <c r="D121" s="83"/>
+      <c r="E121" s="83"/>
+      <c r="F121" s="83"/>
+      <c r="G121" s="83"/>
+      <c r="H121" s="83"/>
+      <c r="I121" s="83"/>
+      <c r="J121" s="83"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -7562,7 +7559,7 @@
       <c r="W121" s="58"/>
       <c r="X121" s="58"/>
     </row>
-    <row r="122" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="25">
         <v>1</v>
       </c>
@@ -7608,19 +7605,19 @@
       <c r="W122" s="58"/>
       <c r="X122" s="58"/>
     </row>
-    <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="82" t="s">
+    <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="83" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="82"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="82"/>
-      <c r="E123" s="82"/>
-      <c r="F123" s="82"/>
-      <c r="G123" s="82"/>
-      <c r="H123" s="82"/>
-      <c r="I123" s="82"/>
-      <c r="J123" s="82"/>
+      <c r="B123" s="83"/>
+      <c r="C123" s="83"/>
+      <c r="D123" s="83"/>
+      <c r="E123" s="83"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="83"/>
+      <c r="H123" s="83"/>
+      <c r="I123" s="83"/>
+      <c r="J123" s="83"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -7636,7 +7633,7 @@
       <c r="W123" s="58"/>
       <c r="X123" s="58"/>
     </row>
-    <row r="124" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="25">
         <v>1</v>
       </c>
@@ -7682,21 +7679,21 @@
       <c r="W124" s="58"/>
       <c r="X124" s="58"/>
     </row>
-    <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="82" t="s">
+    <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="83" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="82"/>
-      <c r="C125" s="82"/>
-      <c r="D125" s="82"/>
-      <c r="E125" s="82"/>
-      <c r="F125" s="82"/>
-      <c r="G125" s="82"/>
-      <c r="H125" s="82"/>
-      <c r="I125" s="82"/>
-      <c r="J125" s="82"/>
-    </row>
-    <row r="126" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="83"/>
+      <c r="C125" s="83"/>
+      <c r="D125" s="83"/>
+      <c r="E125" s="83"/>
+      <c r="F125" s="83"/>
+      <c r="G125" s="83"/>
+      <c r="H125" s="83"/>
+      <c r="I125" s="83"/>
+      <c r="J125" s="83"/>
+    </row>
+    <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="25">
         <v>1</v>
       </c>
@@ -7742,7 +7739,7 @@
       <c r="W126" s="61"/>
       <c r="X126" s="61"/>
     </row>
-    <row r="127" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="25">
         <v>2</v>
       </c>
@@ -7788,7 +7785,7 @@
       <c r="W127" s="58"/>
       <c r="X127" s="58"/>
     </row>
-    <row r="128" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="25">
         <v>3</v>
       </c>
@@ -7834,7 +7831,7 @@
       <c r="W128" s="58"/>
       <c r="X128" s="58"/>
     </row>
-    <row r="129" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="25">
         <v>4</v>
       </c>
@@ -7880,7 +7877,7 @@
       <c r="W129" s="58"/>
       <c r="X129" s="58"/>
     </row>
-    <row r="130" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="25">
         <v>5</v>
       </c>
@@ -7926,7 +7923,7 @@
       <c r="W130" s="58"/>
       <c r="X130" s="58"/>
     </row>
-    <row r="131" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="25">
         <v>6</v>
       </c>
@@ -7972,7 +7969,7 @@
       <c r="W131" s="58"/>
       <c r="X131" s="58"/>
     </row>
-    <row r="132" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="25">
         <v>7</v>
       </c>
@@ -8018,19 +8015,19 @@
       <c r="W132" s="58"/>
       <c r="X132" s="58"/>
     </row>
-    <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="82" t="s">
+    <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="83" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="82"/>
-      <c r="C133" s="82"/>
-      <c r="D133" s="83"/>
-      <c r="E133" s="83"/>
-      <c r="F133" s="83"/>
-      <c r="G133" s="83"/>
-      <c r="H133" s="83"/>
-      <c r="I133" s="83"/>
-      <c r="J133" s="83"/>
+      <c r="B133" s="83"/>
+      <c r="C133" s="83"/>
+      <c r="D133" s="90"/>
+      <c r="E133" s="90"/>
+      <c r="F133" s="90"/>
+      <c r="G133" s="90"/>
+      <c r="H133" s="90"/>
+      <c r="I133" s="90"/>
+      <c r="J133" s="90"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -8046,7 +8043,7 @@
       <c r="W133" s="58"/>
       <c r="X133" s="58"/>
     </row>
-    <row r="134" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="59">
         <v>11</v>
       </c>
@@ -8092,7 +8089,7 @@
       <c r="W134" s="58"/>
       <c r="X134" s="58"/>
     </row>
-    <row r="135" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="26">
         <v>2</v>
       </c>
@@ -8138,7 +8135,7 @@
       <c r="W135" s="58"/>
       <c r="X135" s="58"/>
     </row>
-    <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="26">
         <v>3</v>
       </c>
@@ -8170,7 +8167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="26">
         <v>4</v>
       </c>
@@ -8216,7 +8213,7 @@
       <c r="W137" s="58"/>
       <c r="X137" s="58"/>
     </row>
-    <row r="138" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="26">
         <v>5</v>
       </c>
@@ -8262,7 +8259,7 @@
       <c r="W138" s="58"/>
       <c r="X138" s="58"/>
     </row>
-    <row r="139" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="26">
         <v>6</v>
       </c>
@@ -8308,7 +8305,7 @@
       <c r="W139" s="58"/>
       <c r="X139" s="58"/>
     </row>
-    <row r="140" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="26">
         <v>7</v>
       </c>
@@ -8340,7 +8337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="26">
         <v>8</v>
       </c>
@@ -8386,7 +8383,7 @@
       <c r="W141" s="58"/>
       <c r="X141" s="58"/>
     </row>
-    <row r="142" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="26">
         <v>9</v>
       </c>
@@ -8432,7 +8429,7 @@
       <c r="W142" s="58"/>
       <c r="X142" s="58"/>
     </row>
-    <row r="143" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="26">
         <v>10</v>
       </c>
@@ -8443,7 +8440,7 @@
         <v>437</v>
       </c>
       <c r="D143" s="27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E143" s="27" t="s">
         <v>14</v>
@@ -8478,7 +8475,7 @@
       <c r="W143" s="58"/>
       <c r="X143" s="58"/>
     </row>
-    <row r="144" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="26">
         <v>11</v>
       </c>
@@ -8486,16 +8483,16 @@
         <v>10</v>
       </c>
       <c r="C144" s="48" t="s">
+        <v>713</v>
+      </c>
+      <c r="D144" s="27" t="s">
         <v>714</v>
-      </c>
-      <c r="D144" s="27" t="s">
-        <v>715</v>
       </c>
       <c r="E144" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F144" s="48" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G144" s="27" t="s">
         <v>11</v>
@@ -8524,19 +8521,19 @@
       <c r="W144" s="58"/>
       <c r="X144" s="58"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="91" t="s">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="87" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="92"/>
-      <c r="C145" s="92"/>
-      <c r="D145" s="92"/>
-      <c r="E145" s="92"/>
-      <c r="F145" s="92"/>
-      <c r="G145" s="92"/>
-      <c r="H145" s="92"/>
-      <c r="I145" s="92"/>
-      <c r="J145" s="93"/>
+      <c r="B145" s="88"/>
+      <c r="C145" s="88"/>
+      <c r="D145" s="88"/>
+      <c r="E145" s="88"/>
+      <c r="F145" s="88"/>
+      <c r="G145" s="88"/>
+      <c r="H145" s="88"/>
+      <c r="I145" s="88"/>
+      <c r="J145" s="89"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -8552,7 +8549,7 @@
       <c r="W145" s="58"/>
       <c r="X145" s="58"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="25">
         <v>1</v>
       </c>
@@ -8598,7 +8595,7 @@
       <c r="W146" s="58"/>
       <c r="X146" s="58"/>
     </row>
-    <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="25">
         <v>2</v>
       </c>
@@ -8630,7 +8627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148" s="25">
         <v>3</v>
       </c>
@@ -8662,7 +8659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="25">
         <v>4</v>
       </c>
@@ -8694,7 +8691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="25">
         <v>5</v>
       </c>
@@ -8742,7 +8739,7 @@
       <c r="Y150" s="58"/>
       <c r="Z150" s="58"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="25">
         <v>6</v>
       </c>
@@ -8790,7 +8787,7 @@
       <c r="Y151" s="58"/>
       <c r="Z151" s="58"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="25">
         <v>7</v>
       </c>
@@ -8838,7 +8835,7 @@
       <c r="Y152" s="58"/>
       <c r="Z152" s="58"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="25">
         <v>8</v>
       </c>
@@ -8886,7 +8883,7 @@
       <c r="Y153" s="58"/>
       <c r="Z153" s="58"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="25">
         <v>9</v>
       </c>
@@ -8934,7 +8931,7 @@
       <c r="Y154" s="58"/>
       <c r="Z154" s="58"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="25">
         <v>10</v>
       </c>
@@ -8982,19 +8979,19 @@
       <c r="Y155" s="58"/>
       <c r="Z155" s="58"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="82" t="s">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="83" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="82"/>
-      <c r="C156" s="82"/>
-      <c r="D156" s="82"/>
-      <c r="E156" s="82"/>
-      <c r="F156" s="82"/>
-      <c r="G156" s="82"/>
-      <c r="H156" s="82"/>
-      <c r="I156" s="82"/>
-      <c r="J156" s="82"/>
+      <c r="B156" s="83"/>
+      <c r="C156" s="83"/>
+      <c r="D156" s="83"/>
+      <c r="E156" s="83"/>
+      <c r="F156" s="83"/>
+      <c r="G156" s="83"/>
+      <c r="H156" s="83"/>
+      <c r="I156" s="83"/>
+      <c r="J156" s="83"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9012,7 +9009,7 @@
       <c r="Y156" s="58"/>
       <c r="Z156" s="58"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="25">
         <v>1</v>
       </c>
@@ -9060,19 +9057,19 @@
       <c r="Y157" s="58"/>
       <c r="Z157" s="58"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="82" t="s">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="83" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="82"/>
-      <c r="C158" s="82"/>
-      <c r="D158" s="82"/>
-      <c r="E158" s="82"/>
-      <c r="F158" s="82"/>
-      <c r="G158" s="82"/>
-      <c r="H158" s="82"/>
-      <c r="I158" s="82"/>
-      <c r="J158" s="82"/>
+      <c r="B158" s="83"/>
+      <c r="C158" s="83"/>
+      <c r="D158" s="83"/>
+      <c r="E158" s="83"/>
+      <c r="F158" s="83"/>
+      <c r="G158" s="83"/>
+      <c r="H158" s="83"/>
+      <c r="I158" s="83"/>
+      <c r="J158" s="83"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -9090,7 +9087,7 @@
       <c r="Y158" s="58"/>
       <c r="Z158" s="58"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="67">
         <v>1</v>
       </c>
@@ -9138,7 +9135,7 @@
       <c r="Y159" s="58"/>
       <c r="Z159" s="58"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="68">
         <v>2</v>
       </c>
@@ -9186,7 +9183,7 @@
       <c r="Y160" s="58"/>
       <c r="Z160" s="58"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="68">
         <v>3</v>
       </c>
@@ -9234,7 +9231,7 @@
       <c r="Y161" s="58"/>
       <c r="Z161" s="58"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="68">
         <v>4</v>
       </c>
@@ -9282,7 +9279,7 @@
       <c r="Y162" s="58"/>
       <c r="Z162" s="58"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="68">
         <v>5</v>
       </c>
@@ -9330,7 +9327,7 @@
       <c r="Y163" s="58"/>
       <c r="Z163" s="58"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="68">
         <v>6</v>
       </c>
@@ -9378,7 +9375,7 @@
       <c r="Y164" s="58"/>
       <c r="Z164" s="58"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="68">
         <v>7</v>
       </c>
@@ -9426,7 +9423,7 @@
       <c r="Y165" s="58"/>
       <c r="Z165" s="58"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="68">
         <v>8</v>
       </c>
@@ -9474,7 +9471,7 @@
       <c r="Y166" s="58"/>
       <c r="Z166" s="58"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="67">
         <v>9</v>
       </c>
@@ -9522,7 +9519,7 @@
       <c r="Y167" s="58"/>
       <c r="Z167" s="58"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="68">
         <v>10</v>
       </c>
@@ -9554,7 +9551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="67">
         <v>11</v>
       </c>
@@ -9586,7 +9583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="68">
         <v>12</v>
       </c>
@@ -9618,7 +9615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="67">
         <v>13</v>
       </c>
@@ -9650,7 +9647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="68">
         <v>14</v>
       </c>
@@ -9682,7 +9679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="67">
         <v>15</v>
       </c>
@@ -9714,7 +9711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="68">
         <v>16</v>
       </c>
@@ -9746,7 +9743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="67">
         <v>17</v>
       </c>
@@ -9778,7 +9775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="68">
         <v>18</v>
       </c>
@@ -9810,21 +9807,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="82" t="s">
-        <v>728</v>
-      </c>
-      <c r="B177" s="82"/>
-      <c r="C177" s="82"/>
-      <c r="D177" s="90"/>
-      <c r="E177" s="82"/>
-      <c r="F177" s="82"/>
-      <c r="G177" s="82"/>
-      <c r="H177" s="82"/>
-      <c r="I177" s="82"/>
-      <c r="J177" s="82"/>
-    </row>
-    <row r="178" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="83" t="s">
+        <v>727</v>
+      </c>
+      <c r="B177" s="83"/>
+      <c r="C177" s="83"/>
+      <c r="D177" s="82"/>
+      <c r="E177" s="83"/>
+      <c r="F177" s="83"/>
+      <c r="G177" s="83"/>
+      <c r="H177" s="83"/>
+      <c r="I177" s="83"/>
+      <c r="J177" s="83"/>
+    </row>
+    <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="68">
         <v>1</v>
       </c>
@@ -9832,10 +9829,10 @@
         <v>10</v>
       </c>
       <c r="C178" s="74" t="s">
+        <v>728</v>
+      </c>
+      <c r="D178" s="78" t="s">
         <v>729</v>
-      </c>
-      <c r="D178" s="78" t="s">
-        <v>730</v>
       </c>
       <c r="E178" s="75" t="s">
         <v>14</v>
@@ -9856,7 +9853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="68">
         <v>2</v>
       </c>
@@ -9864,10 +9861,10 @@
         <v>10</v>
       </c>
       <c r="C179" s="74" t="s">
+        <v>730</v>
+      </c>
+      <c r="D179" s="78" t="s">
         <v>731</v>
-      </c>
-      <c r="D179" s="78" t="s">
-        <v>732</v>
       </c>
       <c r="E179" s="75" t="s">
         <v>14</v>
@@ -9888,7 +9885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="68">
         <v>3</v>
       </c>
@@ -9896,10 +9893,10 @@
         <v>10</v>
       </c>
       <c r="C180" s="74" t="s">
+        <v>732</v>
+      </c>
+      <c r="D180" s="78" t="s">
         <v>733</v>
-      </c>
-      <c r="D180" s="78" t="s">
-        <v>734</v>
       </c>
       <c r="E180" s="75" t="s">
         <v>14</v>
@@ -9920,7 +9917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="68">
         <v>4</v>
       </c>
@@ -9928,10 +9925,10 @@
         <v>10</v>
       </c>
       <c r="C181" s="74" t="s">
+        <v>734</v>
+      </c>
+      <c r="D181" s="64" t="s">
         <v>735</v>
-      </c>
-      <c r="D181" s="64" t="s">
-        <v>736</v>
       </c>
       <c r="E181" s="75" t="s">
         <v>14</v>
@@ -9952,7 +9949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="68">
         <v>5</v>
       </c>
@@ -9960,10 +9957,10 @@
         <v>10</v>
       </c>
       <c r="C182" s="74" t="s">
+        <v>736</v>
+      </c>
+      <c r="D182" s="64" t="s">
         <v>737</v>
-      </c>
-      <c r="D182" s="64" t="s">
-        <v>738</v>
       </c>
       <c r="E182" s="75" t="s">
         <v>14</v>
@@ -9984,7 +9981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="68">
         <v>6</v>
       </c>
@@ -9992,10 +9989,10 @@
         <v>10</v>
       </c>
       <c r="C183" s="74" t="s">
+        <v>738</v>
+      </c>
+      <c r="D183" s="78" t="s">
         <v>739</v>
-      </c>
-      <c r="D183" s="78" t="s">
-        <v>740</v>
       </c>
       <c r="E183" s="75" t="s">
         <v>14</v>
@@ -10016,7 +10013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="68">
         <v>7</v>
       </c>
@@ -10024,10 +10021,10 @@
         <v>10</v>
       </c>
       <c r="C184" s="74" t="s">
+        <v>740</v>
+      </c>
+      <c r="D184" s="64" t="s">
         <v>741</v>
-      </c>
-      <c r="D184" s="64" t="s">
-        <v>742</v>
       </c>
       <c r="E184" s="75" t="s">
         <v>14</v>
@@ -10048,7 +10045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="68">
         <v>8</v>
       </c>
@@ -10056,10 +10053,10 @@
         <v>10</v>
       </c>
       <c r="C185" s="74" t="s">
+        <v>742</v>
+      </c>
+      <c r="D185" s="79" t="s">
         <v>743</v>
-      </c>
-      <c r="D185" s="79" t="s">
-        <v>744</v>
       </c>
       <c r="E185" s="75" t="s">
         <v>14</v>
@@ -10080,7 +10077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="68">
         <v>9</v>
       </c>
@@ -10112,21 +10109,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="95" t="s">
-        <v>626</v>
-      </c>
-      <c r="B187" s="96"/>
-      <c r="C187" s="96"/>
-      <c r="D187" s="96"/>
-      <c r="E187" s="96"/>
-      <c r="F187" s="96"/>
-      <c r="G187" s="96"/>
-      <c r="H187" s="96"/>
-      <c r="I187" s="96"/>
-      <c r="J187" s="97"/>
-    </row>
-    <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="84" t="s">
+        <v>625</v>
+      </c>
+      <c r="B187" s="85"/>
+      <c r="C187" s="85"/>
+      <c r="D187" s="85"/>
+      <c r="E187" s="85"/>
+      <c r="F187" s="85"/>
+      <c r="G187" s="85"/>
+      <c r="H187" s="85"/>
+      <c r="I187" s="85"/>
+      <c r="J187" s="86"/>
+    </row>
+    <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="68">
         <v>1</v>
       </c>
@@ -10134,16 +10131,16 @@
         <v>10</v>
       </c>
       <c r="C188" s="74" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D188" s="78" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E188" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F188" s="70" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G188" s="69" t="s">
         <v>11</v>
@@ -10158,7 +10155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="68">
         <v>2</v>
       </c>
@@ -10166,16 +10163,16 @@
         <v>10</v>
       </c>
       <c r="C189" s="74" t="s">
+        <v>633</v>
+      </c>
+      <c r="D189" s="78" t="s">
         <v>634</v>
-      </c>
-      <c r="D189" s="78" t="s">
-        <v>635</v>
       </c>
       <c r="E189" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F189" s="70" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G189" s="69" t="s">
         <v>11</v>
@@ -10190,7 +10187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="68">
         <v>3</v>
       </c>
@@ -10198,16 +10195,16 @@
         <v>10</v>
       </c>
       <c r="C190" s="74" t="s">
+        <v>635</v>
+      </c>
+      <c r="D190" s="79" t="s">
         <v>636</v>
-      </c>
-      <c r="D190" s="79" t="s">
-        <v>637</v>
       </c>
       <c r="E190" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F190" s="70" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G190" s="69" t="s">
         <v>11</v>
@@ -10222,7 +10219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="68">
         <v>4</v>
       </c>
@@ -10230,16 +10227,16 @@
         <v>10</v>
       </c>
       <c r="C191" s="74" t="s">
+        <v>639</v>
+      </c>
+      <c r="D191" s="79" t="s">
         <v>640</v>
-      </c>
-      <c r="D191" s="79" t="s">
-        <v>641</v>
       </c>
       <c r="E191" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F191" s="70" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G191" s="69" t="s">
         <v>11</v>
@@ -10254,7 +10251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="68">
         <v>5</v>
       </c>
@@ -10262,16 +10259,16 @@
         <v>10</v>
       </c>
       <c r="C192" s="74" t="s">
+        <v>642</v>
+      </c>
+      <c r="D192" s="79" t="s">
         <v>643</v>
-      </c>
-      <c r="D192" s="79" t="s">
-        <v>644</v>
       </c>
       <c r="E192" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F192" s="70" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G192" s="69" t="s">
         <v>11</v>
@@ -10286,21 +10283,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193" s="90" t="s">
-        <v>647</v>
-      </c>
-      <c r="B193" s="90"/>
-      <c r="C193" s="90"/>
-      <c r="D193" s="90"/>
-      <c r="E193" s="90"/>
-      <c r="F193" s="90"/>
-      <c r="G193" s="90"/>
-      <c r="H193" s="90"/>
-      <c r="I193" s="90"/>
-      <c r="J193" s="90"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193" s="82" t="s">
+        <v>646</v>
+      </c>
+      <c r="B193" s="82"/>
+      <c r="C193" s="82"/>
+      <c r="D193" s="82"/>
+      <c r="E193" s="82"/>
+      <c r="F193" s="82"/>
+      <c r="G193" s="82"/>
+      <c r="H193" s="82"/>
+      <c r="I193" s="82"/>
+      <c r="J193" s="82"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="48">
         <v>1</v>
       </c>
@@ -10308,16 +10305,16 @@
         <v>10</v>
       </c>
       <c r="C194" s="80" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D194" s="64" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E194" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F194" s="80" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G194" s="48" t="s">
         <v>11</v>
@@ -10332,7 +10329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="48">
         <v>2</v>
       </c>
@@ -10340,16 +10337,16 @@
         <v>10</v>
       </c>
       <c r="C195" s="80" t="s">
+        <v>651</v>
+      </c>
+      <c r="D195" s="79" t="s">
         <v>652</v>
-      </c>
-      <c r="D195" s="79" t="s">
-        <v>653</v>
       </c>
       <c r="E195" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F195" s="80" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G195" s="48" t="s">
         <v>11</v>
@@ -10364,7 +10361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="48">
         <v>3</v>
       </c>
@@ -10372,16 +10369,16 @@
         <v>10</v>
       </c>
       <c r="C196" s="80" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D196" s="79" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E196" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F196" s="80" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G196" s="48" t="s">
         <v>11</v>
@@ -10396,7 +10393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="48">
         <v>4</v>
       </c>
@@ -10404,16 +10401,16 @@
         <v>10</v>
       </c>
       <c r="C197" s="80" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D197" s="79" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E197" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F197" s="80" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G197" s="48" t="s">
         <v>11</v>
@@ -10428,21 +10425,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" s="90" t="s">
-        <v>660</v>
-      </c>
-      <c r="B198" s="90"/>
-      <c r="C198" s="90"/>
-      <c r="D198" s="90"/>
-      <c r="E198" s="90"/>
-      <c r="F198" s="90"/>
-      <c r="G198" s="90"/>
-      <c r="H198" s="90"/>
-      <c r="I198" s="90"/>
-      <c r="J198" s="90"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198" s="82" t="s">
+        <v>659</v>
+      </c>
+      <c r="B198" s="82"/>
+      <c r="C198" s="82"/>
+      <c r="D198" s="82"/>
+      <c r="E198" s="82"/>
+      <c r="F198" s="82"/>
+      <c r="G198" s="82"/>
+      <c r="H198" s="82"/>
+      <c r="I198" s="82"/>
+      <c r="J198" s="82"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="48">
         <v>1</v>
       </c>
@@ -10450,16 +10447,16 @@
         <v>10</v>
       </c>
       <c r="C199" s="80" t="s">
+        <v>660</v>
+      </c>
+      <c r="D199" s="79" t="s">
         <v>661</v>
-      </c>
-      <c r="D199" s="79" t="s">
-        <v>662</v>
       </c>
       <c r="E199" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F199" s="80" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G199" s="48" t="s">
         <v>11</v>
@@ -10474,21 +10471,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" s="90" t="s">
-        <v>666</v>
-      </c>
-      <c r="B200" s="90"/>
-      <c r="C200" s="90"/>
-      <c r="D200" s="90"/>
-      <c r="E200" s="90"/>
-      <c r="F200" s="90"/>
-      <c r="G200" s="90"/>
-      <c r="H200" s="90"/>
-      <c r="I200" s="90"/>
-      <c r="J200" s="90"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200" s="82" t="s">
+        <v>665</v>
+      </c>
+      <c r="B200" s="82"/>
+      <c r="C200" s="82"/>
+      <c r="D200" s="82"/>
+      <c r="E200" s="82"/>
+      <c r="F200" s="82"/>
+      <c r="G200" s="82"/>
+      <c r="H200" s="82"/>
+      <c r="I200" s="82"/>
+      <c r="J200" s="82"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="48">
         <v>1</v>
       </c>
@@ -10496,16 +10493,16 @@
         <v>10</v>
       </c>
       <c r="C201" s="80" t="s">
+        <v>666</v>
+      </c>
+      <c r="D201" s="79" t="s">
         <v>667</v>
-      </c>
-      <c r="D201" s="79" t="s">
-        <v>668</v>
       </c>
       <c r="E201" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F201" s="80" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G201" s="48" t="s">
         <v>11</v>
@@ -10520,7 +10517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="48">
         <v>2</v>
       </c>
@@ -10528,16 +10525,16 @@
         <v>10</v>
       </c>
       <c r="C202" s="80" t="s">
+        <v>668</v>
+      </c>
+      <c r="D202" s="79" t="s">
         <v>669</v>
-      </c>
-      <c r="D202" s="79" t="s">
-        <v>670</v>
       </c>
       <c r="E202" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F202" s="80" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G202" s="48" t="s">
         <v>11</v>
@@ -10552,7 +10549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="48">
         <v>3</v>
       </c>
@@ -10560,16 +10557,16 @@
         <v>10</v>
       </c>
       <c r="C203" s="80" t="s">
+        <v>671</v>
+      </c>
+      <c r="D203" s="79" t="s">
         <v>672</v>
-      </c>
-      <c r="D203" s="79" t="s">
-        <v>673</v>
       </c>
       <c r="E203" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F203" s="80" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G203" s="48" t="s">
         <v>11</v>
@@ -10584,7 +10581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="48">
         <v>4</v>
       </c>
@@ -10592,16 +10589,16 @@
         <v>10</v>
       </c>
       <c r="C204" s="80" t="s">
+        <v>676</v>
+      </c>
+      <c r="D204" s="79" t="s">
         <v>677</v>
-      </c>
-      <c r="D204" s="79" t="s">
-        <v>678</v>
       </c>
       <c r="E204" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F204" s="80" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G204" s="48" t="s">
         <v>11</v>
@@ -10616,7 +10613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="48">
         <v>5</v>
       </c>
@@ -10624,16 +10621,16 @@
         <v>10</v>
       </c>
       <c r="C205" s="80" t="s">
+        <v>678</v>
+      </c>
+      <c r="D205" s="79" t="s">
         <v>679</v>
-      </c>
-      <c r="D205" s="79" t="s">
-        <v>680</v>
       </c>
       <c r="E205" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F205" s="80" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G205" s="48" t="s">
         <v>11</v>
@@ -10648,7 +10645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="48">
         <v>6</v>
       </c>
@@ -10656,16 +10653,16 @@
         <v>10</v>
       </c>
       <c r="C206" s="80" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D206" s="79" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E206" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F206" s="80" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G206" s="48" t="s">
         <v>11</v>
@@ -10680,7 +10677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="48">
         <v>7</v>
       </c>
@@ -10688,16 +10685,16 @@
         <v>10</v>
       </c>
       <c r="C207" s="80" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D207" s="79" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E207" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F207" s="80" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G207" s="48" t="s">
         <v>11</v>
@@ -10714,6 +10711,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A106:J106"/>
+    <mergeCell ref="A121:J121"/>
+    <mergeCell ref="A123:J123"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
     <mergeCell ref="A200:J200"/>
     <mergeCell ref="A125:J125"/>
     <mergeCell ref="A198:J198"/>
@@ -10724,14 +10729,6 @@
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A177:J177"/>
     <mergeCell ref="A133:J133"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="A106:J106"/>
-    <mergeCell ref="A121:J121"/>
-    <mergeCell ref="A123:J123"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -10831,38 +10828,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
   <dimension ref="A1:AD199"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174:A182"/>
+    <sheetView tabSelected="1" topLeftCell="T165" workbookViewId="0">
+      <selection activeCell="AC176" sqref="AC176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
-    <col min="12" max="12" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="12" max="12" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="71.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="71.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
     <col min="24" max="25" width="29" customWidth="1"/>
-    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.42578125" customWidth="1"/>
-    <col min="29" max="29" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" customWidth="1"/>
+    <col min="26" max="26" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.44140625" customWidth="1"/>
+    <col min="29" max="29" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
@@ -10927,19 +10924,19 @@
         <v>490</v>
       </c>
       <c r="V1" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W1" s="30" t="s">
         <v>346</v>
       </c>
       <c r="X1" s="30" t="s">
+        <v>723</v>
+      </c>
+      <c r="Y1" s="31" t="s">
         <v>724</v>
       </c>
-      <c r="Y1" s="31" t="s">
+      <c r="Z1" s="31" t="s">
         <v>725</v>
-      </c>
-      <c r="Z1" s="31" t="s">
-        <v>726</v>
       </c>
       <c r="AA1" s="31" t="s">
         <v>610</v>
@@ -10951,10 +10948,10 @@
         <v>607</v>
       </c>
       <c r="AD1" s="31" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>23</v>
       </c>
@@ -11034,7 +11031,7 @@
       <c r="AC2" s="28"/>
       <c r="AD2" s="28"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>25</v>
       </c>
@@ -11114,7 +11111,7 @@
       <c r="AC3" s="28"/>
       <c r="AD3" s="28"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>28</v>
       </c>
@@ -11194,7 +11191,7 @@
       <c r="AC4" s="28"/>
       <c r="AD4" s="28"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>58</v>
       </c>
@@ -11274,7 +11271,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>69</v>
       </c>
@@ -11354,7 +11351,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>73</v>
       </c>
@@ -11434,7 +11431,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
     </row>
-    <row r="8" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>77</v>
       </c>
@@ -11514,7 +11511,7 @@
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>79</v>
       </c>
@@ -11594,7 +11591,7 @@
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>80</v>
       </c>
@@ -11674,7 +11671,7 @@
       <c r="AC10" s="28"/>
       <c r="AD10" s="28"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>81</v>
       </c>
@@ -11754,7 +11751,7 @@
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
         <v>83</v>
       </c>
@@ -11834,7 +11831,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>84</v>
       </c>
@@ -11914,7 +11911,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>85</v>
       </c>
@@ -11994,7 +11991,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>86</v>
       </c>
@@ -12074,7 +12071,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>87</v>
       </c>
@@ -12154,7 +12151,7 @@
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
         <v>88</v>
       </c>
@@ -12234,7 +12231,7 @@
       <c r="AC17" s="28"/>
       <c r="AD17" s="28"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>89</v>
       </c>
@@ -12314,7 +12311,7 @@
       <c r="AC18" s="28"/>
       <c r="AD18" s="28"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
         <v>91</v>
       </c>
@@ -12394,7 +12391,7 @@
       <c r="AC19" s="28"/>
       <c r="AD19" s="28"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>93</v>
       </c>
@@ -12474,7 +12471,7 @@
       <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
         <v>94</v>
       </c>
@@ -12554,7 +12551,7 @@
       <c r="AC21" s="28"/>
       <c r="AD21" s="28"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
         <v>135</v>
       </c>
@@ -12634,7 +12631,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
         <v>140</v>
       </c>
@@ -12714,7 +12711,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="53" t="s">
         <v>63</v>
       </c>
@@ -12794,7 +12791,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="46" t="s">
         <v>144</v>
       </c>
@@ -12874,7 +12871,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="46" t="s">
         <v>145</v>
       </c>
@@ -12954,7 +12951,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="46" t="s">
         <v>146</v>
       </c>
@@ -13034,7 +13031,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="46" t="s">
         <v>147</v>
       </c>
@@ -13114,7 +13111,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="s">
         <v>148</v>
       </c>
@@ -13194,7 +13191,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="46" t="s">
         <v>150</v>
       </c>
@@ -13274,7 +13271,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
         <v>151</v>
       </c>
@@ -13354,7 +13351,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>152</v>
       </c>
@@ -13434,7 +13431,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
         <v>153</v>
       </c>
@@ -13514,7 +13511,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
         <v>154</v>
       </c>
@@ -13594,7 +13591,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="s">
         <v>155</v>
       </c>
@@ -13674,7 +13671,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
         <v>64</v>
       </c>
@@ -13754,7 +13751,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="54" t="s">
         <v>175</v>
       </c>
@@ -13836,7 +13833,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>179</v>
       </c>
@@ -13918,7 +13915,7 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>182</v>
       </c>
@@ -14000,7 +13997,7 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>185</v>
       </c>
@@ -14082,7 +14079,7 @@
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>188</v>
       </c>
@@ -14164,7 +14161,7 @@
       <c r="AC41" s="28"/>
       <c r="AD41" s="28"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>190</v>
       </c>
@@ -14246,7 +14243,7 @@
       <c r="AC42" s="28"/>
       <c r="AD42" s="28"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>193</v>
       </c>
@@ -14328,7 +14325,7 @@
       <c r="AC43" s="28"/>
       <c r="AD43" s="28"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>196</v>
       </c>
@@ -14410,7 +14407,7 @@
       <c r="AC44" s="28"/>
       <c r="AD44" s="28"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>198</v>
       </c>
@@ -14492,7 +14489,7 @@
       <c r="AC45" s="28"/>
       <c r="AD45" s="28"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
         <v>200</v>
       </c>
@@ -14574,7 +14571,7 @@
       <c r="AC46" s="28"/>
       <c r="AD46" s="28"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>202</v>
       </c>
@@ -14656,7 +14653,7 @@
       <c r="AC47" s="28"/>
       <c r="AD47" s="28"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="47" t="s">
         <v>204</v>
       </c>
@@ -14738,7 +14735,7 @@
       <c r="AC48" s="28"/>
       <c r="AD48" s="28"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>206</v>
       </c>
@@ -14820,7 +14817,7 @@
       <c r="AC49" s="28"/>
       <c r="AD49" s="28"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>208</v>
       </c>
@@ -14902,7 +14899,7 @@
       <c r="AC50" s="28"/>
       <c r="AD50" s="28"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>210</v>
       </c>
@@ -14984,7 +14981,7 @@
       <c r="AC51" s="28"/>
       <c r="AD51" s="28"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
         <v>212</v>
       </c>
@@ -15066,9 +15063,9 @@
       <c r="AC52" s="28"/>
       <c r="AD52" s="28"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B53" s="48" t="s">
         <v>22</v>
@@ -15148,7 +15145,7 @@
       <c r="AC53" s="28"/>
       <c r="AD53" s="28"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="55" t="s">
         <v>213</v>
       </c>
@@ -15230,7 +15227,7 @@
       <c r="AC54" s="28"/>
       <c r="AD54" s="28"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="48" t="s">
         <v>214</v>
       </c>
@@ -15312,7 +15309,7 @@
       <c r="AC55" s="28"/>
       <c r="AD55" s="28"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>215</v>
       </c>
@@ -15394,7 +15391,7 @@
       <c r="AC56" s="28"/>
       <c r="AD56" s="28"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="48" t="s">
         <v>216</v>
       </c>
@@ -15476,7 +15473,7 @@
       <c r="AC57" s="28"/>
       <c r="AD57" s="28"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
         <v>217</v>
       </c>
@@ -15558,7 +15555,7 @@
       <c r="AC58" s="28"/>
       <c r="AD58" s="28"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="48" t="s">
         <v>218</v>
       </c>
@@ -15640,7 +15637,7 @@
       <c r="AC59" s="28"/>
       <c r="AD59" s="28"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="48" t="s">
         <v>219</v>
       </c>
@@ -15722,7 +15719,7 @@
       <c r="AC60" s="28"/>
       <c r="AD60" s="28"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="48" t="s">
         <v>220</v>
       </c>
@@ -15804,7 +15801,7 @@
       <c r="AC61" s="28"/>
       <c r="AD61" s="28"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>221</v>
       </c>
@@ -15886,7 +15883,7 @@
       <c r="AC62" s="28"/>
       <c r="AD62" s="28"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="51" t="s">
         <v>222</v>
       </c>
@@ -15968,7 +15965,7 @@
       <c r="AC63" s="28"/>
       <c r="AD63" s="28"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="56" t="s">
         <v>249</v>
       </c>
@@ -16050,7 +16047,7 @@
       <c r="AC64" s="28"/>
       <c r="AD64" s="28"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="48" t="s">
         <v>253</v>
       </c>
@@ -16132,7 +16129,7 @@
       <c r="AC65" s="28"/>
       <c r="AD65" s="28"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="48" t="s">
         <v>256</v>
       </c>
@@ -16214,7 +16211,7 @@
       <c r="AC66" s="28"/>
       <c r="AD66" s="28"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" s="48" t="s">
         <v>259</v>
       </c>
@@ -16296,7 +16293,7 @@
       <c r="AC67" s="28"/>
       <c r="AD67" s="28"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" s="48" t="s">
         <v>262</v>
       </c>
@@ -16378,7 +16375,7 @@
       <c r="AC68" s="28"/>
       <c r="AD68" s="28"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" s="48" t="s">
         <v>265</v>
       </c>
@@ -16460,7 +16457,7 @@
       <c r="AC69" s="28"/>
       <c r="AD69" s="28"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>268</v>
       </c>
@@ -16542,7 +16539,7 @@
       <c r="AC70" s="28"/>
       <c r="AD70" s="28"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" s="48" t="s">
         <v>271</v>
       </c>
@@ -16624,7 +16621,7 @@
       <c r="AC71" s="28"/>
       <c r="AD71" s="28"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
         <v>274</v>
       </c>
@@ -16706,7 +16703,7 @@
       <c r="AC72" s="28"/>
       <c r="AD72" s="28"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" s="48" t="s">
         <v>277</v>
       </c>
@@ -16788,7 +16785,7 @@
       <c r="AC73" s="28"/>
       <c r="AD73" s="28"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" s="51" t="s">
         <v>280</v>
       </c>
@@ -16872,7 +16869,7 @@
       <c r="AC74" s="28"/>
       <c r="AD74" s="28"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75" s="62" t="s">
         <v>282</v>
       </c>
@@ -16956,7 +16953,7 @@
       <c r="AC75" s="28"/>
       <c r="AD75" s="28"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
         <v>285</v>
       </c>
@@ -17040,7 +17037,7 @@
       <c r="AC76" s="28"/>
       <c r="AD76" s="28"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" s="48" t="s">
         <v>287</v>
       </c>
@@ -17124,7 +17121,7 @@
       <c r="AC77" s="28"/>
       <c r="AD77" s="28"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" s="48" t="s">
         <v>289</v>
       </c>
@@ -17208,7 +17205,7 @@
       <c r="AC78" s="28"/>
       <c r="AD78" s="28"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79" s="48" t="s">
         <v>292</v>
       </c>
@@ -17292,7 +17289,7 @@
       <c r="AC79" s="28"/>
       <c r="AD79" s="28"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80" s="48" t="s">
         <v>295</v>
       </c>
@@ -17376,7 +17373,7 @@
       <c r="AC80" s="28"/>
       <c r="AD80" s="28"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" s="48" t="s">
         <v>298</v>
       </c>
@@ -17460,7 +17457,7 @@
       <c r="AC81" s="28"/>
       <c r="AD81" s="28"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82" s="48" t="s">
         <v>301</v>
       </c>
@@ -17544,7 +17541,7 @@
       <c r="AC82" s="28"/>
       <c r="AD82" s="28"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
         <v>304</v>
       </c>
@@ -17628,7 +17625,7 @@
       <c r="AC83" s="28"/>
       <c r="AD83" s="28"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" s="48" t="s">
         <v>306</v>
       </c>
@@ -17712,7 +17709,7 @@
       <c r="AC84" s="28"/>
       <c r="AD84" s="28"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" s="48" t="s">
         <v>308</v>
       </c>
@@ -17796,7 +17793,7 @@
       <c r="AC85" s="28"/>
       <c r="AD85" s="28"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>310</v>
       </c>
@@ -17880,7 +17877,7 @@
       <c r="AC86" s="28"/>
       <c r="AD86" s="28"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87" s="48" t="s">
         <v>313</v>
       </c>
@@ -17964,7 +17961,7 @@
       <c r="AC87" s="28"/>
       <c r="AD87" s="28"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88" s="48" t="s">
         <v>316</v>
       </c>
@@ -18048,7 +18045,7 @@
       <c r="AC88" s="28"/>
       <c r="AD88" s="28"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89" s="48" t="s">
         <v>319</v>
       </c>
@@ -18132,7 +18129,7 @@
       <c r="AC89" s="28"/>
       <c r="AD89" s="28"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90" s="48" t="s">
         <v>322</v>
       </c>
@@ -18216,7 +18213,7 @@
       <c r="AC90" s="28"/>
       <c r="AD90" s="28"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91" s="48" t="s">
         <v>324</v>
       </c>
@@ -18300,7 +18297,7 @@
       <c r="AC91" s="28"/>
       <c r="AD91" s="28"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92" s="48" t="s">
         <v>327</v>
       </c>
@@ -18384,7 +18381,7 @@
       <c r="AC92" s="28"/>
       <c r="AD92" s="28"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93" s="48" t="s">
         <v>330</v>
       </c>
@@ -18468,7 +18465,7 @@
       <c r="AC93" s="28"/>
       <c r="AD93" s="28"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94" s="48" t="s">
         <v>332</v>
       </c>
@@ -18552,7 +18549,7 @@
       <c r="AC94" s="28"/>
       <c r="AD94" s="28"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" s="48" t="s">
         <v>334</v>
       </c>
@@ -18636,7 +18633,7 @@
       <c r="AC95" s="28"/>
       <c r="AD95" s="28"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A96" s="48" t="s">
         <v>336</v>
       </c>
@@ -18720,7 +18717,7 @@
       <c r="AC96" s="28"/>
       <c r="AD96" s="28"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97" s="48" t="s">
         <v>338</v>
       </c>
@@ -18804,7 +18801,7 @@
       <c r="AC97" s="28"/>
       <c r="AD97" s="28"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98" s="48" t="s">
         <v>340</v>
       </c>
@@ -18888,7 +18885,7 @@
       <c r="AC98" s="28"/>
       <c r="AD98" s="28"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A99" s="48" t="s">
         <v>342</v>
       </c>
@@ -18972,7 +18969,7 @@
       <c r="AC99" s="28"/>
       <c r="AD99" s="28"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A100" s="48" t="s">
         <v>344</v>
       </c>
@@ -19056,7 +19053,7 @@
       <c r="AC100" s="28"/>
       <c r="AD100" s="28"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A101" s="48" t="s">
         <v>597</v>
       </c>
@@ -19140,7 +19137,7 @@
       <c r="AC101" s="28"/>
       <c r="AD101" s="28"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A102" s="48" t="s">
         <v>348</v>
       </c>
@@ -19224,7 +19221,7 @@
       <c r="AC102" s="28"/>
       <c r="AD102" s="28"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A103" s="48" t="s">
         <v>352</v>
       </c>
@@ -19308,7 +19305,7 @@
       <c r="AC103" s="28"/>
       <c r="AD103" s="28"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A104" s="48" t="s">
         <v>355</v>
       </c>
@@ -19392,7 +19389,7 @@
       <c r="AC104" s="28"/>
       <c r="AD104" s="28"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A105" s="48" t="s">
         <v>358</v>
       </c>
@@ -19476,7 +19473,7 @@
       <c r="AC105" s="28"/>
       <c r="AD105" s="28"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A106" s="48" t="s">
         <v>361</v>
       </c>
@@ -19560,7 +19557,7 @@
       <c r="AC106" s="28"/>
       <c r="AD106" s="28"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A107" s="48" t="s">
         <v>364</v>
       </c>
@@ -19644,7 +19641,7 @@
       <c r="AC107" s="28"/>
       <c r="AD107" s="28"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A108" s="48" t="s">
         <v>367</v>
       </c>
@@ -19728,7 +19725,7 @@
       <c r="AC108" s="28"/>
       <c r="AD108" s="28"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A109" s="48" t="s">
         <v>369</v>
       </c>
@@ -19812,7 +19809,7 @@
       <c r="AC109" s="28"/>
       <c r="AD109" s="28"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A110" s="48" t="s">
         <v>371</v>
       </c>
@@ -19896,7 +19893,7 @@
       <c r="AC110" s="28"/>
       <c r="AD110" s="28"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A111" s="48" t="s">
         <v>598</v>
       </c>
@@ -19980,9 +19977,9 @@
       <c r="AC111" s="28"/>
       <c r="AD111" s="28"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A112" s="48" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B112" s="48" t="s">
         <v>22</v>
@@ -20045,7 +20042,7 @@
         <v>22</v>
       </c>
       <c r="V112" s="36" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="W112" s="28" t="s">
         <v>22</v>
@@ -20064,9 +20061,9 @@
       <c r="AC112" s="28"/>
       <c r="AD112" s="28"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A113" s="48" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B113" s="48" t="s">
         <v>22</v>
@@ -20148,9 +20145,9 @@
       <c r="AC113" s="28"/>
       <c r="AD113" s="28"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A114" s="48" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B114" s="48" t="s">
         <v>22</v>
@@ -20216,13 +20213,13 @@
         <v>22</v>
       </c>
       <c r="W114" s="28" t="s">
+        <v>717</v>
+      </c>
+      <c r="X114" s="28" t="s">
         <v>718</v>
       </c>
-      <c r="X114" s="28" t="s">
+      <c r="Y114" s="48" t="s">
         <v>719</v>
-      </c>
-      <c r="Y114" s="48" t="s">
-        <v>720</v>
       </c>
       <c r="Z114" s="48" t="s">
         <v>22</v>
@@ -20232,9 +20229,9 @@
       <c r="AC114" s="28"/>
       <c r="AD114" s="28"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A115" s="48" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B115" s="48" t="s">
         <v>22</v>
@@ -20309,14 +20306,14 @@
         <v>22</v>
       </c>
       <c r="Z115" s="36" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AA115" s="28"/>
       <c r="AB115" s="28"/>
       <c r="AC115" s="28"/>
       <c r="AD115" s="28"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A116" s="48" t="s">
         <v>378</v>
       </c>
@@ -20400,7 +20397,7 @@
       <c r="AC116" s="28"/>
       <c r="AD116" s="28"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A117" s="48" t="s">
         <v>383</v>
       </c>
@@ -20484,7 +20481,7 @@
       <c r="AC117" s="28"/>
       <c r="AD117" s="28"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A118" s="48" t="s">
         <v>397</v>
       </c>
@@ -20568,7 +20565,7 @@
       <c r="AC118" s="28"/>
       <c r="AD118" s="28"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A119" s="48" t="s">
         <v>399</v>
       </c>
@@ -20652,7 +20649,7 @@
       <c r="AC119" s="28"/>
       <c r="AD119" s="28"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A120" s="48" t="s">
         <v>400</v>
       </c>
@@ -20736,7 +20733,7 @@
       <c r="AC120" s="28"/>
       <c r="AD120" s="28"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A121" s="48" t="s">
         <v>401</v>
       </c>
@@ -20820,7 +20817,7 @@
       <c r="AC121" s="28"/>
       <c r="AD121" s="28"/>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A122" s="48" t="s">
         <v>402</v>
       </c>
@@ -20904,7 +20901,7 @@
       <c r="AC122" s="28"/>
       <c r="AD122" s="28"/>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A123" s="48" t="s">
         <v>403</v>
       </c>
@@ -20988,7 +20985,7 @@
       <c r="AC123" s="28"/>
       <c r="AD123" s="28"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A124" s="48" t="s">
         <v>405</v>
       </c>
@@ -21072,7 +21069,7 @@
       <c r="AC124" s="28"/>
       <c r="AD124" s="28"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A125" s="48" t="s">
         <v>407</v>
       </c>
@@ -21156,7 +21153,7 @@
       <c r="AC125" s="28"/>
       <c r="AD125" s="28"/>
     </row>
-    <row r="126" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A126" s="62" t="s">
         <v>413</v>
       </c>
@@ -21240,7 +21237,7 @@
       <c r="AC126" s="28"/>
       <c r="AD126" s="28"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A127" s="48" t="s">
         <v>417</v>
       </c>
@@ -21324,7 +21321,7 @@
       <c r="AC127" s="28"/>
       <c r="AD127" s="28"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A128" s="48" t="s">
         <v>420</v>
       </c>
@@ -21408,7 +21405,7 @@
       <c r="AC128" s="28"/>
       <c r="AD128" s="28"/>
     </row>
-    <row r="129" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A129" s="48" t="s">
         <v>422</v>
       </c>
@@ -21492,7 +21489,7 @@
       <c r="AC129" s="28"/>
       <c r="AD129" s="28"/>
     </row>
-    <row r="130" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A130" s="48" t="s">
         <v>424</v>
       </c>
@@ -21576,7 +21573,7 @@
       <c r="AC130" s="28"/>
       <c r="AD130" s="28"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A131" s="48" t="s">
         <v>427</v>
       </c>
@@ -21660,7 +21657,7 @@
       <c r="AC131" s="28"/>
       <c r="AD131" s="28"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A132" s="48" t="s">
         <v>430</v>
       </c>
@@ -21744,7 +21741,7 @@
       <c r="AC132" s="28"/>
       <c r="AD132" s="28"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A133" s="48" t="s">
         <v>433</v>
       </c>
@@ -21828,7 +21825,7 @@
       <c r="AC133" s="28"/>
       <c r="AD133" s="28"/>
     </row>
-    <row r="134" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A134" s="48" t="s">
         <v>436</v>
       </c>
@@ -21912,7 +21909,7 @@
       <c r="AC134" s="28"/>
       <c r="AD134" s="28"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A135" s="48" t="s">
         <v>438</v>
       </c>
@@ -21996,9 +21993,9 @@
       <c r="AC135" s="28"/>
       <c r="AD135" s="28"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A136" s="48" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B136" s="48" t="s">
         <v>22</v>
@@ -22080,7 +22077,7 @@
       <c r="AC136" s="28"/>
       <c r="AD136" s="28"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A137" s="48" t="s">
         <v>397</v>
       </c>
@@ -22164,7 +22161,7 @@
       <c r="AC137" s="28"/>
       <c r="AD137" s="28"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A138" s="48" t="s">
         <v>399</v>
       </c>
@@ -22248,7 +22245,7 @@
       <c r="AC138" s="28"/>
       <c r="AD138" s="28"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A139" s="48" t="s">
         <v>400</v>
       </c>
@@ -22332,7 +22329,7 @@
       <c r="AC139" s="28"/>
       <c r="AD139" s="28"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A140" s="48" t="s">
         <v>401</v>
       </c>
@@ -22416,7 +22413,7 @@
       <c r="AC140" s="28"/>
       <c r="AD140" s="28"/>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A141" s="48" t="s">
         <v>402</v>
       </c>
@@ -22500,7 +22497,7 @@
       <c r="AC141" s="28"/>
       <c r="AD141" s="28"/>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A142" s="48" t="s">
         <v>403</v>
       </c>
@@ -22584,7 +22581,7 @@
       <c r="AC142" s="28"/>
       <c r="AD142" s="28"/>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A143" s="48" t="s">
         <v>405</v>
       </c>
@@ -22668,7 +22665,7 @@
       <c r="AC143" s="28"/>
       <c r="AD143" s="28"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A144" s="48" t="s">
         <v>442</v>
       </c>
@@ -22752,7 +22749,7 @@
       <c r="AC144" s="28"/>
       <c r="AD144" s="28"/>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A145" s="48" t="s">
         <v>446</v>
       </c>
@@ -22836,7 +22833,7 @@
       <c r="AC145" s="28"/>
       <c r="AD145" s="28"/>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A146" s="48" t="s">
         <v>449</v>
       </c>
@@ -22920,7 +22917,7 @@
       <c r="AC146" s="28"/>
       <c r="AD146" s="28"/>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A147" s="48" t="s">
         <v>451</v>
       </c>
@@ -23004,7 +23001,7 @@
       <c r="AC147" s="28"/>
       <c r="AD147" s="28"/>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A148" s="48" t="s">
         <v>454</v>
       </c>
@@ -23088,7 +23085,7 @@
       <c r="AC148" s="28"/>
       <c r="AD148" s="28"/>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A149" s="48" t="s">
         <v>457</v>
       </c>
@@ -23172,7 +23169,7 @@
       <c r="AC149" s="28"/>
       <c r="AD149" s="28"/>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A150" s="48" t="s">
         <v>460</v>
       </c>
@@ -23256,7 +23253,7 @@
       <c r="AC150" s="28"/>
       <c r="AD150" s="28"/>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A151" s="48" t="s">
         <v>463</v>
       </c>
@@ -23340,7 +23337,7 @@
       <c r="AC151" s="28"/>
       <c r="AD151" s="28"/>
     </row>
-    <row r="152" spans="1:30" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:30" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A152" s="48" t="s">
         <v>466</v>
       </c>
@@ -23424,7 +23421,7 @@
       <c r="AC152" s="28"/>
       <c r="AD152" s="28"/>
     </row>
-    <row r="153" spans="1:30" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:30" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A153" s="48" t="s">
         <v>469</v>
       </c>
@@ -23486,7 +23483,7 @@
         <v>22</v>
       </c>
       <c r="U153" s="48" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="V153" s="48" t="s">
         <v>22</v>
@@ -23508,7 +23505,7 @@
       <c r="AC153" s="28"/>
       <c r="AD153" s="28"/>
     </row>
-    <row r="154" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="48" t="s">
         <v>509</v>
       </c>
@@ -23592,7 +23589,7 @@
       <c r="AC154" s="28"/>
       <c r="AD154" s="28"/>
     </row>
-    <row r="155" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="66" t="s">
         <v>539</v>
       </c>
@@ -23676,7 +23673,7 @@
       <c r="AC155" s="28"/>
       <c r="AD155" s="28"/>
     </row>
-    <row r="156" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="70" t="s">
         <v>543</v>
       </c>
@@ -23760,7 +23757,7 @@
       <c r="AC156" s="28"/>
       <c r="AD156" s="28"/>
     </row>
-    <row r="157" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="66" t="s">
         <v>546</v>
       </c>
@@ -23844,7 +23841,7 @@
       <c r="AC157" s="28"/>
       <c r="AD157" s="28"/>
     </row>
-    <row r="158" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="70" t="s">
         <v>549</v>
       </c>
@@ -23928,7 +23925,7 @@
       <c r="AC158" s="28"/>
       <c r="AD158" s="28"/>
     </row>
-    <row r="159" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="66" t="s">
         <v>551</v>
       </c>
@@ -24012,7 +24009,7 @@
       <c r="AC159" s="28"/>
       <c r="AD159" s="28"/>
     </row>
-    <row r="160" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="70" t="s">
         <v>553</v>
       </c>
@@ -24096,7 +24093,7 @@
       <c r="AC160" s="28"/>
       <c r="AD160" s="28"/>
     </row>
-    <row r="161" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="66" t="s">
         <v>555</v>
       </c>
@@ -24180,7 +24177,7 @@
       <c r="AC161" s="28"/>
       <c r="AD161" s="28"/>
     </row>
-    <row r="162" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="70" t="s">
         <v>557</v>
       </c>
@@ -24264,7 +24261,7 @@
       <c r="AC162" s="28"/>
       <c r="AD162" s="28"/>
     </row>
-    <row r="163" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="66" t="s">
         <v>559</v>
       </c>
@@ -24348,7 +24345,7 @@
       <c r="AC163" s="28"/>
       <c r="AD163" s="28"/>
     </row>
-    <row r="164" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="70" t="s">
         <v>562</v>
       </c>
@@ -24432,7 +24429,7 @@
       <c r="AC164" s="28"/>
       <c r="AD164" s="28"/>
     </row>
-    <row r="165" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="66" t="s">
         <v>565</v>
       </c>
@@ -24516,7 +24513,7 @@
       <c r="AC165" s="28"/>
       <c r="AD165" s="28"/>
     </row>
-    <row r="166" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="70" t="s">
         <v>568</v>
       </c>
@@ -24600,7 +24597,7 @@
       <c r="AC166" s="28"/>
       <c r="AD166" s="28"/>
     </row>
-    <row r="167" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="66" t="s">
         <v>571</v>
       </c>
@@ -24684,7 +24681,7 @@
       <c r="AC167" s="28"/>
       <c r="AD167" s="28"/>
     </row>
-    <row r="168" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="70" t="s">
         <v>574</v>
       </c>
@@ -24768,7 +24765,7 @@
       <c r="AC168" s="28"/>
       <c r="AD168" s="28"/>
     </row>
-    <row r="169" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="66" t="s">
         <v>577</v>
       </c>
@@ -24852,7 +24849,7 @@
       <c r="AC169" s="28"/>
       <c r="AD169" s="28"/>
     </row>
-    <row r="170" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="66" t="s">
         <v>579</v>
       </c>
@@ -24936,7 +24933,7 @@
       <c r="AC170" s="28"/>
       <c r="AD170" s="28"/>
     </row>
-    <row r="171" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="66" t="s">
         <v>581</v>
       </c>
@@ -25020,7 +25017,7 @@
       <c r="AC171" s="28"/>
       <c r="AD171" s="28"/>
     </row>
-    <row r="172" spans="1:30" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:30" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="66" t="s">
         <v>584</v>
       </c>
@@ -25104,7 +25101,7 @@
       <c r="AC172" s="28"/>
       <c r="AD172" s="28"/>
     </row>
-    <row r="173" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="76"/>
       <c r="B173" s="48"/>
       <c r="C173" s="36"/>
@@ -25148,7 +25145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:30" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="70" t="s">
         <v>601</v>
       </c>
@@ -25240,7 +25237,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="70" t="s">
         <v>605</v>
       </c>
@@ -25332,7 +25329,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="70" t="s">
         <v>608</v>
       </c>
@@ -25424,7 +25421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="70" t="s">
         <v>609</v>
       </c>
@@ -25516,7 +25513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="70" t="s">
         <v>613</v>
       </c>
@@ -25608,7 +25605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="70" t="s">
         <v>614</v>
       </c>
@@ -25694,13 +25691,13 @@
         <v>22</v>
       </c>
       <c r="AC179" s="77" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AD179" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="70" t="s">
         <v>615</v>
       </c>
@@ -25792,7 +25789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="70" t="s">
         <v>621</v>
       </c>
@@ -25884,7 +25881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="70" t="s">
         <v>619</v>
       </c>
@@ -25976,9 +25973,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="70" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B183" s="48" t="s">
         <v>22</v>
@@ -26065,12 +26062,12 @@
         <v>22</v>
       </c>
       <c r="AD183" s="48" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="70" t="s">
         <v>631</v>
-      </c>
-    </row>
-    <row r="184" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="70" t="s">
-        <v>632</v>
       </c>
       <c r="B184" s="48" t="s">
         <v>22</v>
@@ -26157,381 +26154,381 @@
         <v>22</v>
       </c>
       <c r="AD184" s="48" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="185" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="70" t="s">
+        <v>637</v>
+      </c>
+      <c r="B185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V185" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W185" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X185" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB185" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD185" s="48" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="70" t="s">
         <v>638</v>
       </c>
-      <c r="B185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V185" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W185" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X185" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB185" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC185" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD185" s="48" t="s">
+      <c r="B186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V186" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W186" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X186" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB186" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD186" s="79" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="70" t="s">
+        <v>644</v>
+      </c>
+      <c r="B187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V187" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W187" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X187" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB187" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD187" s="79" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="70" t="s">
+        <v>648</v>
+      </c>
+      <c r="B188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V188" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W188" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X188" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB188" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD188" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="70" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="186" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="70" t="s">
-        <v>639</v>
-      </c>
-      <c r="B186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V186" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W186" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X186" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB186" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC186" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD186" s="79" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="187" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="70" t="s">
-        <v>645</v>
-      </c>
-      <c r="B187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V187" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W187" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X187" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB187" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD187" s="79" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="188" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="70" t="s">
-        <v>649</v>
-      </c>
-      <c r="B188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V188" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W188" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X188" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB188" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC188" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD188" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="189" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="70" t="s">
-        <v>651</v>
-      </c>
       <c r="B189" s="48" t="s">
         <v>22</v>
       </c>
@@ -26620,102 +26617,102 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="70" t="s">
+        <v>656</v>
+      </c>
+      <c r="B190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V190" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W190" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X190" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB190" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD190" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="70" t="s">
         <v>657</v>
       </c>
-      <c r="B190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V190" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W190" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X190" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB190" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC190" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD190" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="191" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="70" t="s">
-        <v>658</v>
-      </c>
       <c r="B191" s="48" t="s">
         <v>22</v>
       </c>
@@ -26804,9 +26801,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="70" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B192" s="48" t="s">
         <v>22</v>
@@ -26890,15 +26887,15 @@
         <v>22</v>
       </c>
       <c r="AC192" s="73" t="s">
+        <v>663</v>
+      </c>
+      <c r="AD192" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="70" t="s">
         <v>664</v>
-      </c>
-      <c r="AD192" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="193" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="70" t="s">
-        <v>665</v>
       </c>
       <c r="B193" s="48" t="s">
         <v>22</v>
@@ -26988,9 +26985,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="70" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B194" s="48" t="s">
         <v>22</v>
@@ -27080,101 +27077,101 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="70" t="s">
+        <v>673</v>
+      </c>
+      <c r="B195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S195" s="49" t="s">
         <v>674</v>
       </c>
-      <c r="B195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S195" s="49" t="s">
+      <c r="T195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V195" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W195" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X195" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB195" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD195" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="70" t="s">
         <v>675</v>
-      </c>
-      <c r="T195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V195" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W195" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X195" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB195" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD195" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="70" t="s">
-        <v>676</v>
       </c>
       <c r="B196" s="48" t="s">
         <v>22</v>
@@ -27264,9 +27261,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="70" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B197" s="48" t="s">
         <v>22</v>
@@ -27320,191 +27317,191 @@
         <v>22</v>
       </c>
       <c r="S197" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="T197" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U197" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V197" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W197" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X197" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y197" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z197" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA197" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB197" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC197" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD197" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="70" t="s">
+        <v>685</v>
+      </c>
+      <c r="B198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S198" s="49" t="s">
         <v>688</v>
       </c>
-      <c r="T197" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U197" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V197" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W197" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X197" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y197" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z197" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA197" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB197" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC197" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD197" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="198" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="70" t="s">
+      <c r="T198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V198" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W198" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X198" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB198" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD198" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="70" t="s">
         <v>686</v>
       </c>
-      <c r="B198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S198" s="49" t="s">
+      <c r="B199" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C199" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D199" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E199" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F199" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G199" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H199" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I199" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J199" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K199" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L199" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M199" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N199" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O199" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P199" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q199" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R199" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S199" s="49" t="s">
         <v>689</v>
-      </c>
-      <c r="T198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V198" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W198" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X198" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB198" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC198" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD198" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="199" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="70" t="s">
-        <v>687</v>
-      </c>
-      <c r="B199" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C199" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D199" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E199" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F199" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G199" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H199" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I199" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J199" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K199" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L199" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M199" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N199" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O199" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P199" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q199" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R199" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S199" s="49" t="s">
-        <v>690</v>
       </c>
       <c r="T199" s="48" t="s">
         <v>22</v>
@@ -27664,16 +27661,16 @@
     <hyperlink ref="G131" r:id="rId15" xr:uid="{27008350-2CEC-4E23-B4FE-4597862DB8D5}"/>
     <hyperlink ref="D142" r:id="rId16" xr:uid="{8898BD8E-2CA4-4CDE-890B-D65B515E0457}"/>
     <hyperlink ref="G172" r:id="rId17" xr:uid="{E0CF340A-567A-4979-87DE-4F467618A03F}"/>
-    <hyperlink ref="AC179" r:id="rId18" display="https://qa.zlta.testingserver8.com/product-detail/blur-kurta-kurti" xr:uid="{BF0AD950-F1CC-4954-B2B3-BD7537A192A6}"/>
-    <hyperlink ref="AC192" r:id="rId19" tooltip="Beige testing new" display="https://qa.zlta.testingserver8.com/product-detail/beige-testing-new" xr:uid="{2D91ED96-A11F-44E8-A3F9-04D2C908E6C3}"/>
-    <hyperlink ref="AC176" r:id="rId20" tooltip="black test fomo dress" display="https://qa.zlta.testingserver8.com/product-detail/black-test-fomo-dress" xr:uid="{44FCB8A5-9067-4B7C-A7B6-F535A276F94E}"/>
-    <hyperlink ref="AC175" r:id="rId21" display="https://qa.zlta.testingserver8.com/product-detail/black-test-fomo-dress" xr:uid="{72F94941-6CF1-4889-8B9E-F52D5F670F5B}"/>
-    <hyperlink ref="S184" r:id="rId22" xr:uid="{7E9C7A94-A136-40F4-8926-E175506C0FB0}"/>
-    <hyperlink ref="S196" r:id="rId23" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
-    <hyperlink ref="S174" r:id="rId24" xr:uid="{1CB229C2-041D-41CF-B0B2-E8666C35759B}"/>
-    <hyperlink ref="S176" r:id="rId25" xr:uid="{FE84E4EC-8AD8-4353-9CF9-0FFD7AF22EC6}"/>
-    <hyperlink ref="S177" r:id="rId26" xr:uid="{FE688102-71E6-4D5D-8C26-E4A5C88965AB}"/>
-    <hyperlink ref="S178" r:id="rId27" xr:uid="{75833417-6442-4309-8418-D565356A22B6}"/>
+    <hyperlink ref="AC192" r:id="rId18" tooltip="Beige testing new" display="https://qa.zlta.testingserver8.com/product-detail/beige-testing-new" xr:uid="{2D91ED96-A11F-44E8-A3F9-04D2C908E6C3}"/>
+    <hyperlink ref="AC176" r:id="rId19" tooltip="black test fomo dress" display="https://qa.zlta.testingserver8.com/product-detail/black-test-fomo-dress" xr:uid="{44FCB8A5-9067-4B7C-A7B6-F535A276F94E}"/>
+    <hyperlink ref="AC175" r:id="rId20" display="https://qa.zlta.testingserver8.com/product-detail/black-test-fomo-dress" xr:uid="{72F94941-6CF1-4889-8B9E-F52D5F670F5B}"/>
+    <hyperlink ref="S184" r:id="rId21" xr:uid="{7E9C7A94-A136-40F4-8926-E175506C0FB0}"/>
+    <hyperlink ref="S196" r:id="rId22" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
+    <hyperlink ref="S174" r:id="rId23" xr:uid="{1CB229C2-041D-41CF-B0B2-E8666C35759B}"/>
+    <hyperlink ref="S176" r:id="rId24" xr:uid="{FE84E4EC-8AD8-4353-9CF9-0FFD7AF22EC6}"/>
+    <hyperlink ref="S177" r:id="rId25" xr:uid="{FE688102-71E6-4D5D-8C26-E4A5C88965AB}"/>
+    <hyperlink ref="S178" r:id="rId26" xr:uid="{75833417-6442-4309-8418-D565356A22B6}"/>
+    <hyperlink ref="AC179" r:id="rId27" display="https://qa.zlta.testingserver8.com/product-detail/black-test-fomo-dress" xr:uid="{6D90946F-687A-4C05-AB31-F8E5BA308F4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId28"/>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF9C931-3872-4CD9-82B8-6E52BC60C6D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A265CF76-C02F-48CF-A32E-7A8C7F363E52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6875" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6915" uniqueCount="748">
   <si>
     <t>S.No</t>
   </si>
@@ -1897,9 +1897,6 @@
     <t>https://qa.adm.testingserver8.com/admin/categories</t>
   </si>
   <si>
-    <t>black test fomo dress</t>
-  </si>
-  <si>
     <t>Verify New Product added match between two exports.</t>
   </si>
   <si>
@@ -2258,6 +2255,21 @@
   </si>
   <si>
     <t>Verify uploaded categories appear in Admin and User App.</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADMI_01</t>
+  </si>
+  <si>
+    <t>Admin Panel  Influencer Page</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADMI_01</t>
+  </si>
+  <si>
+    <t>Update a product as influencer and verify in User App</t>
+  </si>
+  <si>
+    <t>Blue Kurta Pant With Dupatta 5</t>
   </si>
 </sst>
 </file>
@@ -2685,7 +2697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2877,9 +2889,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2915,6 +2924,9 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2931,9 +2943,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3738,10 +3747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z207"/>
+  <dimension ref="A1:Z209"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView topLeftCell="A194" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5172,7 +5181,7 @@
         <v>197</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E46" s="47" t="s">
         <v>14</v>
@@ -5329,10 +5338,10 @@
         <v>10</v>
       </c>
       <c r="C51" s="47" t="s">
+        <v>690</v>
+      </c>
+      <c r="D51" s="80" t="s">
         <v>691</v>
-      </c>
-      <c r="D51" s="81" t="s">
-        <v>692</v>
       </c>
       <c r="E51" s="48" t="s">
         <v>14</v>
@@ -5361,10 +5370,10 @@
         <v>10</v>
       </c>
       <c r="C52" s="47" t="s">
+        <v>692</v>
+      </c>
+      <c r="D52" s="80" t="s">
         <v>693</v>
-      </c>
-      <c r="D52" s="81" t="s">
-        <v>694</v>
       </c>
       <c r="E52" s="48" t="s">
         <v>14</v>
@@ -5393,10 +5402,10 @@
         <v>10</v>
       </c>
       <c r="C53" s="47" t="s">
+        <v>694</v>
+      </c>
+      <c r="D53" s="80" t="s">
         <v>695</v>
-      </c>
-      <c r="D53" s="81" t="s">
-        <v>696</v>
       </c>
       <c r="E53" s="48" t="s">
         <v>14</v>
@@ -5425,16 +5434,16 @@
         <v>10</v>
       </c>
       <c r="C54" s="47" t="s">
+        <v>696</v>
+      </c>
+      <c r="D54" s="80" t="s">
         <v>697</v>
-      </c>
-      <c r="D54" s="81" t="s">
-        <v>698</v>
       </c>
       <c r="E54" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G54" s="48" t="s">
         <v>11</v>
@@ -7028,18 +7037,18 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="97" t="s">
+      <c r="A106" s="90" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="97"/>
-      <c r="C106" s="97"/>
-      <c r="D106" s="97"/>
-      <c r="E106" s="97"/>
-      <c r="F106" s="97"/>
-      <c r="G106" s="97"/>
-      <c r="H106" s="97"/>
-      <c r="I106" s="97"/>
-      <c r="J106" s="97"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="90"/>
+      <c r="D106" s="90"/>
+      <c r="E106" s="90"/>
+      <c r="F106" s="90"/>
+      <c r="G106" s="90"/>
+      <c r="H106" s="90"/>
+      <c r="I106" s="90"/>
+      <c r="J106" s="90"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
@@ -7308,7 +7317,7 @@
         <v>370</v>
       </c>
       <c r="D115" s="48" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E115" s="48" t="s">
         <v>14</v>
@@ -7369,16 +7378,16 @@
         <v>10</v>
       </c>
       <c r="C117" s="48" t="s">
+        <v>699</v>
+      </c>
+      <c r="D117" s="48" t="s">
         <v>700</v>
-      </c>
-      <c r="D117" s="48" t="s">
-        <v>701</v>
       </c>
       <c r="E117" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="48" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G117" s="48" t="s">
         <v>11</v>
@@ -7401,16 +7410,16 @@
         <v>10</v>
       </c>
       <c r="C118" s="48" t="s">
+        <v>702</v>
+      </c>
+      <c r="D118" s="48" t="s">
         <v>703</v>
-      </c>
-      <c r="D118" s="48" t="s">
-        <v>704</v>
       </c>
       <c r="E118" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F118" s="48" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G118" s="48" t="s">
         <v>11</v>
@@ -7447,16 +7456,16 @@
         <v>10</v>
       </c>
       <c r="C119" s="48" t="s">
+        <v>705</v>
+      </c>
+      <c r="D119" s="48" t="s">
         <v>706</v>
-      </c>
-      <c r="D119" s="48" t="s">
-        <v>707</v>
       </c>
       <c r="E119" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F119" s="48" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G119" s="48" t="s">
         <v>11</v>
@@ -7493,16 +7502,16 @@
         <v>10</v>
       </c>
       <c r="C120" s="48" t="s">
+        <v>708</v>
+      </c>
+      <c r="D120" s="48" t="s">
         <v>709</v>
-      </c>
-      <c r="D120" s="48" t="s">
-        <v>710</v>
       </c>
       <c r="E120" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="48" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G120" s="48" t="s">
         <v>11</v>
@@ -7532,18 +7541,18 @@
       <c r="X120" s="58"/>
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="83" t="s">
+      <c r="A121" s="82" t="s">
         <v>376</v>
       </c>
-      <c r="B121" s="83"/>
-      <c r="C121" s="83"/>
-      <c r="D121" s="83"/>
-      <c r="E121" s="83"/>
-      <c r="F121" s="83"/>
-      <c r="G121" s="83"/>
-      <c r="H121" s="83"/>
-      <c r="I121" s="83"/>
-      <c r="J121" s="83"/>
+      <c r="B121" s="82"/>
+      <c r="C121" s="82"/>
+      <c r="D121" s="82"/>
+      <c r="E121" s="82"/>
+      <c r="F121" s="82"/>
+      <c r="G121" s="82"/>
+      <c r="H121" s="82"/>
+      <c r="I121" s="82"/>
+      <c r="J121" s="82"/>
       <c r="K121" s="57"/>
       <c r="L121" s="58"/>
       <c r="M121" s="58"/>
@@ -7606,18 +7615,18 @@
       <c r="X122" s="58"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="83" t="s">
+      <c r="A123" s="82" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="83"/>
-      <c r="C123" s="83"/>
-      <c r="D123" s="83"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="83"/>
-      <c r="H123" s="83"/>
-      <c r="I123" s="83"/>
-      <c r="J123" s="83"/>
+      <c r="B123" s="82"/>
+      <c r="C123" s="82"/>
+      <c r="D123" s="82"/>
+      <c r="E123" s="82"/>
+      <c r="F123" s="82"/>
+      <c r="G123" s="82"/>
+      <c r="H123" s="82"/>
+      <c r="I123" s="82"/>
+      <c r="J123" s="82"/>
       <c r="K123" s="57"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -7680,18 +7689,18 @@
       <c r="X124" s="58"/>
     </row>
     <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="83" t="s">
+      <c r="A125" s="82" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="83"/>
-      <c r="C125" s="83"/>
-      <c r="D125" s="83"/>
-      <c r="E125" s="83"/>
-      <c r="F125" s="83"/>
-      <c r="G125" s="83"/>
-      <c r="H125" s="83"/>
-      <c r="I125" s="83"/>
-      <c r="J125" s="83"/>
+      <c r="B125" s="82"/>
+      <c r="C125" s="82"/>
+      <c r="D125" s="82"/>
+      <c r="E125" s="82"/>
+      <c r="F125" s="82"/>
+      <c r="G125" s="82"/>
+      <c r="H125" s="82"/>
+      <c r="I125" s="82"/>
+      <c r="J125" s="82"/>
     </row>
     <row r="126" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="25">
@@ -8016,18 +8025,18 @@
       <c r="X132" s="58"/>
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="83" t="s">
+      <c r="A133" s="82" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="83"/>
-      <c r="C133" s="83"/>
-      <c r="D133" s="90"/>
-      <c r="E133" s="90"/>
-      <c r="F133" s="90"/>
-      <c r="G133" s="90"/>
-      <c r="H133" s="90"/>
-      <c r="I133" s="90"/>
-      <c r="J133" s="90"/>
+      <c r="B133" s="82"/>
+      <c r="C133" s="82"/>
+      <c r="D133" s="89"/>
+      <c r="E133" s="89"/>
+      <c r="F133" s="89"/>
+      <c r="G133" s="89"/>
+      <c r="H133" s="89"/>
+      <c r="I133" s="89"/>
+      <c r="J133" s="89"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -8440,7 +8449,7 @@
         <v>437</v>
       </c>
       <c r="D143" s="27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E143" s="27" t="s">
         <v>14</v>
@@ -8483,16 +8492,16 @@
         <v>10</v>
       </c>
       <c r="C144" s="48" t="s">
+        <v>712</v>
+      </c>
+      <c r="D144" s="27" t="s">
         <v>713</v>
-      </c>
-      <c r="D144" s="27" t="s">
-        <v>714</v>
       </c>
       <c r="E144" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F144" s="48" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G144" s="27" t="s">
         <v>11</v>
@@ -8522,18 +8531,18 @@
       <c r="X144" s="58"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="87" t="s">
+      <c r="A145" s="86" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="88"/>
-      <c r="C145" s="88"/>
-      <c r="D145" s="88"/>
-      <c r="E145" s="88"/>
-      <c r="F145" s="88"/>
-      <c r="G145" s="88"/>
-      <c r="H145" s="88"/>
-      <c r="I145" s="88"/>
-      <c r="J145" s="89"/>
+      <c r="B145" s="87"/>
+      <c r="C145" s="87"/>
+      <c r="D145" s="87"/>
+      <c r="E145" s="87"/>
+      <c r="F145" s="87"/>
+      <c r="G145" s="87"/>
+      <c r="H145" s="87"/>
+      <c r="I145" s="87"/>
+      <c r="J145" s="88"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -8980,18 +8989,18 @@
       <c r="Z155" s="58"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="83" t="s">
+      <c r="A156" s="82" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="83"/>
-      <c r="C156" s="83"/>
-      <c r="D156" s="83"/>
-      <c r="E156" s="83"/>
-      <c r="F156" s="83"/>
-      <c r="G156" s="83"/>
-      <c r="H156" s="83"/>
-      <c r="I156" s="83"/>
-      <c r="J156" s="83"/>
+      <c r="B156" s="82"/>
+      <c r="C156" s="82"/>
+      <c r="D156" s="82"/>
+      <c r="E156" s="82"/>
+      <c r="F156" s="82"/>
+      <c r="G156" s="82"/>
+      <c r="H156" s="82"/>
+      <c r="I156" s="82"/>
+      <c r="J156" s="82"/>
       <c r="K156" s="58"/>
       <c r="L156" s="58"/>
       <c r="M156" s="58"/>
@@ -9058,18 +9067,18 @@
       <c r="Z157" s="58"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="83" t="s">
+      <c r="A158" s="82" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="83"/>
-      <c r="C158" s="83"/>
-      <c r="D158" s="83"/>
-      <c r="E158" s="83"/>
-      <c r="F158" s="83"/>
-      <c r="G158" s="83"/>
-      <c r="H158" s="83"/>
-      <c r="I158" s="83"/>
-      <c r="J158" s="83"/>
+      <c r="B158" s="82"/>
+      <c r="C158" s="82"/>
+      <c r="D158" s="82"/>
+      <c r="E158" s="82"/>
+      <c r="F158" s="82"/>
+      <c r="G158" s="82"/>
+      <c r="H158" s="82"/>
+      <c r="I158" s="82"/>
+      <c r="J158" s="82"/>
       <c r="K158" s="58"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -9808,18 +9817,18 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="83" t="s">
-        <v>727</v>
-      </c>
-      <c r="B177" s="83"/>
-      <c r="C177" s="83"/>
-      <c r="D177" s="82"/>
-      <c r="E177" s="83"/>
-      <c r="F177" s="83"/>
-      <c r="G177" s="83"/>
-      <c r="H177" s="83"/>
-      <c r="I177" s="83"/>
-      <c r="J177" s="83"/>
+      <c r="A177" s="82" t="s">
+        <v>726</v>
+      </c>
+      <c r="B177" s="82"/>
+      <c r="C177" s="82"/>
+      <c r="D177" s="81"/>
+      <c r="E177" s="82"/>
+      <c r="F177" s="82"/>
+      <c r="G177" s="82"/>
+      <c r="H177" s="82"/>
+      <c r="I177" s="82"/>
+      <c r="J177" s="82"/>
     </row>
     <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="68">
@@ -9829,10 +9838,10 @@
         <v>10</v>
       </c>
       <c r="C178" s="74" t="s">
+        <v>727</v>
+      </c>
+      <c r="D178" s="77" t="s">
         <v>728</v>
-      </c>
-      <c r="D178" s="78" t="s">
-        <v>729</v>
       </c>
       <c r="E178" s="75" t="s">
         <v>14</v>
@@ -9861,10 +9870,10 @@
         <v>10</v>
       </c>
       <c r="C179" s="74" t="s">
+        <v>729</v>
+      </c>
+      <c r="D179" s="77" t="s">
         <v>730</v>
-      </c>
-      <c r="D179" s="78" t="s">
-        <v>731</v>
       </c>
       <c r="E179" s="75" t="s">
         <v>14</v>
@@ -9893,10 +9902,10 @@
         <v>10</v>
       </c>
       <c r="C180" s="74" t="s">
+        <v>731</v>
+      </c>
+      <c r="D180" s="77" t="s">
         <v>732</v>
-      </c>
-      <c r="D180" s="78" t="s">
-        <v>733</v>
       </c>
       <c r="E180" s="75" t="s">
         <v>14</v>
@@ -9925,10 +9934,10 @@
         <v>10</v>
       </c>
       <c r="C181" s="74" t="s">
+        <v>733</v>
+      </c>
+      <c r="D181" s="64" t="s">
         <v>734</v>
-      </c>
-      <c r="D181" s="64" t="s">
-        <v>735</v>
       </c>
       <c r="E181" s="75" t="s">
         <v>14</v>
@@ -9957,10 +9966,10 @@
         <v>10</v>
       </c>
       <c r="C182" s="74" t="s">
+        <v>735</v>
+      </c>
+      <c r="D182" s="64" t="s">
         <v>736</v>
-      </c>
-      <c r="D182" s="64" t="s">
-        <v>737</v>
       </c>
       <c r="E182" s="75" t="s">
         <v>14</v>
@@ -9989,10 +9998,10 @@
         <v>10</v>
       </c>
       <c r="C183" s="74" t="s">
+        <v>737</v>
+      </c>
+      <c r="D183" s="77" t="s">
         <v>738</v>
-      </c>
-      <c r="D183" s="78" t="s">
-        <v>739</v>
       </c>
       <c r="E183" s="75" t="s">
         <v>14</v>
@@ -10021,10 +10030,10 @@
         <v>10</v>
       </c>
       <c r="C184" s="74" t="s">
+        <v>739</v>
+      </c>
+      <c r="D184" s="64" t="s">
         <v>740</v>
-      </c>
-      <c r="D184" s="64" t="s">
-        <v>741</v>
       </c>
       <c r="E184" s="75" t="s">
         <v>14</v>
@@ -10053,10 +10062,10 @@
         <v>10</v>
       </c>
       <c r="C185" s="74" t="s">
+        <v>741</v>
+      </c>
+      <c r="D185" s="78" t="s">
         <v>742</v>
-      </c>
-      <c r="D185" s="79" t="s">
-        <v>743</v>
       </c>
       <c r="E185" s="75" t="s">
         <v>14</v>
@@ -10110,18 +10119,18 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="84" t="s">
-        <v>625</v>
-      </c>
-      <c r="B187" s="85"/>
-      <c r="C187" s="85"/>
-      <c r="D187" s="85"/>
-      <c r="E187" s="85"/>
-      <c r="F187" s="85"/>
-      <c r="G187" s="85"/>
-      <c r="H187" s="85"/>
-      <c r="I187" s="85"/>
-      <c r="J187" s="86"/>
+      <c r="A187" s="83" t="s">
+        <v>624</v>
+      </c>
+      <c r="B187" s="84"/>
+      <c r="C187" s="84"/>
+      <c r="D187" s="84"/>
+      <c r="E187" s="84"/>
+      <c r="F187" s="84"/>
+      <c r="G187" s="84"/>
+      <c r="H187" s="84"/>
+      <c r="I187" s="84"/>
+      <c r="J187" s="85"/>
     </row>
     <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="68">
@@ -10131,16 +10140,16 @@
         <v>10</v>
       </c>
       <c r="C188" s="74" t="s">
-        <v>626</v>
-      </c>
-      <c r="D188" s="78" t="s">
-        <v>628</v>
+        <v>625</v>
+      </c>
+      <c r="D188" s="77" t="s">
+        <v>627</v>
       </c>
       <c r="E188" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F188" s="70" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G188" s="69" t="s">
         <v>11</v>
@@ -10163,16 +10172,16 @@
         <v>10</v>
       </c>
       <c r="C189" s="74" t="s">
+        <v>632</v>
+      </c>
+      <c r="D189" s="77" t="s">
         <v>633</v>
-      </c>
-      <c r="D189" s="78" t="s">
-        <v>634</v>
       </c>
       <c r="E189" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F189" s="70" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G189" s="69" t="s">
         <v>11</v>
@@ -10195,16 +10204,16 @@
         <v>10</v>
       </c>
       <c r="C190" s="74" t="s">
+        <v>634</v>
+      </c>
+      <c r="D190" s="78" t="s">
         <v>635</v>
-      </c>
-      <c r="D190" s="79" t="s">
-        <v>636</v>
       </c>
       <c r="E190" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F190" s="70" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G190" s="69" t="s">
         <v>11</v>
@@ -10227,16 +10236,16 @@
         <v>10</v>
       </c>
       <c r="C191" s="74" t="s">
+        <v>638</v>
+      </c>
+      <c r="D191" s="78" t="s">
         <v>639</v>
-      </c>
-      <c r="D191" s="79" t="s">
-        <v>640</v>
       </c>
       <c r="E191" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F191" s="70" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G191" s="69" t="s">
         <v>11</v>
@@ -10259,16 +10268,16 @@
         <v>10</v>
       </c>
       <c r="C192" s="74" t="s">
+        <v>641</v>
+      </c>
+      <c r="D192" s="78" t="s">
         <v>642</v>
-      </c>
-      <c r="D192" s="79" t="s">
-        <v>643</v>
       </c>
       <c r="E192" s="75" t="s">
         <v>14</v>
       </c>
       <c r="F192" s="70" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G192" s="69" t="s">
         <v>11</v>
@@ -10284,18 +10293,18 @@
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="82" t="s">
-        <v>646</v>
-      </c>
-      <c r="B193" s="82"/>
-      <c r="C193" s="82"/>
-      <c r="D193" s="82"/>
-      <c r="E193" s="82"/>
-      <c r="F193" s="82"/>
-      <c r="G193" s="82"/>
-      <c r="H193" s="82"/>
-      <c r="I193" s="82"/>
-      <c r="J193" s="82"/>
+      <c r="A193" s="81" t="s">
+        <v>645</v>
+      </c>
+      <c r="B193" s="81"/>
+      <c r="C193" s="81"/>
+      <c r="D193" s="81"/>
+      <c r="E193" s="81"/>
+      <c r="F193" s="81"/>
+      <c r="G193" s="81"/>
+      <c r="H193" s="81"/>
+      <c r="I193" s="81"/>
+      <c r="J193" s="81"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="48">
@@ -10304,17 +10313,17 @@
       <c r="B194" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C194" s="80" t="s">
-        <v>647</v>
+      <c r="C194" s="79" t="s">
+        <v>646</v>
       </c>
       <c r="D194" s="64" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E194" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F194" s="80" t="s">
-        <v>648</v>
+      <c r="F194" s="79" t="s">
+        <v>647</v>
       </c>
       <c r="G194" s="48" t="s">
         <v>11</v>
@@ -10336,17 +10345,17 @@
       <c r="B195" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C195" s="80" t="s">
+      <c r="C195" s="79" t="s">
+        <v>650</v>
+      </c>
+      <c r="D195" s="78" t="s">
         <v>651</v>
-      </c>
-      <c r="D195" s="79" t="s">
-        <v>652</v>
       </c>
       <c r="E195" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F195" s="80" t="s">
-        <v>650</v>
+      <c r="F195" s="79" t="s">
+        <v>649</v>
       </c>
       <c r="G195" s="48" t="s">
         <v>11</v>
@@ -10368,17 +10377,17 @@
       <c r="B196" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C196" s="80" t="s">
-        <v>653</v>
-      </c>
-      <c r="D196" s="79" t="s">
-        <v>655</v>
+      <c r="C196" s="79" t="s">
+        <v>652</v>
+      </c>
+      <c r="D196" s="78" t="s">
+        <v>654</v>
       </c>
       <c r="E196" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F196" s="80" t="s">
-        <v>656</v>
+      <c r="F196" s="79" t="s">
+        <v>655</v>
       </c>
       <c r="G196" s="48" t="s">
         <v>11</v>
@@ -10400,17 +10409,17 @@
       <c r="B197" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C197" s="80" t="s">
-        <v>654</v>
-      </c>
-      <c r="D197" s="79" t="s">
-        <v>658</v>
+      <c r="C197" s="79" t="s">
+        <v>653</v>
+      </c>
+      <c r="D197" s="78" t="s">
+        <v>657</v>
       </c>
       <c r="E197" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F197" s="80" t="s">
-        <v>657</v>
+      <c r="F197" s="79" t="s">
+        <v>656</v>
       </c>
       <c r="G197" s="48" t="s">
         <v>11</v>
@@ -10426,18 +10435,18 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="82" t="s">
-        <v>659</v>
-      </c>
-      <c r="B198" s="82"/>
-      <c r="C198" s="82"/>
-      <c r="D198" s="82"/>
-      <c r="E198" s="82"/>
-      <c r="F198" s="82"/>
-      <c r="G198" s="82"/>
-      <c r="H198" s="82"/>
-      <c r="I198" s="82"/>
-      <c r="J198" s="82"/>
+      <c r="A198" s="81" t="s">
+        <v>658</v>
+      </c>
+      <c r="B198" s="81"/>
+      <c r="C198" s="81"/>
+      <c r="D198" s="81"/>
+      <c r="E198" s="81"/>
+      <c r="F198" s="81"/>
+      <c r="G198" s="81"/>
+      <c r="H198" s="81"/>
+      <c r="I198" s="81"/>
+      <c r="J198" s="81"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="48">
@@ -10446,17 +10455,17 @@
       <c r="B199" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C199" s="80" t="s">
+      <c r="C199" s="79" t="s">
+        <v>659</v>
+      </c>
+      <c r="D199" s="78" t="s">
         <v>660</v>
-      </c>
-      <c r="D199" s="79" t="s">
-        <v>661</v>
       </c>
       <c r="E199" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F199" s="80" t="s">
-        <v>662</v>
+      <c r="F199" s="79" t="s">
+        <v>661</v>
       </c>
       <c r="G199" s="48" t="s">
         <v>11</v>
@@ -10472,18 +10481,18 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="82" t="s">
-        <v>665</v>
-      </c>
-      <c r="B200" s="82"/>
-      <c r="C200" s="82"/>
-      <c r="D200" s="82"/>
-      <c r="E200" s="82"/>
-      <c r="F200" s="82"/>
-      <c r="G200" s="82"/>
-      <c r="H200" s="82"/>
-      <c r="I200" s="82"/>
-      <c r="J200" s="82"/>
+      <c r="A200" s="81" t="s">
+        <v>664</v>
+      </c>
+      <c r="B200" s="81"/>
+      <c r="C200" s="81"/>
+      <c r="D200" s="81"/>
+      <c r="E200" s="81"/>
+      <c r="F200" s="81"/>
+      <c r="G200" s="81"/>
+      <c r="H200" s="81"/>
+      <c r="I200" s="81"/>
+      <c r="J200" s="81"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="48">
@@ -10492,17 +10501,17 @@
       <c r="B201" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C201" s="80" t="s">
+      <c r="C201" s="79" t="s">
+        <v>665</v>
+      </c>
+      <c r="D201" s="78" t="s">
         <v>666</v>
-      </c>
-      <c r="D201" s="79" t="s">
-        <v>667</v>
       </c>
       <c r="E201" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F201" s="80" t="s">
-        <v>664</v>
+      <c r="F201" s="79" t="s">
+        <v>663</v>
       </c>
       <c r="G201" s="48" t="s">
         <v>11</v>
@@ -10524,17 +10533,17 @@
       <c r="B202" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C202" s="80" t="s">
+      <c r="C202" s="79" t="s">
+        <v>667</v>
+      </c>
+      <c r="D202" s="78" t="s">
         <v>668</v>
-      </c>
-      <c r="D202" s="79" t="s">
-        <v>669</v>
       </c>
       <c r="E202" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F202" s="80" t="s">
-        <v>670</v>
+      <c r="F202" s="79" t="s">
+        <v>669</v>
       </c>
       <c r="G202" s="48" t="s">
         <v>11</v>
@@ -10556,17 +10565,17 @@
       <c r="B203" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C203" s="80" t="s">
+      <c r="C203" s="79" t="s">
+        <v>670</v>
+      </c>
+      <c r="D203" s="78" t="s">
         <v>671</v>
-      </c>
-      <c r="D203" s="79" t="s">
-        <v>672</v>
       </c>
       <c r="E203" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F203" s="80" t="s">
-        <v>673</v>
+      <c r="F203" s="79" t="s">
+        <v>672</v>
       </c>
       <c r="G203" s="48" t="s">
         <v>11</v>
@@ -10588,17 +10597,17 @@
       <c r="B204" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C204" s="80" t="s">
+      <c r="C204" s="79" t="s">
+        <v>675</v>
+      </c>
+      <c r="D204" s="78" t="s">
         <v>676</v>
-      </c>
-      <c r="D204" s="79" t="s">
-        <v>677</v>
       </c>
       <c r="E204" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F204" s="80" t="s">
-        <v>675</v>
+      <c r="F204" s="79" t="s">
+        <v>674</v>
       </c>
       <c r="G204" s="48" t="s">
         <v>11</v>
@@ -10620,17 +10629,17 @@
       <c r="B205" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C205" s="80" t="s">
+      <c r="C205" s="79" t="s">
+        <v>677</v>
+      </c>
+      <c r="D205" s="78" t="s">
         <v>678</v>
-      </c>
-      <c r="D205" s="79" t="s">
-        <v>679</v>
       </c>
       <c r="E205" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F205" s="80" t="s">
-        <v>680</v>
+      <c r="F205" s="79" t="s">
+        <v>679</v>
       </c>
       <c r="G205" s="48" t="s">
         <v>11</v>
@@ -10652,17 +10661,17 @@
       <c r="B206" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C206" s="80" t="s">
-        <v>681</v>
-      </c>
-      <c r="D206" s="79" t="s">
-        <v>683</v>
+      <c r="C206" s="79" t="s">
+        <v>680</v>
+      </c>
+      <c r="D206" s="78" t="s">
+        <v>682</v>
       </c>
       <c r="E206" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F206" s="80" t="s">
-        <v>685</v>
+      <c r="F206" s="79" t="s">
+        <v>684</v>
       </c>
       <c r="G206" s="48" t="s">
         <v>11</v>
@@ -10684,17 +10693,17 @@
       <c r="B207" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C207" s="80" t="s">
-        <v>682</v>
-      </c>
-      <c r="D207" s="79" t="s">
-        <v>684</v>
+      <c r="C207" s="79" t="s">
+        <v>681</v>
+      </c>
+      <c r="D207" s="78" t="s">
+        <v>683</v>
       </c>
       <c r="E207" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F207" s="80" t="s">
-        <v>686</v>
+      <c r="F207" s="79" t="s">
+        <v>685</v>
       </c>
       <c r="G207" s="48" t="s">
         <v>11</v>
@@ -10709,8 +10718,54 @@
         <v>13</v>
       </c>
     </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A208" s="81" t="s">
+        <v>744</v>
+      </c>
+      <c r="B208" s="81"/>
+      <c r="C208" s="81"/>
+      <c r="D208" s="81"/>
+      <c r="E208" s="81"/>
+      <c r="F208" s="81"/>
+      <c r="G208" s="81"/>
+      <c r="H208" s="81"/>
+      <c r="I208" s="81"/>
+      <c r="J208" s="81"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A209" s="48">
+        <v>1</v>
+      </c>
+      <c r="B209" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C209" s="79" t="s">
+        <v>745</v>
+      </c>
+      <c r="D209" s="78" t="s">
+        <v>746</v>
+      </c>
+      <c r="E209" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F209" s="79" t="s">
+        <v>743</v>
+      </c>
+      <c r="G209" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H209" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="I209" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J209" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A121:J121"/>
     <mergeCell ref="A123:J123"/>
@@ -10719,6 +10774,7 @@
     <mergeCell ref="A55:J55"/>
     <mergeCell ref="A66:J66"/>
     <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A208:J208"/>
     <mergeCell ref="A200:J200"/>
     <mergeCell ref="A125:J125"/>
     <mergeCell ref="A198:J198"/>
@@ -10826,9 +10882,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:AD199"/>
+  <dimension ref="A1:AD200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T165" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
       <selection activeCell="AC176" sqref="AC176"/>
     </sheetView>
   </sheetViews>
@@ -10924,19 +10980,19 @@
         <v>490</v>
       </c>
       <c r="V1" s="30" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="W1" s="30" t="s">
         <v>346</v>
       </c>
       <c r="X1" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="Y1" s="31" t="s">
         <v>723</v>
       </c>
-      <c r="Y1" s="31" t="s">
+      <c r="Z1" s="31" t="s">
         <v>724</v>
-      </c>
-      <c r="Z1" s="31" t="s">
-        <v>725</v>
       </c>
       <c r="AA1" s="31" t="s">
         <v>610</v>
@@ -10948,7 +11004,7 @@
         <v>607</v>
       </c>
       <c r="AD1" s="31" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -15065,7 +15121,7 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B53" s="48" t="s">
         <v>22</v>
@@ -19979,7 +20035,7 @@
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A112" s="48" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B112" s="48" t="s">
         <v>22</v>
@@ -20042,7 +20098,7 @@
         <v>22</v>
       </c>
       <c r="V112" s="36" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="W112" s="28" t="s">
         <v>22</v>
@@ -20063,7 +20119,7 @@
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A113" s="48" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B113" s="48" t="s">
         <v>22</v>
@@ -20147,7 +20203,7 @@
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A114" s="48" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B114" s="48" t="s">
         <v>22</v>
@@ -20213,13 +20269,13 @@
         <v>22</v>
       </c>
       <c r="W114" s="28" t="s">
+        <v>716</v>
+      </c>
+      <c r="X114" s="28" t="s">
         <v>717</v>
       </c>
-      <c r="X114" s="28" t="s">
+      <c r="Y114" s="48" t="s">
         <v>718</v>
-      </c>
-      <c r="Y114" s="48" t="s">
-        <v>719</v>
       </c>
       <c r="Z114" s="48" t="s">
         <v>22</v>
@@ -20231,7 +20287,7 @@
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A115" s="48" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B115" s="48" t="s">
         <v>22</v>
@@ -20306,7 +20362,7 @@
         <v>22</v>
       </c>
       <c r="Z115" s="36" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA115" s="28"/>
       <c r="AB115" s="28"/>
@@ -21995,7 +22051,7 @@
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A136" s="48" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B136" s="48" t="s">
         <v>22</v>
@@ -23483,7 +23539,7 @@
         <v>22</v>
       </c>
       <c r="U153" s="48" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="V153" s="48" t="s">
         <v>22</v>
@@ -25322,8 +25378,8 @@
       <c r="AB175" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC175" s="77" t="s">
-        <v>623</v>
+      <c r="AC175" s="73" t="s">
+        <v>747</v>
       </c>
       <c r="AD175" s="48" t="s">
         <v>22</v>
@@ -25415,7 +25471,7 @@
         <v>22</v>
       </c>
       <c r="AC176" s="73" t="s">
-        <v>623</v>
+        <v>747</v>
       </c>
       <c r="AD176" s="48" t="s">
         <v>22</v>
@@ -25690,8 +25746,8 @@
       <c r="AB179" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC179" s="77" t="s">
-        <v>623</v>
+      <c r="AC179" s="73" t="s">
+        <v>747</v>
       </c>
       <c r="AD179" s="48" t="s">
         <v>22</v>
@@ -25975,7 +26031,7 @@
     </row>
     <row r="183" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="70" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B183" s="48" t="s">
         <v>22</v>
@@ -26062,12 +26118,12 @@
         <v>22</v>
       </c>
       <c r="AD183" s="48" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="184" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="70" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B184" s="48" t="s">
         <v>22</v>
@@ -26154,12 +26210,12 @@
         <v>22</v>
       </c>
       <c r="AD184" s="48" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="185" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="70" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B185" s="48" t="s">
         <v>22</v>
@@ -26246,12 +26302,12 @@
         <v>22</v>
       </c>
       <c r="AD185" s="48" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="186" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="70" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B186" s="48" t="s">
         <v>22</v>
@@ -26337,105 +26393,105 @@
       <c r="AC186" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AD186" s="79" t="s">
-        <v>641</v>
+      <c r="AD186" s="78" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="187" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="70" t="s">
+        <v>643</v>
+      </c>
+      <c r="B187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V187" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W187" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X187" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB187" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD187" s="78" t="s">
         <v>644</v>
-      </c>
-      <c r="B187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V187" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W187" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="X187" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB187" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC187" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD187" s="79" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="188" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="70" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B188" s="48" t="s">
         <v>22</v>
@@ -26527,7 +26583,7 @@
     </row>
     <row r="189" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="70" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B189" s="48" t="s">
         <v>22</v>
@@ -26619,7 +26675,7 @@
     </row>
     <row r="190" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="70" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B190" s="48" t="s">
         <v>22</v>
@@ -26711,7 +26767,7 @@
     </row>
     <row r="191" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="70" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B191" s="48" t="s">
         <v>22</v>
@@ -26803,7 +26859,7 @@
     </row>
     <row r="192" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="70" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B192" s="48" t="s">
         <v>22</v>
@@ -26887,7 +26943,7 @@
         <v>22</v>
       </c>
       <c r="AC192" s="73" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AD192" s="48" t="s">
         <v>22</v>
@@ -26895,7 +26951,7 @@
     </row>
     <row r="193" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="70" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B193" s="48" t="s">
         <v>22</v>
@@ -26987,7 +27043,7 @@
     </row>
     <row r="194" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="70" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B194" s="48" t="s">
         <v>22</v>
@@ -27079,61 +27135,61 @@
     </row>
     <row r="195" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="70" t="s">
+        <v>672</v>
+      </c>
+      <c r="B195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S195" s="49" t="s">
         <v>673</v>
-      </c>
-      <c r="B195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R195" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S195" s="49" t="s">
-        <v>674</v>
       </c>
       <c r="T195" s="48" t="s">
         <v>22</v>
@@ -27171,7 +27227,7 @@
     </row>
     <row r="196" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="70" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B196" s="48" t="s">
         <v>22</v>
@@ -27263,7 +27319,7 @@
     </row>
     <row r="197" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="70" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B197" s="48" t="s">
         <v>22</v>
@@ -27317,7 +27373,7 @@
         <v>22</v>
       </c>
       <c r="S197" s="49" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T197" s="48" t="s">
         <v>22</v>
@@ -27355,7 +27411,7 @@
     </row>
     <row r="198" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="70" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B198" s="48" t="s">
         <v>22</v>
@@ -27409,7 +27465,7 @@
         <v>22</v>
       </c>
       <c r="S198" s="49" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T198" s="48" t="s">
         <v>22</v>
@@ -27447,7 +27503,7 @@
     </row>
     <row r="199" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="70" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B199" s="48" t="s">
         <v>22</v>
@@ -27501,7 +27557,7 @@
         <v>22</v>
       </c>
       <c r="S199" s="49" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="T199" s="48" t="s">
         <v>22</v>
@@ -27534,6 +27590,98 @@
         <v>22</v>
       </c>
       <c r="AD199" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="70" t="s">
+        <v>743</v>
+      </c>
+      <c r="B200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S200" s="49" t="s">
+        <v>606</v>
+      </c>
+      <c r="T200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V200" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W200" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X200" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB200" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC200" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD200" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -27662,15 +27810,15 @@
     <hyperlink ref="D142" r:id="rId16" xr:uid="{8898BD8E-2CA4-4CDE-890B-D65B515E0457}"/>
     <hyperlink ref="G172" r:id="rId17" xr:uid="{E0CF340A-567A-4979-87DE-4F467618A03F}"/>
     <hyperlink ref="AC192" r:id="rId18" tooltip="Beige testing new" display="https://qa.zlta.testingserver8.com/product-detail/beige-testing-new" xr:uid="{2D91ED96-A11F-44E8-A3F9-04D2C908E6C3}"/>
-    <hyperlink ref="AC176" r:id="rId19" tooltip="black test fomo dress" display="https://qa.zlta.testingserver8.com/product-detail/black-test-fomo-dress" xr:uid="{44FCB8A5-9067-4B7C-A7B6-F535A276F94E}"/>
-    <hyperlink ref="AC175" r:id="rId20" display="https://qa.zlta.testingserver8.com/product-detail/black-test-fomo-dress" xr:uid="{72F94941-6CF1-4889-8B9E-F52D5F670F5B}"/>
-    <hyperlink ref="S184" r:id="rId21" xr:uid="{7E9C7A94-A136-40F4-8926-E175506C0FB0}"/>
-    <hyperlink ref="S196" r:id="rId22" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
-    <hyperlink ref="S174" r:id="rId23" xr:uid="{1CB229C2-041D-41CF-B0B2-E8666C35759B}"/>
-    <hyperlink ref="S176" r:id="rId24" xr:uid="{FE84E4EC-8AD8-4353-9CF9-0FFD7AF22EC6}"/>
-    <hyperlink ref="S177" r:id="rId25" xr:uid="{FE688102-71E6-4D5D-8C26-E4A5C88965AB}"/>
-    <hyperlink ref="S178" r:id="rId26" xr:uid="{75833417-6442-4309-8418-D565356A22B6}"/>
-    <hyperlink ref="AC179" r:id="rId27" display="https://qa.zlta.testingserver8.com/product-detail/black-test-fomo-dress" xr:uid="{6D90946F-687A-4C05-AB31-F8E5BA308F4F}"/>
+    <hyperlink ref="S184" r:id="rId19" xr:uid="{7E9C7A94-A136-40F4-8926-E175506C0FB0}"/>
+    <hyperlink ref="S196" r:id="rId20" xr:uid="{6E155B27-A1F3-4634-AF94-EA4AFCBB6FA8}"/>
+    <hyperlink ref="S174" r:id="rId21" xr:uid="{1CB229C2-041D-41CF-B0B2-E8666C35759B}"/>
+    <hyperlink ref="S176" r:id="rId22" xr:uid="{FE84E4EC-8AD8-4353-9CF9-0FFD7AF22EC6}"/>
+    <hyperlink ref="S177" r:id="rId23" xr:uid="{FE688102-71E6-4D5D-8C26-E4A5C88965AB}"/>
+    <hyperlink ref="S178" r:id="rId24" xr:uid="{75833417-6442-4309-8418-D565356A22B6}"/>
+    <hyperlink ref="AC175" r:id="rId25" tooltip="Blue Kurta Pant With Dupatta 5" display="https://qa.zlta.testingserver8.com/product-detail/blue-kurta-pant-with-dupatta-5" xr:uid="{607C8550-3794-4341-A161-A7629BBE6A0B}"/>
+    <hyperlink ref="AC179" r:id="rId26" tooltip="Blue Kurta Pant With Dupatta 5" display="https://qa.zlta.testingserver8.com/product-detail/blue-kurta-pant-with-dupatta-5" xr:uid="{65BCB209-6B4C-4696-89C6-77DCED3D0B2B}"/>
+    <hyperlink ref="AC176" r:id="rId27" tooltip="Blue Kurta Pant With Dupatta 5" display="https://qa.zlta.testingserver8.com/product-detail/blue-kurta-pant-with-dupatta-5" xr:uid="{6F138833-1695-4762-A377-A6FC00AF5A45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId28"/>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A265CF76-C02F-48CF-A32E-7A8C7F363E52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A528F4B9-004E-4FC3-A764-9B2A49130AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
@@ -2269,7 +2269,7 @@
     <t>Update a product as influencer and verify in User App</t>
   </si>
   <si>
-    <t>Blue Kurta Pant With Dupatta 5</t>
+    <t>Beige ABCD kurta 10</t>
   </si>
 </sst>
 </file>
@@ -2897,10 +2897,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2923,27 +2944,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4503,18 +4503,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="93"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -4901,18 +4901,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="96"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="88"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -5459,18 +5459,18 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="94" t="s">
+      <c r="A55" s="86" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="95"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="95"/>
-      <c r="J55" s="96"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="87"/>
+      <c r="J55" s="88"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
@@ -5793,18 +5793,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="94" t="s">
+      <c r="A66" s="86" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="95"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="95"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="95"/>
-      <c r="H66" s="95"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="96"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="87"/>
+      <c r="G66" s="87"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="88"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
@@ -6159,18 +6159,18 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="94" t="s">
+      <c r="A78" s="86" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="95"/>
-      <c r="D78" s="95"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="95"/>
-      <c r="H78" s="95"/>
-      <c r="I78" s="95"/>
-      <c r="J78" s="96"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="87"/>
+      <c r="D78" s="87"/>
+      <c r="E78" s="87"/>
+      <c r="F78" s="87"/>
+      <c r="G78" s="87"/>
+      <c r="H78" s="87"/>
+      <c r="I78" s="87"/>
+      <c r="J78" s="88"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
@@ -7037,18 +7037,18 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="90" t="s">
+      <c r="A106" s="81" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="90"/>
-      <c r="C106" s="90"/>
-      <c r="D106" s="90"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="90"/>
-      <c r="G106" s="90"/>
-      <c r="H106" s="90"/>
-      <c r="I106" s="90"/>
-      <c r="J106" s="90"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="81"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81"/>
+      <c r="F106" s="81"/>
+      <c r="G106" s="81"/>
+      <c r="H106" s="81"/>
+      <c r="I106" s="81"/>
+      <c r="J106" s="81"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
@@ -8030,13 +8030,13 @@
       </c>
       <c r="B133" s="82"/>
       <c r="C133" s="82"/>
-      <c r="D133" s="89"/>
-      <c r="E133" s="89"/>
-      <c r="F133" s="89"/>
-      <c r="G133" s="89"/>
-      <c r="H133" s="89"/>
-      <c r="I133" s="89"/>
-      <c r="J133" s="89"/>
+      <c r="D133" s="96"/>
+      <c r="E133" s="96"/>
+      <c r="F133" s="96"/>
+      <c r="G133" s="96"/>
+      <c r="H133" s="96"/>
+      <c r="I133" s="96"/>
+      <c r="J133" s="96"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
@@ -8531,18 +8531,18 @@
       <c r="X144" s="58"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="86" t="s">
+      <c r="A145" s="93" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="87"/>
-      <c r="C145" s="87"/>
-      <c r="D145" s="87"/>
-      <c r="E145" s="87"/>
-      <c r="F145" s="87"/>
-      <c r="G145" s="87"/>
-      <c r="H145" s="87"/>
-      <c r="I145" s="87"/>
-      <c r="J145" s="88"/>
+      <c r="B145" s="94"/>
+      <c r="C145" s="94"/>
+      <c r="D145" s="94"/>
+      <c r="E145" s="94"/>
+      <c r="F145" s="94"/>
+      <c r="G145" s="94"/>
+      <c r="H145" s="94"/>
+      <c r="I145" s="94"/>
+      <c r="J145" s="95"/>
       <c r="K145" s="58"/>
       <c r="L145" s="58"/>
       <c r="M145" s="58"/>
@@ -9822,7 +9822,7 @@
       </c>
       <c r="B177" s="82"/>
       <c r="C177" s="82"/>
-      <c r="D177" s="81"/>
+      <c r="D177" s="89"/>
       <c r="E177" s="82"/>
       <c r="F177" s="82"/>
       <c r="G177" s="82"/>
@@ -10119,18 +10119,18 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="83" t="s">
+      <c r="A187" s="90" t="s">
         <v>624</v>
       </c>
-      <c r="B187" s="84"/>
-      <c r="C187" s="84"/>
-      <c r="D187" s="84"/>
-      <c r="E187" s="84"/>
-      <c r="F187" s="84"/>
-      <c r="G187" s="84"/>
-      <c r="H187" s="84"/>
-      <c r="I187" s="84"/>
-      <c r="J187" s="85"/>
+      <c r="B187" s="91"/>
+      <c r="C187" s="91"/>
+      <c r="D187" s="91"/>
+      <c r="E187" s="91"/>
+      <c r="F187" s="91"/>
+      <c r="G187" s="91"/>
+      <c r="H187" s="91"/>
+      <c r="I187" s="91"/>
+      <c r="J187" s="92"/>
     </row>
     <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="68">
@@ -10293,18 +10293,18 @@
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="81" t="s">
+      <c r="A193" s="89" t="s">
         <v>645</v>
       </c>
-      <c r="B193" s="81"/>
-      <c r="C193" s="81"/>
-      <c r="D193" s="81"/>
-      <c r="E193" s="81"/>
-      <c r="F193" s="81"/>
-      <c r="G193" s="81"/>
-      <c r="H193" s="81"/>
-      <c r="I193" s="81"/>
-      <c r="J193" s="81"/>
+      <c r="B193" s="89"/>
+      <c r="C193" s="89"/>
+      <c r="D193" s="89"/>
+      <c r="E193" s="89"/>
+      <c r="F193" s="89"/>
+      <c r="G193" s="89"/>
+      <c r="H193" s="89"/>
+      <c r="I193" s="89"/>
+      <c r="J193" s="89"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="48">
@@ -10435,18 +10435,18 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="81" t="s">
+      <c r="A198" s="89" t="s">
         <v>658</v>
       </c>
-      <c r="B198" s="81"/>
-      <c r="C198" s="81"/>
-      <c r="D198" s="81"/>
-      <c r="E198" s="81"/>
-      <c r="F198" s="81"/>
-      <c r="G198" s="81"/>
-      <c r="H198" s="81"/>
-      <c r="I198" s="81"/>
-      <c r="J198" s="81"/>
+      <c r="B198" s="89"/>
+      <c r="C198" s="89"/>
+      <c r="D198" s="89"/>
+      <c r="E198" s="89"/>
+      <c r="F198" s="89"/>
+      <c r="G198" s="89"/>
+      <c r="H198" s="89"/>
+      <c r="I198" s="89"/>
+      <c r="J198" s="89"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="48">
@@ -10481,18 +10481,18 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="81" t="s">
+      <c r="A200" s="89" t="s">
         <v>664</v>
       </c>
-      <c r="B200" s="81"/>
-      <c r="C200" s="81"/>
-      <c r="D200" s="81"/>
-      <c r="E200" s="81"/>
-      <c r="F200" s="81"/>
-      <c r="G200" s="81"/>
-      <c r="H200" s="81"/>
-      <c r="I200" s="81"/>
-      <c r="J200" s="81"/>
+      <c r="B200" s="89"/>
+      <c r="C200" s="89"/>
+      <c r="D200" s="89"/>
+      <c r="E200" s="89"/>
+      <c r="F200" s="89"/>
+      <c r="G200" s="89"/>
+      <c r="H200" s="89"/>
+      <c r="I200" s="89"/>
+      <c r="J200" s="89"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="48">
@@ -10719,18 +10719,18 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A208" s="81" t="s">
+      <c r="A208" s="89" t="s">
         <v>744</v>
       </c>
-      <c r="B208" s="81"/>
-      <c r="C208" s="81"/>
-      <c r="D208" s="81"/>
-      <c r="E208" s="81"/>
-      <c r="F208" s="81"/>
-      <c r="G208" s="81"/>
-      <c r="H208" s="81"/>
-      <c r="I208" s="81"/>
-      <c r="J208" s="81"/>
+      <c r="B208" s="89"/>
+      <c r="C208" s="89"/>
+      <c r="D208" s="89"/>
+      <c r="E208" s="89"/>
+      <c r="F208" s="89"/>
+      <c r="G208" s="89"/>
+      <c r="H208" s="89"/>
+      <c r="I208" s="89"/>
+      <c r="J208" s="89"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="48">
@@ -10766,14 +10766,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A106:J106"/>
-    <mergeCell ref="A121:J121"/>
-    <mergeCell ref="A123:J123"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A78:J78"/>
     <mergeCell ref="A208:J208"/>
     <mergeCell ref="A200:J200"/>
     <mergeCell ref="A125:J125"/>
@@ -10785,6 +10777,14 @@
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A177:J177"/>
     <mergeCell ref="A133:J133"/>
+    <mergeCell ref="A106:J106"/>
+    <mergeCell ref="A121:J121"/>
+    <mergeCell ref="A123:J123"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A78:J78"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -10884,8 +10884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
   <dimension ref="A1:AD200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="AC176" sqref="AC176"/>
+    <sheetView tabSelected="1" topLeftCell="W170" workbookViewId="0">
+      <selection activeCell="AC179" sqref="AC179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27816,9 +27816,9 @@
     <hyperlink ref="S176" r:id="rId22" xr:uid="{FE84E4EC-8AD8-4353-9CF9-0FFD7AF22EC6}"/>
     <hyperlink ref="S177" r:id="rId23" xr:uid="{FE688102-71E6-4D5D-8C26-E4A5C88965AB}"/>
     <hyperlink ref="S178" r:id="rId24" xr:uid="{75833417-6442-4309-8418-D565356A22B6}"/>
-    <hyperlink ref="AC175" r:id="rId25" tooltip="Blue Kurta Pant With Dupatta 5" display="https://qa.zlta.testingserver8.com/product-detail/blue-kurta-pant-with-dupatta-5" xr:uid="{607C8550-3794-4341-A161-A7629BBE6A0B}"/>
-    <hyperlink ref="AC179" r:id="rId26" tooltip="Blue Kurta Pant With Dupatta 5" display="https://qa.zlta.testingserver8.com/product-detail/blue-kurta-pant-with-dupatta-5" xr:uid="{65BCB209-6B4C-4696-89C6-77DCED3D0B2B}"/>
-    <hyperlink ref="AC176" r:id="rId27" tooltip="Blue Kurta Pant With Dupatta 5" display="https://qa.zlta.testingserver8.com/product-detail/blue-kurta-pant-with-dupatta-5" xr:uid="{6F138833-1695-4762-A377-A6FC00AF5A45}"/>
+    <hyperlink ref="AC175" r:id="rId25" tooltip="Beige ABCD kurta 10" display="https://qa.zlta.testingserver8.com/product-detail/beige-abcd-kurta-10" xr:uid="{04D6BD62-D6D3-4507-A9D5-80282A6668F1}"/>
+    <hyperlink ref="AC176" r:id="rId26" tooltip="Beige ABCD kurta 10" display="https://qa.zlta.testingserver8.com/product-detail/beige-abcd-kurta-10" xr:uid="{E5F22AA8-3955-4544-8875-209980B1EE50}"/>
+    <hyperlink ref="AC179" r:id="rId27" tooltip="Beige ABCD kurta 10" display="https://qa.zlta.testingserver8.com/product-detail/beige-abcd-kurta-10" xr:uid="{5920AA2A-E939-4507-BC88-3BB2798A2997}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId28"/>
